--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB624CA-67B1-4980-BF87-CEBA04C877B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4487A-5A65-4BCB-AAAC-7BF6F3BE5863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>TAG</t>
   </si>
@@ -832,9 +835,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>ID min</t>
@@ -1256,7 +1256,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,10 +1328,10 @@
         <v>266</v>
       </c>
       <c r="Q2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R2" t="s">
         <v>268</v>
-      </c>
-      <c r="R2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1368,9 +1368,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -1412,9 +1410,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4">
         <v>21</v>
       </c>
@@ -1456,9 +1452,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5">
         <v>41</v>
       </c>
@@ -1500,9 +1494,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6">
         <v>61</v>
       </c>
@@ -1544,9 +1536,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7">
         <v>81</v>
       </c>
@@ -1588,9 +1578,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P8" s="1"/>
       <c r="Q8">
         <v>101</v>
       </c>
@@ -1632,9 +1620,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P9" s="1"/>
       <c r="Q9">
         <v>121</v>
       </c>
@@ -1679,9 +1665,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10">
         <v>141</v>
       </c>
@@ -1723,9 +1707,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P11" s="1"/>
       <c r="Q11">
         <v>161</v>
       </c>
@@ -1767,9 +1749,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P12" s="1"/>
       <c r="Q12">
         <v>181</v>
       </c>
@@ -1811,9 +1791,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P13" s="1"/>
       <c r="Q13">
         <v>201</v>
       </c>
@@ -1855,9 +1833,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P14" s="1"/>
       <c r="Q14">
         <v>221</v>
       </c>
@@ -1905,9 +1881,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15">
         <v>241</v>
       </c>
@@ -1949,9 +1923,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P16" s="1"/>
       <c r="Q16">
         <v>261</v>
       </c>
@@ -1993,9 +1965,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P17" s="1"/>
       <c r="Q17">
         <v>281</v>
       </c>
@@ -2037,9 +2007,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P18" s="1"/>
       <c r="Q18">
         <v>301</v>
       </c>
@@ -2081,9 +2049,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P19" s="1"/>
       <c r="Q19">
         <v>321</v>
       </c>
@@ -2125,9 +2091,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P20" s="1"/>
       <c r="Q20">
         <v>341</v>
       </c>
@@ -2169,9 +2133,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21">
         <v>361</v>
       </c>
@@ -2213,9 +2175,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P22" s="1"/>
       <c r="Q22">
         <v>381</v>
       </c>
@@ -2263,9 +2223,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P23" s="1"/>
       <c r="Q23">
         <v>401</v>
       </c>
@@ -2307,9 +2265,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P24" s="1"/>
       <c r="Q24">
         <v>421</v>
       </c>
@@ -2351,9 +2307,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P25" s="1"/>
       <c r="Q25">
         <v>441</v>
       </c>
@@ -2395,9 +2349,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P26" s="1"/>
       <c r="Q26">
         <v>461</v>
       </c>
@@ -2439,9 +2391,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P27" s="1"/>
       <c r="Q27">
         <v>481</v>
       </c>
@@ -2483,9 +2433,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="P28" s="1"/>
       <c r="Q28">
         <v>501</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4487A-5A65-4BCB-AAAC-7BF6F3BE5863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE49AB47-5D73-4C59-AC54-CE61026D0FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Rework" sheetId="1" r:id="rId1"/>
+    <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -841,6 +842,546 @@
   </si>
   <si>
     <t>ID max</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t>Trait Level 1</t>
+  </si>
+  <si>
+    <t>Trait Level 2</t>
+  </si>
+  <si>
+    <t>FM Trait</t>
+  </si>
+  <si>
+    <t>Admiral Personality</t>
+  </si>
+  <si>
+    <t>Trait Level 3</t>
+  </si>
+  <si>
+    <t>High Command</t>
+  </si>
+  <si>
+    <t>Army Chief</t>
+  </si>
+  <si>
+    <t>Navy Chief</t>
+  </si>
+  <si>
+    <t>Air Chief</t>
+  </si>
+  <si>
+    <t>old_guard</t>
+  </si>
+  <si>
+    <t>brilliant_strategist</t>
+  </si>
+  <si>
+    <t>inflexible_strategist</t>
+  </si>
+  <si>
+    <t>politically_connected</t>
+  </si>
+  <si>
+    <t>war_hero</t>
+  </si>
+  <si>
+    <t>career_officer</t>
+  </si>
+  <si>
+    <t>trait_cautious</t>
+  </si>
+  <si>
+    <t>trait_reckless</t>
+  </si>
+  <si>
+    <t>media_personality</t>
+  </si>
+  <si>
+    <t>harsh_leader</t>
+  </si>
+  <si>
+    <t>kind_leader</t>
+  </si>
+  <si>
+    <t>armor_officer</t>
+  </si>
+  <si>
+    <t>armoured_cavalry_officer</t>
+  </si>
+  <si>
+    <t>engineer_officer</t>
+  </si>
+  <si>
+    <t>infantry_officer</t>
+  </si>
+  <si>
+    <t>marine_officer</t>
+  </si>
+  <si>
+    <t>commando_officer</t>
+  </si>
+  <si>
+    <t>air_cavalry_officer</t>
+  </si>
+  <si>
+    <t>artillery_officer</t>
+  </si>
+  <si>
+    <t>guerrilla_officer</t>
+  </si>
+  <si>
+    <t>organizer</t>
+  </si>
+  <si>
+    <t>organizer_expert</t>
+  </si>
+  <si>
+    <t>panzer_leader</t>
+  </si>
+  <si>
+    <t>panzer_expert</t>
+  </si>
+  <si>
+    <t>combined_arms_expert</t>
+  </si>
+  <si>
+    <t>armoured_cavalry_leader</t>
+  </si>
+  <si>
+    <t>armoured_cavalry_expert</t>
+  </si>
+  <si>
+    <t>trait_engineer</t>
+  </si>
+  <si>
+    <t>fortress_buster</t>
+  </si>
+  <si>
+    <t>infantry_leader</t>
+  </si>
+  <si>
+    <t>infantry_expert</t>
+  </si>
+  <si>
+    <t>naval_invader</t>
+  </si>
+  <si>
+    <t>naval_liason</t>
+  </si>
+  <si>
+    <t>invader_ii</t>
+  </si>
+  <si>
+    <t>commando</t>
+  </si>
+  <si>
+    <t>special_forces_trait</t>
+  </si>
+  <si>
+    <t>paratrooper</t>
+  </si>
+  <si>
+    <t>air_cavalry_leader</t>
+  </si>
+  <si>
+    <t>air_cavalry_expert</t>
+  </si>
+  <si>
+    <t>trickster</t>
+  </si>
+  <si>
+    <t>expert_improviser</t>
+  </si>
+  <si>
+    <t>skilled_staffer</t>
+  </si>
+  <si>
+    <t>expert_staffer</t>
+  </si>
+  <si>
+    <t>artillery_leader</t>
+  </si>
+  <si>
+    <t>artillery_expert</t>
+  </si>
+  <si>
+    <t>guerrilla_leader_trait</t>
+  </si>
+  <si>
+    <t>skirmisher</t>
+  </si>
+  <si>
+    <t>scavenger</t>
+  </si>
+  <si>
+    <t>desperate_defender</t>
+  </si>
+  <si>
+    <t>ambusher</t>
+  </si>
+  <si>
+    <t>camouflage_expert</t>
+  </si>
+  <si>
+    <t>logistics_wizard</t>
+  </si>
+  <si>
+    <t>fast_planner</t>
+  </si>
+  <si>
+    <t>thorough_planner</t>
+  </si>
+  <si>
+    <t>unyielding_defender</t>
+  </si>
+  <si>
+    <t>aggressive_assaulter</t>
+  </si>
+  <si>
+    <t>offensive_doctrine</t>
+  </si>
+  <si>
+    <t>defensive_doctrine</t>
+  </si>
+  <si>
+    <t>organisational_leader</t>
+  </si>
+  <si>
+    <t>inspirational_leader</t>
+  </si>
+  <si>
+    <t>expert_delegator</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>desert_fox</t>
+  </si>
+  <si>
+    <t>swamp_fox</t>
+  </si>
+  <si>
+    <t>hill_fighter</t>
+  </si>
+  <si>
+    <t>trait_mountaineer</t>
+  </si>
+  <si>
+    <t>urban_assault_specialist</t>
+  </si>
+  <si>
+    <t>ranger</t>
+  </si>
+  <si>
+    <t>jungle_rat</t>
+  </si>
+  <si>
+    <t>winter_specialist</t>
+  </si>
+  <si>
+    <t>adaptable</t>
+  </si>
+  <si>
+    <t>winter_expert</t>
+  </si>
+  <si>
+    <t>old_guard_navy</t>
+  </si>
+  <si>
+    <t>gentlemanly</t>
+  </si>
+  <si>
+    <t>gunnery_expert</t>
+  </si>
+  <si>
+    <t>cuts_corners</t>
+  </si>
+  <si>
+    <t>chief_engineer</t>
+  </si>
+  <si>
+    <t>navy_media_personality</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>craven</t>
+  </si>
+  <si>
+    <t>navy_career_officer</t>
+  </si>
+  <si>
+    <t>cruiser_adherent</t>
+  </si>
+  <si>
+    <t>aviation_enthusiast</t>
+  </si>
+  <si>
+    <t>caustic_personality</t>
+  </si>
+  <si>
+    <t>naval_lineage</t>
+  </si>
+  <si>
+    <t>seawolf</t>
+  </si>
+  <si>
+    <t>silent_hunter</t>
+  </si>
+  <si>
+    <t>torpedo_expert</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>loading_drill_master</t>
+  </si>
+  <si>
+    <t>fleet_protector</t>
+  </si>
+  <si>
+    <t>destroyer_leader</t>
+  </si>
+  <si>
+    <t>hunter_killer</t>
+  </si>
+  <si>
+    <t>fly_swatter</t>
+  </si>
+  <si>
+    <t>small_ship_captain</t>
+  </si>
+  <si>
+    <t>search_pattern_expert</t>
+  </si>
+  <si>
+    <t>superior_tactician</t>
+  </si>
+  <si>
+    <t>lone_wolf</t>
+  </si>
+  <si>
+    <t>smoke_screen_expert</t>
+  </si>
+  <si>
+    <t>concealment_expert</t>
+  </si>
+  <si>
+    <t>blockade_runner</t>
+  </si>
+  <si>
+    <t>mine_sweeper</t>
+  </si>
+  <si>
+    <t>spotter</t>
+  </si>
+  <si>
+    <t>mine_layer</t>
+  </si>
+  <si>
+    <t>air_controller</t>
+  </si>
+  <si>
+    <t>flight_deck_manager</t>
+  </si>
+  <si>
+    <t>fighter_director</t>
+  </si>
+  <si>
+    <t>dive_bomber</t>
+  </si>
+  <si>
+    <t>torpedo_bomber</t>
+  </si>
+  <si>
+    <t>ironside</t>
+  </si>
+  <si>
+    <t>big_guns_expert</t>
+  </si>
+  <si>
+    <t>marksman</t>
+  </si>
+  <si>
+    <t>safety_first</t>
+  </si>
+  <si>
+    <t>crisis_magician</t>
+  </si>
+  <si>
+    <t>ground_pounder</t>
+  </si>
+  <si>
+    <t>arctic_water_expert</t>
+  </si>
+  <si>
+    <t>inshore_fighter</t>
+  </si>
+  <si>
+    <t>blue_water_expert</t>
+  </si>
+  <si>
+    <t>green_water_expert</t>
+  </si>
+  <si>
+    <t>army_regrouping_X</t>
+  </si>
+  <si>
+    <t>army_armored_X</t>
+  </si>
+  <si>
+    <t>army_CombinedArms_X</t>
+  </si>
+  <si>
+    <t>army_armoured_cavalry_X</t>
+  </si>
+  <si>
+    <t>army_entrenchment_X</t>
+  </si>
+  <si>
+    <t>army_infantry_X</t>
+  </si>
+  <si>
+    <t>navy_amphibious_assault_X</t>
+  </si>
+  <si>
+    <t>army_commando_X</t>
+  </si>
+  <si>
+    <t>air_airborne_X</t>
+  </si>
+  <si>
+    <t>army_air_cavalry_X</t>
+  </si>
+  <si>
+    <t>army_logistics_X</t>
+  </si>
+  <si>
+    <t>army_artillery_X</t>
+  </si>
+  <si>
+    <t>army_militia_X</t>
+  </si>
+  <si>
+    <t>army_concealment_X</t>
+  </si>
+  <si>
+    <t>navy_sumbarine_X</t>
+  </si>
+  <si>
+    <t>navy_screen_X</t>
+  </si>
+  <si>
+    <t>navy_anti_submarine_X</t>
+  </si>
+  <si>
+    <t>navy_naval_air_defense_X</t>
+  </si>
+  <si>
+    <t>navy_carrier_X</t>
+  </si>
+  <si>
+    <t>air_naval_strike_X</t>
+  </si>
+  <si>
+    <t>navy_capital_ship_X</t>
+  </si>
+  <si>
+    <t>army_chief_logistics_X</t>
+  </si>
+  <si>
+    <t>army_chief_reform_X</t>
+  </si>
+  <si>
+    <t>army_chief_planning_X</t>
+  </si>
+  <si>
+    <t>army_chief_entrenchment_X</t>
+  </si>
+  <si>
+    <t>army_chief_maneuver_X</t>
+  </si>
+  <si>
+    <t>army_chief_offensive_X</t>
+  </si>
+  <si>
+    <t>army_chief_defensive_X</t>
+  </si>
+  <si>
+    <t>army_chief_organizational_X</t>
+  </si>
+  <si>
+    <t>army_chief_morale_X</t>
+  </si>
+  <si>
+    <t>army_chief_drill_X</t>
+  </si>
+  <si>
+    <t>navy_chief_maneuver_X</t>
+  </si>
+  <si>
+    <t>navy_chief_commerce_raiding_X</t>
+  </si>
+  <si>
+    <t>navy_chief_naval_aviation_X</t>
+  </si>
+  <si>
+    <t>navy_chief_decisive_battle_X</t>
+  </si>
+  <si>
+    <t>navy_chief_reform_X</t>
+  </si>
+  <si>
+    <t>navy_fleet_logistics_X</t>
+  </si>
+  <si>
+    <t>air_chief_reform_X</t>
+  </si>
+  <si>
+    <t>air_chief_safety_X</t>
+  </si>
+  <si>
+    <t>air_chief_night_operations_X</t>
+  </si>
+  <si>
+    <t>air_chief_ground_support_X</t>
+  </si>
+  <si>
+    <t>air_chief_all_weather_X</t>
+  </si>
+  <si>
+    <t>air_air_combat_training_X</t>
+  </si>
+  <si>
+    <t>air_bomber_interception_X</t>
+  </si>
+  <si>
+    <t>air_air_superiority_X</t>
+  </si>
+  <si>
+    <t>air_close_air_support_X</t>
+  </si>
+  <si>
+    <t>air_strategic_bombing_X</t>
+  </si>
+  <si>
+    <t>air_tactical_bombing_X</t>
+  </si>
+  <si>
+    <t>air_pilot_training_X</t>
+  </si>
+  <si>
+    <t>air_force_multiplier_X (helicopters)</t>
   </si>
 </sst>
 </file>
@@ -882,10 +1423,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,6 +1820,7 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1368,7 +1913,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -12158,4 +12705,627 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
+  <dimension ref="A2:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N3" t="s">
+        <v>413</v>
+      </c>
+      <c r="O3" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" t="s">
+        <v>421</v>
+      </c>
+      <c r="I4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" t="s">
+        <v>369</v>
+      </c>
+      <c r="M4" t="s">
+        <v>396</v>
+      </c>
+      <c r="N4" t="s">
+        <v>414</v>
+      </c>
+      <c r="O4" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" t="s">
+        <v>370</v>
+      </c>
+      <c r="K5" t="s">
+        <v>371</v>
+      </c>
+      <c r="L5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M5" t="s">
+        <v>397</v>
+      </c>
+      <c r="N5" t="s">
+        <v>415</v>
+      </c>
+      <c r="O5" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N6" t="s">
+        <v>416</v>
+      </c>
+      <c r="O6" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L7" t="s">
+        <v>378</v>
+      </c>
+      <c r="N7" t="s">
+        <v>417</v>
+      </c>
+      <c r="O7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K8" t="s">
+        <v>379</v>
+      </c>
+      <c r="N8" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" t="s">
+        <v>426</v>
+      </c>
+      <c r="I9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K9" t="s">
+        <v>381</v>
+      </c>
+      <c r="N9" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" t="s">
+        <v>427</v>
+      </c>
+      <c r="I10" t="s">
+        <v>359</v>
+      </c>
+      <c r="J10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K10" t="s">
+        <v>383</v>
+      </c>
+      <c r="N10" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" t="s">
+        <v>360</v>
+      </c>
+      <c r="J11" t="s">
+        <v>384</v>
+      </c>
+      <c r="K11" t="s">
+        <v>385</v>
+      </c>
+      <c r="L11" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" t="s">
+        <v>429</v>
+      </c>
+      <c r="I12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L12" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" t="s">
+        <v>409</v>
+      </c>
+      <c r="I13" t="s">
+        <v>362</v>
+      </c>
+      <c r="L13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" t="s">
+        <v>410</v>
+      </c>
+      <c r="I14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" t="s">
+        <v>390</v>
+      </c>
+      <c r="L14" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" t="s">
+        <v>411</v>
+      </c>
+      <c r="I15" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" t="s">
+        <v>392</v>
+      </c>
+      <c r="L15" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" t="s">
+        <v>412</v>
+      </c>
+      <c r="K16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE49AB47-5D73-4C59-AC54-CE61026D0FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E2275-B4F3-4766-B173-4D09AD38ABC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q4">
         <v>21</v>
       </c>
@@ -1999,7 +2001,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q5">
         <v>41</v>
       </c>
@@ -2041,7 +2045,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q6">
         <v>61</v>
       </c>
@@ -2083,7 +2089,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q7">
         <v>81</v>
       </c>
@@ -2125,7 +2133,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q8">
         <v>101</v>
       </c>
@@ -12711,8 +12721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E2275-B4F3-4766-B173-4D09AD38ABC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D03D82-7EC0-47A9-BF82-CDDF80DB90BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2177,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q9">
         <v>121</v>
       </c>
@@ -2222,7 +2224,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q10">
         <v>141</v>
       </c>
@@ -12722,7 +12726,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D03D82-7EC0-47A9-BF82-CDDF80DB90BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924AF80E-0D4B-4C23-9D52-9438E3FD87A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2268,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q11">
         <v>161</v>
       </c>
@@ -2310,7 +2312,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q12">
         <v>181</v>
       </c>
@@ -2352,7 +2356,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q13">
         <v>201</v>
       </c>
@@ -12726,7 +12732,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924AF80E-0D4B-4C23-9D52-9438E3FD87A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAEF7A-1694-487D-AE6C-D88DBD9D73FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1276,9 +1276,6 @@
     <t>army_concealment_X</t>
   </si>
   <si>
-    <t>navy_sumbarine_X</t>
-  </si>
-  <si>
     <t>navy_screen_X</t>
   </si>
   <si>
@@ -1382,6 +1379,9 @@
   </si>
   <si>
     <t>air_force_multiplier_X (helicopters)</t>
+  </si>
+  <si>
+    <t>navy_submarine_X</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2400,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q14">
         <v>221</v>
       </c>
@@ -2448,7 +2450,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q15">
         <v>241</v>
       </c>
@@ -12732,7 +12736,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12821,7 +12825,7 @@
         <v>399</v>
       </c>
       <c r="G3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
         <v>352</v>
@@ -12839,13 +12843,13 @@
         <v>395</v>
       </c>
       <c r="N3" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="O3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -12868,7 +12872,7 @@
         <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I4" t="s">
         <v>353</v>
@@ -12883,13 +12887,13 @@
         <v>396</v>
       </c>
       <c r="N4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -12909,7 +12913,7 @@
         <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I5" t="s">
         <v>354</v>
@@ -12927,13 +12931,13 @@
         <v>397</v>
       </c>
       <c r="N5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -12956,7 +12960,7 @@
         <v>402</v>
       </c>
       <c r="G6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I6" t="s">
         <v>355</v>
@@ -12974,13 +12978,13 @@
         <v>398</v>
       </c>
       <c r="N6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -13003,7 +13007,7 @@
         <v>403</v>
       </c>
       <c r="G7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I7" t="s">
         <v>356</v>
@@ -13018,13 +13022,13 @@
         <v>378</v>
       </c>
       <c r="N7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -13047,7 +13051,7 @@
         <v>404</v>
       </c>
       <c r="G8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I8" t="s">
         <v>357</v>
@@ -13056,10 +13060,10 @@
         <v>379</v>
       </c>
       <c r="N8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13082,7 +13086,7 @@
         <v>405</v>
       </c>
       <c r="G9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I9" t="s">
         <v>358</v>
@@ -13094,10 +13098,10 @@
         <v>381</v>
       </c>
       <c r="N9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -13117,7 +13121,7 @@
         <v>406</v>
       </c>
       <c r="G10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I10" t="s">
         <v>359</v>
@@ -13129,10 +13133,10 @@
         <v>383</v>
       </c>
       <c r="N10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -13155,7 +13159,7 @@
         <v>407</v>
       </c>
       <c r="G11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I11" t="s">
         <v>360</v>
@@ -13170,7 +13174,7 @@
         <v>386</v>
       </c>
       <c r="Q11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -13190,7 +13194,7 @@
         <v>408</v>
       </c>
       <c r="G12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I12" t="s">
         <v>361</v>
@@ -13199,7 +13203,7 @@
         <v>387</v>
       </c>
       <c r="Q12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -13222,7 +13226,7 @@
         <v>388</v>
       </c>
       <c r="Q13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -13251,7 +13255,7 @@
         <v>391</v>
       </c>
       <c r="Q14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -13277,7 +13281,7 @@
         <v>393</v>
       </c>
       <c r="Q15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAEF7A-1694-487D-AE6C-D88DBD9D73FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3F7806-DD9E-4382-839C-0080AC4F8D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2494,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q16">
         <v>261</v>
       </c>
@@ -12735,8 +12737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3F7806-DD9E-4382-839C-0080AC4F8D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403586D6-CC84-4321-BBAE-9C898E8AA8B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1437,9 +1437,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1478,6 +1475,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1526,7 +1526,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2538,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q17">
         <v>281</v>
       </c>
@@ -2580,7 +2582,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q18">
         <v>301</v>
       </c>
@@ -2622,7 +2626,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q19">
         <v>321</v>
       </c>
@@ -2664,7 +2670,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q20">
         <v>341</v>
       </c>
@@ -2706,7 +2714,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q21">
         <v>361</v>
       </c>
@@ -2748,7 +2758,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q22">
         <v>381</v>
       </c>
@@ -2796,7 +2808,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q23">
         <v>401</v>
       </c>
@@ -12710,18 +12724,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O253">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P253">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12738,7 +12752,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403586D6-CC84-4321-BBAE-9C898E8AA8B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713A43B-57E8-4D66-83F8-2CFE4AA24074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1437,6 +1437,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1475,9 +1478,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1526,7 +1526,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,7 +2852,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q24">
         <v>421</v>
       </c>
@@ -2894,7 +2896,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q25">
         <v>441</v>
       </c>
@@ -2936,7 +2940,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q26">
         <v>461</v>
       </c>
@@ -12724,18 +12730,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O253">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P253">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12752,7 +12758,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713A43B-57E8-4D66-83F8-2CFE4AA24074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93565A-1C75-41FD-A4AA-71E0E9AC30E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,7 +2984,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q27">
         <v>481</v>
       </c>
@@ -3026,7 +3028,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q28">
         <v>501</v>
       </c>
@@ -12757,8 +12761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93565A-1C75-41FD-A4AA-71E0E9AC30E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46606D74-BCA6-47C7-95C1-EB4695EECA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3078,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q29">
         <v>521</v>
       </c>
@@ -3120,7 +3122,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q30">
         <v>541</v>
       </c>
@@ -12761,8 +12765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46606D74-BCA6-47C7-95C1-EB4695EECA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD414B9-9172-40C5-BCE3-8322B943FAED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,7 +3166,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q31">
         <v>561</v>
       </c>
@@ -3208,7 +3210,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q32">
         <v>581</v>
       </c>
@@ -3250,7 +3254,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q33">
         <v>601</v>
       </c>
@@ -12766,7 +12772,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassa\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD414B9-9172-40C5-BCE3-8322B943FAED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3FF71-A6BD-4312-954D-F6E4A77A6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1433,7 +1431,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1799,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4468,7 +4466,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q61">
         <v>1161</v>
       </c>
@@ -8095,7 +8095,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P145" s="1"/>
+      <c r="P145" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q145">
         <v>2841</v>
       </c>
@@ -11401,7 +11403,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P222" s="1"/>
+      <c r="P222" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q222">
         <v>4381</v>
       </c>
@@ -12733,7 +12737,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P253" s="1"/>
+      <c r="P253" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q253">
         <v>5001</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassa\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3FF71-A6BD-4312-954D-F6E4A77A6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D753609-B4A4-4634-B557-11D4DA2EFDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6337,7 +6337,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P104" s="1"/>
+      <c r="P104" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q104">
         <v>2021</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassa\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3FF71-A6BD-4312-954D-F6E4A77A6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7473C-4970-4290-A6F2-ECB952CA2DD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1431,7 +1433,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1797,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3298,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q34">
         <v>621</v>
       </c>
@@ -12778,7 +12782,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hassa\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D753609-B4A4-4634-B557-11D4DA2EFDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7670EC-74C3-494E-B2B2-5151C826EB7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1431,7 +1433,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1797,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3298,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q34">
         <v>621</v>
       </c>
@@ -3338,7 +3342,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q35">
         <v>641</v>
       </c>
@@ -12779,8 +12785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7670EC-74C3-494E-B2B2-5151C826EB7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891A7C3-18F9-40E9-AE6C-A360D2F8BC9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,7 +3386,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q36">
         <v>661</v>
       </c>
@@ -12785,8 +12787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891A7C3-18F9-40E9-AE6C-A360D2F8BC9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B225E-91BD-49BD-A0A9-B3FDC513E8D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="449">
   <si>
     <t>TAG</t>
   </si>
@@ -1800,7 +1800,7 @@
   <dimension ref="A2:R253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3433,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q37">
         <v>681</v>
       </c>
@@ -12788,7 +12790,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B225E-91BD-49BD-A0A9-B3FDC513E8D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DDBBD7-60CC-4A82-A490-1C23C570B8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1382,6 +1382,12 @@
   </si>
   <si>
     <t>navy_submarine_X</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>CAS</t>
   </si>
 </sst>
 </file>
@@ -1437,9 +1443,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1479,6 +1482,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1493,10 +1499,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10BD23E6-60AB-42C7-B043-A8B30FF8C033}" name="Taulukko2" displayName="Taulukko2" ref="A2:R253" totalsRowShown="0">
-  <autoFilter ref="A2:R253" xr:uid="{6DDEF623-4240-4F7B-A4DC-C137388F3BBA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O253">
-    <sortCondition ref="A2:A253"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10BD23E6-60AB-42C7-B043-A8B30FF8C033}" name="Taulukko2" displayName="Taulukko2" ref="A2:R255" totalsRowShown="0">
+  <autoFilter ref="A2:R255" xr:uid="{6DDEF623-4240-4F7B-A4DC-C137388F3BBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O255">
+    <sortCondition ref="A2:A255"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0F370F1D-33D6-4690-B3B1-6018D18D0D34}" name="TAG"/>
@@ -1526,7 +1532,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1797,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R253"/>
+  <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3483,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q38">
         <v>701</v>
       </c>
@@ -3487,10 +3495,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
+        <v>449</v>
       </c>
       <c r="F39">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -3500,60 +3505,47 @@
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>8</v>
-      </c>
       <c r="L39">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39">
-        <v>721</v>
-      </c>
-      <c r="R39">
-        <v>740</v>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B40">
-        <v>13</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>17</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L40">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -3561,45 +3553,53 @@
       </c>
       <c r="N40">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q40">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="R40">
-        <v>760</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
       <c r="L41">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -3611,18 +3611,18 @@
       </c>
       <c r="P41" s="1"/>
       <c r="Q41">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="R41">
-        <v>780</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L42">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -3653,37 +3653,31 @@
       </c>
       <c r="P42" s="1"/>
       <c r="Q42">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="R42">
-        <v>800</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="F43">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -3694,19 +3688,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Q43">
-        <v>801</v>
-      </c>
-      <c r="R43">
-        <v>820</v>
-      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -3717,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -3737,29 +3725,29 @@
       </c>
       <c r="P44" s="1"/>
       <c r="Q44">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="R44">
-        <v>840</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F45">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L45">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -3771,37 +3759,37 @@
       </c>
       <c r="N45">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="R45">
-        <v>860</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L46">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -3813,57 +3801,45 @@
       </c>
       <c r="N46">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="R46">
-        <v>880</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="B47">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>111</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L47">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M47">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -3871,19 +3847,19 @@
       </c>
       <c r="O47">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="R47">
-        <v>900</v>
+        <v>860</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3897,61 +3873,73 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O48">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="R48">
-        <v>920</v>
+        <v>880</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="F49">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
       </c>
       <c r="L49">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M49">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -3959,37 +3947,37 @@
       </c>
       <c r="P49" s="1"/>
       <c r="Q49">
-        <v>921</v>
+        <v>881</v>
       </c>
       <c r="R49">
-        <v>940</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L50">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4001,37 +3989,37 @@
       </c>
       <c r="P50" s="1"/>
       <c r="Q50">
-        <v>941</v>
+        <v>901</v>
       </c>
       <c r="R50">
-        <v>960</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L51">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4043,18 +4031,18 @@
       </c>
       <c r="P51" s="1"/>
       <c r="Q51">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="R51">
-        <v>980</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4065,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4085,37 +4073,37 @@
       </c>
       <c r="P52" s="1"/>
       <c r="Q52">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="R52">
-        <v>1000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F53">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L53">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4127,18 +4115,18 @@
       </c>
       <c r="P53" s="1"/>
       <c r="Q53">
-        <v>1001</v>
+        <v>961</v>
       </c>
       <c r="R53">
-        <v>1020</v>
+        <v>980</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4149,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4169,40 +4157,37 @@
       </c>
       <c r="P54" s="1"/>
       <c r="Q54">
-        <v>1021</v>
+        <v>981</v>
       </c>
       <c r="R54">
-        <v>1040</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4214,15 +4199,15 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="R55">
-        <v>1060</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4256,18 +4241,18 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56">
-        <v>1061</v>
+        <v>1021</v>
       </c>
       <c r="R56">
-        <v>1080</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4278,7 +4263,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
       </c>
       <c r="L57">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4298,18 +4286,18 @@
       </c>
       <c r="P57" s="1"/>
       <c r="Q57">
-        <v>1081</v>
+        <v>1041</v>
       </c>
       <c r="R57">
-        <v>1100</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4320,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4340,21 +4328,18 @@
       </c>
       <c r="P58" s="1"/>
       <c r="Q58">
-        <v>1101</v>
+        <v>1061</v>
       </c>
       <c r="R58">
-        <v>1120</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4365,10 +4350,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L59">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4388,18 +4370,18 @@
       </c>
       <c r="P59" s="1"/>
       <c r="Q59">
-        <v>1121</v>
+        <v>1081</v>
       </c>
       <c r="R59">
-        <v>1140</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4430,15 +4412,15 @@
       </c>
       <c r="P60" s="1"/>
       <c r="Q60">
-        <v>1141</v>
+        <v>1101</v>
       </c>
       <c r="R60">
-        <v>1160</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -4476,22 +4458,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P61" s="1"/>
       <c r="Q61">
-        <v>1161</v>
+        <v>1121</v>
       </c>
       <c r="R61">
-        <v>1180</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4502,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L62">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4522,37 +4502,43 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62">
-        <v>1181</v>
+        <v>1141</v>
       </c>
       <c r="R62">
-        <v>1200</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="F63">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
       </c>
       <c r="L63">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4562,20 +4548,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P63" s="1"/>
+      <c r="P63" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q63">
-        <v>1201</v>
+        <v>1161</v>
       </c>
       <c r="R63">
-        <v>1220</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4586,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4606,37 +4594,37 @@
       </c>
       <c r="P64" s="1"/>
       <c r="Q64">
-        <v>1221</v>
+        <v>1181</v>
       </c>
       <c r="R64">
-        <v>1240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4648,18 +4636,18 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65">
-        <v>1241</v>
+        <v>1201</v>
       </c>
       <c r="R65">
-        <v>1260</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4670,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L66">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4690,18 +4678,18 @@
       </c>
       <c r="P66" s="1"/>
       <c r="Q66">
-        <v>1261</v>
+        <v>1221</v>
       </c>
       <c r="R66">
-        <v>1280</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4712,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L67">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4732,18 +4720,18 @@
       </c>
       <c r="P67" s="1"/>
       <c r="Q67">
-        <v>1281</v>
+        <v>1241</v>
       </c>
       <c r="R67">
-        <v>1300</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4754,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4774,33 +4762,33 @@
       </c>
       <c r="P68" s="1"/>
       <c r="Q68">
-        <v>1301</v>
+        <v>1261</v>
       </c>
       <c r="R68">
-        <v>1320</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F69">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H69">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L69">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M69">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -4816,37 +4804,37 @@
       </c>
       <c r="P69" s="1"/>
       <c r="Q69">
-        <v>1321</v>
+        <v>1281</v>
       </c>
       <c r="R69">
-        <v>1340</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L70">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -4858,21 +4846,18 @@
       </c>
       <c r="P70" s="1"/>
       <c r="Q70">
-        <v>1341</v>
+        <v>1301</v>
       </c>
       <c r="R70">
-        <v>1360</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B71">
-        <v>17</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F71">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4883,17 +4868,11 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>21</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="L71">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M71">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -4901,7 +4880,7 @@
       </c>
       <c r="N71">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -4909,18 +4888,18 @@
       </c>
       <c r="P71" s="1"/>
       <c r="Q71">
-        <v>1361</v>
+        <v>1321</v>
       </c>
       <c r="R71">
-        <v>1380</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -4931,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L72">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -4951,36 +4930,42 @@
       </c>
       <c r="P72" s="1"/>
       <c r="Q72">
-        <v>1381</v>
+        <v>1341</v>
       </c>
       <c r="R72">
-        <v>1400</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="F73">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -4992,19 +4977,19 @@
       </c>
       <c r="O73">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73">
-        <v>1401</v>
+        <v>1361</v>
       </c>
       <c r="R73">
-        <v>1420</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -5018,11 +5003,11 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L74">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -5030,7 +5015,7 @@
       </c>
       <c r="N74">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -5038,18 +5023,18 @@
       </c>
       <c r="P74" s="1"/>
       <c r="Q74">
-        <v>1421</v>
+        <v>1381</v>
       </c>
       <c r="R74">
-        <v>1440</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5062,33 +5047,36 @@
       <c r="H75">
         <v>2</v>
       </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
       <c r="L75">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75">
-        <v>1441</v>
+        <v>1401</v>
       </c>
       <c r="R75">
-        <v>1460</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -5102,11 +5090,11 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L76">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -5114,7 +5102,7 @@
       </c>
       <c r="N76">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -5122,43 +5110,37 @@
       </c>
       <c r="P76" s="1"/>
       <c r="Q76">
-        <v>1461</v>
+        <v>1421</v>
       </c>
       <c r="R76">
-        <v>1480</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>11</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5170,33 +5152,33 @@
       </c>
       <c r="P77" s="1"/>
       <c r="Q77">
-        <v>1481</v>
+        <v>1441</v>
       </c>
       <c r="R77">
-        <v>1500</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L78">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M78">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -5204,45 +5186,51 @@
       </c>
       <c r="N78">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78">
-        <v>1501</v>
+        <v>1461</v>
       </c>
       <c r="R78">
-        <v>1520</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F79">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G79">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
       </c>
       <c r="L79">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5254,18 +5242,18 @@
       </c>
       <c r="P79" s="1"/>
       <c r="Q79">
-        <v>1521</v>
+        <v>1481</v>
       </c>
       <c r="R79">
-        <v>1540</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5276,38 +5264,38 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="L80">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M80">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O80">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80">
-        <v>1541</v>
+        <v>1501</v>
       </c>
       <c r="R80">
-        <v>1560</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5318,38 +5306,38 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81">
-        <v>1561</v>
+        <v>1521</v>
       </c>
       <c r="R81">
-        <v>1580</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5360,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L82">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5380,18 +5368,18 @@
       </c>
       <c r="P82" s="1"/>
       <c r="Q82">
-        <v>1581</v>
+        <v>1541</v>
       </c>
       <c r="R82">
-        <v>1600</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5402,69 +5390,57 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L83">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83">
-        <v>1601</v>
+        <v>1561</v>
       </c>
       <c r="R83">
-        <v>1620</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="B84">
-        <v>13</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="E84">
         <v>1</v>
       </c>
       <c r="F84">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>9</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="K84">
         <v>1</v>
       </c>
       <c r="L84">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5476,18 +5452,18 @@
       </c>
       <c r="P84" s="1"/>
       <c r="Q84">
-        <v>1621</v>
+        <v>1581</v>
       </c>
       <c r="R84">
-        <v>1640</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F85">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5498,57 +5474,69 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L85">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85">
-        <v>1641</v>
+        <v>1601</v>
       </c>
       <c r="R85">
-        <v>1660</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
       </c>
       <c r="F86">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G86">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
       </c>
       <c r="L86">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M86">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5560,15 +5548,15 @@
       </c>
       <c r="P86" s="1"/>
       <c r="Q86">
-        <v>1661</v>
+        <v>1621</v>
       </c>
       <c r="R86">
-        <v>1680</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -5582,63 +5570,57 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L87">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87">
-        <v>1681</v>
+        <v>1641</v>
       </c>
       <c r="R87">
-        <v>1700</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="B88">
-        <v>28</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>27</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L88">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5650,18 +5632,18 @@
       </c>
       <c r="P88" s="1"/>
       <c r="Q88">
-        <v>1701</v>
+        <v>1661</v>
       </c>
       <c r="R88">
-        <v>1720</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5672,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5692,37 +5674,43 @@
       </c>
       <c r="P89" s="1"/>
       <c r="Q89">
-        <v>1721</v>
+        <v>1681</v>
       </c>
       <c r="R89">
-        <v>1740</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
       </c>
       <c r="L90">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5734,15 +5722,15 @@
       </c>
       <c r="P90" s="1"/>
       <c r="Q90">
-        <v>1741</v>
+        <v>1701</v>
       </c>
       <c r="R90">
-        <v>1760</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5756,38 +5744,38 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L91">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91">
-        <v>1761</v>
+        <v>1721</v>
       </c>
       <c r="R91">
-        <v>1780</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5798,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5818,18 +5806,18 @@
       </c>
       <c r="P92" s="1"/>
       <c r="Q92">
-        <v>1781</v>
+        <v>1741</v>
       </c>
       <c r="R92">
-        <v>1800</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F93">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5840,38 +5828,38 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L93">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93">
-        <v>1801</v>
+        <v>1761</v>
       </c>
       <c r="R93">
-        <v>1820</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5882,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L94">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5902,15 +5890,15 @@
       </c>
       <c r="P94" s="1"/>
       <c r="Q94">
-        <v>1821</v>
+        <v>1781</v>
       </c>
       <c r="R94">
-        <v>1840</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5944,44 +5932,41 @@
       </c>
       <c r="P95" s="1"/>
       <c r="Q95">
-        <v>1841</v>
+        <v>1801</v>
       </c>
       <c r="R95">
-        <v>1860</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>24</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -5989,43 +5974,37 @@
       </c>
       <c r="P96" s="1"/>
       <c r="Q96">
-        <v>1861</v>
+        <v>1821</v>
       </c>
       <c r="R96">
-        <v>1880</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
       <c r="F97">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
       <c r="L97">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6037,41 +6016,44 @@
       </c>
       <c r="P97" s="1"/>
       <c r="Q97">
-        <v>1881</v>
+        <v>1841</v>
       </c>
       <c r="R97">
-        <v>1900</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
       </c>
       <c r="L98">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M98">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O98">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6079,20 +6061,20 @@
       </c>
       <c r="P98" s="1"/>
       <c r="Q98">
-        <v>1901</v>
+        <v>1861</v>
       </c>
       <c r="R98">
-        <v>1920</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B99">
-        <v>6</v>
-      </c>
-      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>1</v>
       </c>
       <c r="F99">
@@ -6104,9 +6086,9 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>6</v>
-      </c>
-      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="J99">
         <v>1</v>
       </c>
       <c r="L99">
@@ -6127,18 +6109,18 @@
       </c>
       <c r="P99" s="1"/>
       <c r="Q99">
-        <v>1921</v>
+        <v>1881</v>
       </c>
       <c r="R99">
-        <v>1940</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6149,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L100">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6169,29 +6151,35 @@
       </c>
       <c r="P100" s="1"/>
       <c r="Q100">
-        <v>1941</v>
+        <v>1901</v>
       </c>
       <c r="R100">
-        <v>1960</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
       </c>
       <c r="F101">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
       </c>
       <c r="L101">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6203,26 +6191,26 @@
       </c>
       <c r="N101">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101">
-        <v>1961</v>
+        <v>1921</v>
       </c>
       <c r="R101">
-        <v>1980</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F102">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6233,55 +6221,49 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L102">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O102">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102">
-        <v>1981</v>
+        <v>1941</v>
       </c>
       <c r="R102">
-        <v>2000</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>4</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L103">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6293,47 +6275,41 @@
       </c>
       <c r="N103">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103">
-        <v>2001</v>
+        <v>1961</v>
       </c>
       <c r="R103">
-        <v>2020</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
       <c r="F104">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L104">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6341,43 +6317,47 @@
       </c>
       <c r="N104">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O104">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P104" s="1"/>
       <c r="Q104">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="R104">
-        <v>2040</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B105">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
       </c>
       <c r="F105">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H105">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
       </c>
       <c r="L105">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M105">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6393,37 +6373,43 @@
       </c>
       <c r="P105" s="1"/>
       <c r="Q105">
-        <v>2041</v>
+        <v>2001</v>
       </c>
       <c r="R105">
-        <v>2060</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
       </c>
       <c r="F106">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
       </c>
       <c r="L106">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6433,20 +6419,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P106" s="1"/>
+      <c r="P106" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q106">
-        <v>2061</v>
+        <v>2021</v>
       </c>
       <c r="R106">
-        <v>2080</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B107">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F107">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6457,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L107">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6477,18 +6465,18 @@
       </c>
       <c r="P107" s="1"/>
       <c r="Q107">
-        <v>2081</v>
+        <v>2041</v>
       </c>
       <c r="R107">
-        <v>2100</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F108">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6499,49 +6487,49 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L108">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O108">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108">
-        <v>2101</v>
+        <v>2061</v>
       </c>
       <c r="R108">
-        <v>2120</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F109">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G109">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H109">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L109">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6553,7 +6541,7 @@
       </c>
       <c r="N109">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6561,89 +6549,83 @@
       </c>
       <c r="P109" s="1"/>
       <c r="Q109">
-        <v>2121</v>
+        <v>2081</v>
       </c>
       <c r="R109">
-        <v>2140</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="B110">
-        <v>11</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>26</v>
+      </c>
+      <c r="L110">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="G110">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>12</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
       <c r="M110">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N110">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O110">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110">
-        <v>2141</v>
+        <v>2101</v>
       </c>
       <c r="R110">
-        <v>2160</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="F111">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>34</v>
+      </c>
+      <c r="L111">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="F111">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>3</v>
-      </c>
-      <c r="L111">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M111">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6651,20 +6633,20 @@
       </c>
       <c r="P111" s="1"/>
       <c r="Q111">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="R111">
-        <v>2180</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B112">
-        <v>15</v>
-      </c>
-      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
@@ -6676,9 +6658,9 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>16</v>
-      </c>
-      <c r="I112">
+        <v>12</v>
+      </c>
+      <c r="K112">
         <v>1</v>
       </c>
       <c r="L112">
@@ -6699,37 +6681,37 @@
       </c>
       <c r="P112" s="1"/>
       <c r="Q112">
-        <v>2181</v>
+        <v>2141</v>
       </c>
       <c r="R112">
-        <v>2200</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F113">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6741,37 +6723,43 @@
       </c>
       <c r="P113" s="1"/>
       <c r="Q113">
-        <v>2201</v>
+        <v>2161</v>
       </c>
       <c r="R113">
-        <v>2220</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F114">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G114">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
       </c>
       <c r="L114">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6783,29 +6771,29 @@
       </c>
       <c r="P114" s="1"/>
       <c r="Q114">
-        <v>2221</v>
+        <v>2181</v>
       </c>
       <c r="R114">
-        <v>2240</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F115">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L115">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6817,26 +6805,26 @@
       </c>
       <c r="N115">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115" s="1"/>
       <c r="Q115">
-        <v>2241</v>
+        <v>2201</v>
       </c>
       <c r="R115">
-        <v>2260</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="B116">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6847,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6867,39 +6855,33 @@
       </c>
       <c r="P116" s="1"/>
       <c r="Q116">
-        <v>2261</v>
+        <v>2221</v>
       </c>
       <c r="R116">
-        <v>2280</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B117">
-        <v>11</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L117">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6907,26 +6889,26 @@
       </c>
       <c r="N117">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117">
-        <v>2281</v>
+        <v>2241</v>
       </c>
       <c r="R117">
-        <v>2300</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F118">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6937,53 +6919,59 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L118">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="R118">
-        <v>2320</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B119">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
       </c>
       <c r="F119">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G119">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H119">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
       </c>
       <c r="L119">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M119">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6999,18 +6987,18 @@
       </c>
       <c r="P119" s="1"/>
       <c r="Q119">
-        <v>2321</v>
+        <v>2281</v>
       </c>
       <c r="R119">
-        <v>2340</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F120">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7021,53 +7009,53 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L120">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120">
-        <v>2341</v>
+        <v>2301</v>
       </c>
       <c r="R120">
-        <v>2360</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F121">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H121">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L121">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7083,18 +7071,18 @@
       </c>
       <c r="P121" s="1"/>
       <c r="Q121">
-        <v>2361</v>
+        <v>2321</v>
       </c>
       <c r="R121">
-        <v>2380</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7105,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7125,21 +7113,18 @@
       </c>
       <c r="P122" s="1"/>
       <c r="Q122">
-        <v>2381</v>
+        <v>2341</v>
       </c>
       <c r="R122">
-        <v>2400</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F123">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7150,10 +7135,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>3</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L123">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7173,37 +7155,37 @@
       </c>
       <c r="P123" s="1"/>
       <c r="Q123">
-        <v>2401</v>
+        <v>2361</v>
       </c>
       <c r="R123">
-        <v>2420</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F124">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L124">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7215,31 +7197,34 @@
       </c>
       <c r="P124" s="1"/>
       <c r="Q124">
-        <v>2421</v>
+        <v>2381</v>
       </c>
       <c r="R124">
-        <v>2440</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="D125">
         <v>1</v>
       </c>
       <c r="F125">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="J125">
         <v>1</v>
       </c>
       <c r="L125">
@@ -7252,26 +7237,26 @@
       </c>
       <c r="N125">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P125" s="1"/>
       <c r="Q125">
-        <v>2441</v>
+        <v>2401</v>
       </c>
       <c r="R125">
-        <v>2460</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F126">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7282,53 +7267,56 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L126">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M126">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O126">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P126" s="1"/>
       <c r="Q126">
-        <v>2461</v>
+        <v>2421</v>
       </c>
       <c r="R126">
-        <v>2480</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
       </c>
       <c r="L127">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M127">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7340,33 +7328,33 @@
       </c>
       <c r="O127">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127" s="1"/>
       <c r="Q127">
-        <v>2481</v>
+        <v>2441</v>
       </c>
       <c r="R127">
-        <v>2500</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F128">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7378,26 +7366,26 @@
       </c>
       <c r="N128">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O128">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P128" s="1"/>
       <c r="Q128">
-        <v>2501</v>
+        <v>2461</v>
       </c>
       <c r="R128">
-        <v>2520</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F129">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7408,38 +7396,38 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L129">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M129">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O129">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P129" s="1"/>
       <c r="Q129">
-        <v>2521</v>
+        <v>2481</v>
       </c>
       <c r="R129">
-        <v>2540</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7450,52 +7438,49 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>3</v>
-      </c>
-      <c r="K130">
         <v>1</v>
       </c>
       <c r="L130">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130">
-        <v>2541</v>
+        <v>2501</v>
       </c>
       <c r="R130">
-        <v>2560</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F131">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L131">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7507,26 +7492,26 @@
       </c>
       <c r="N131">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O131">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131">
-        <v>2561</v>
+        <v>2521</v>
       </c>
       <c r="R131">
-        <v>2580</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F132">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7537,38 +7522,41 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
       </c>
       <c r="L132">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M132">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" s="1"/>
       <c r="Q132">
-        <v>2581</v>
+        <v>2541</v>
       </c>
       <c r="R132">
-        <v>2600</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7579,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L133">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7599,43 +7587,37 @@
       </c>
       <c r="P133" s="1"/>
       <c r="Q133">
-        <v>2601</v>
+        <v>2561</v>
       </c>
       <c r="R133">
-        <v>2620</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7647,18 +7629,18 @@
       </c>
       <c r="P134" s="1"/>
       <c r="Q134">
-        <v>2621</v>
+        <v>2581</v>
       </c>
       <c r="R134">
-        <v>2640</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F135">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7669,57 +7651,63 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L135">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" s="1"/>
       <c r="Q135">
-        <v>2641</v>
+        <v>2601</v>
       </c>
       <c r="R135">
-        <v>2660</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
       </c>
       <c r="F136">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
       </c>
       <c r="L136">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M136">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7731,18 +7719,18 @@
       </c>
       <c r="P136" s="1"/>
       <c r="Q136">
-        <v>2661</v>
+        <v>2621</v>
       </c>
       <c r="R136">
-        <v>2680</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7753,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L137">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7773,37 +7761,37 @@
       </c>
       <c r="P137" s="1"/>
       <c r="Q137">
-        <v>2681</v>
+        <v>2641</v>
       </c>
       <c r="R137">
-        <v>2700</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="B138">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F138">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L138">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7815,33 +7803,33 @@
       </c>
       <c r="P138" s="1"/>
       <c r="Q138">
-        <v>2701</v>
+        <v>2661</v>
       </c>
       <c r="R138">
-        <v>2720</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B139">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F139">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="L139">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7849,45 +7837,45 @@
       </c>
       <c r="N139">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="O139">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P139" s="1"/>
       <c r="Q139">
-        <v>2721</v>
+        <v>2681</v>
       </c>
       <c r="R139">
-        <v>2740</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F140">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L140">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M140">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7899,60 +7887,60 @@
       </c>
       <c r="P140" s="1"/>
       <c r="Q140">
-        <v>2741</v>
+        <v>2701</v>
       </c>
       <c r="R140">
-        <v>2760</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="B141">
+        <v>55</v>
+      </c>
+      <c r="F141">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>5</v>
       </c>
-      <c r="F141">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L141">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O141">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141">
-        <v>2761</v>
+        <v>2721</v>
       </c>
       <c r="R141">
-        <v>2780</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7963,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7983,18 +7971,18 @@
       </c>
       <c r="P142" s="1"/>
       <c r="Q142">
-        <v>2781</v>
+        <v>2741</v>
       </c>
       <c r="R142">
-        <v>2800</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F143">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8005,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8025,18 +8013,18 @@
       </c>
       <c r="P143" s="1"/>
       <c r="Q143">
-        <v>2801</v>
+        <v>2761</v>
       </c>
       <c r="R143">
-        <v>2820</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8047,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L144">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8067,18 +8055,18 @@
       </c>
       <c r="P144" s="1"/>
       <c r="Q144">
-        <v>2821</v>
+        <v>2781</v>
       </c>
       <c r="R144">
-        <v>2840</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8089,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L145">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8107,22 +8095,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P145" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P145" s="1"/>
       <c r="Q145">
-        <v>2841</v>
+        <v>2801</v>
       </c>
       <c r="R145">
-        <v>2860</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F146">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8133,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L146">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8153,18 +8139,18 @@
       </c>
       <c r="P146" s="1"/>
       <c r="Q146">
-        <v>2861</v>
+        <v>2821</v>
       </c>
       <c r="R146">
-        <v>2880</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F147">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8175,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L147">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8193,39 +8179,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P147" s="1"/>
+      <c r="P147" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q147">
-        <v>2881</v>
+        <v>2841</v>
       </c>
       <c r="R147">
-        <v>2900</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B148">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M148">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8237,15 +8225,15 @@
       </c>
       <c r="P148" s="1"/>
       <c r="Q148">
-        <v>2901</v>
+        <v>2861</v>
       </c>
       <c r="R148">
-        <v>2920</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -8259,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8279,37 +8267,37 @@
       </c>
       <c r="P149" s="1"/>
       <c r="Q149">
-        <v>2921</v>
+        <v>2881</v>
       </c>
       <c r="R149">
-        <v>2940</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F150">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G150">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L150">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M150">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8321,15 +8309,15 @@
       </c>
       <c r="P150" s="1"/>
       <c r="Q150">
-        <v>2941</v>
+        <v>2901</v>
       </c>
       <c r="R150">
-        <v>2960</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -8343,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L151">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8363,18 +8351,18 @@
       </c>
       <c r="P151" s="1"/>
       <c r="Q151">
-        <v>2961</v>
+        <v>2921</v>
       </c>
       <c r="R151">
-        <v>2980</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8385,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L152">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8405,18 +8393,18 @@
       </c>
       <c r="P152" s="1"/>
       <c r="Q152">
-        <v>2981</v>
+        <v>2941</v>
       </c>
       <c r="R152">
-        <v>3000</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F153">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8427,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L153">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8447,18 +8435,18 @@
       </c>
       <c r="P153" s="1"/>
       <c r="Q153">
-        <v>3001</v>
+        <v>2961</v>
       </c>
       <c r="R153">
-        <v>3020</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8469,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L154">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8489,18 +8477,18 @@
       </c>
       <c r="P154" s="1"/>
       <c r="Q154">
-        <v>3021</v>
+        <v>2981</v>
       </c>
       <c r="R154">
-        <v>3040</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8511,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L155">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8531,15 +8519,15 @@
       </c>
       <c r="P155" s="1"/>
       <c r="Q155">
-        <v>3041</v>
+        <v>3001</v>
       </c>
       <c r="R155">
-        <v>3060</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -8553,57 +8541,57 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L156">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M156">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O156">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P156" s="1"/>
       <c r="Q156">
-        <v>3061</v>
+        <v>3021</v>
       </c>
       <c r="R156">
-        <v>3080</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F157">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L157">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M157">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8615,63 +8603,60 @@
       </c>
       <c r="P157" s="1"/>
       <c r="Q157">
-        <v>3081</v>
+        <v>3041</v>
       </c>
       <c r="R157">
-        <v>3100</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B158">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F158">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="L158">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M158">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N158">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O158">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" s="1"/>
       <c r="Q158">
-        <v>3101</v>
+        <v>3061</v>
       </c>
       <c r="R158">
-        <v>3120</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="B159">
-        <v>3</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F159">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8682,10 +8667,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>3</v>
-      </c>
-      <c r="J159">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L159">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8705,47 +8687,41 @@
       </c>
       <c r="P159" s="1"/>
       <c r="Q159">
-        <v>3121</v>
+        <v>3081</v>
       </c>
       <c r="R159">
-        <v>3140</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B160">
-        <v>10</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F160">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G160">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160">
+        <v>75</v>
+      </c>
+      <c r="L160">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>6</v>
       </c>
-      <c r="K160">
-        <v>1</v>
-      </c>
-      <c r="L160">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M160">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N160">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O160">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -8753,29 +8729,35 @@
       </c>
       <c r="P160" s="1"/>
       <c r="Q160">
-        <v>3141</v>
+        <v>3101</v>
       </c>
       <c r="R160">
-        <v>3160</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
       </c>
       <c r="F161">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
       </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8787,37 +8769,43 @@
       </c>
       <c r="N161">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O161">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P161" s="1"/>
       <c r="Q161">
-        <v>3161</v>
+        <v>3121</v>
       </c>
       <c r="R161">
-        <v>3180</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
       </c>
       <c r="F162">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G162">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
       </c>
       <c r="L162">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8829,26 +8817,26 @@
       </c>
       <c r="N162">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O162">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P162" s="1"/>
       <c r="Q162">
-        <v>3181</v>
+        <v>3141</v>
       </c>
       <c r="R162">
-        <v>3200</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8859,38 +8847,38 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L163">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P163" s="1"/>
       <c r="Q163">
-        <v>3201</v>
+        <v>3161</v>
       </c>
       <c r="R163">
-        <v>3220</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8901,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L164">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8921,37 +8909,37 @@
       </c>
       <c r="P164" s="1"/>
       <c r="Q164">
-        <v>3221</v>
+        <v>3181</v>
       </c>
       <c r="R164">
-        <v>3240</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B165">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F165">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H165">
         <v>3</v>
       </c>
-      <c r="G165">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>37</v>
-      </c>
       <c r="L165">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8963,18 +8951,18 @@
       </c>
       <c r="P165" s="1"/>
       <c r="Q165">
-        <v>3241</v>
+        <v>3201</v>
       </c>
       <c r="R165">
-        <v>3260</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F166">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8985,57 +8973,57 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L166">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P166" s="1"/>
       <c r="Q166">
-        <v>3261</v>
+        <v>3221</v>
       </c>
       <c r="R166">
-        <v>3280</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F167">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="L167">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9047,18 +9035,18 @@
       </c>
       <c r="P167" s="1"/>
       <c r="Q167">
-        <v>3281</v>
+        <v>3241</v>
       </c>
       <c r="R167">
-        <v>3300</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9069,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9089,18 +9077,18 @@
       </c>
       <c r="P168" s="1"/>
       <c r="Q168">
-        <v>3301</v>
+        <v>3261</v>
       </c>
       <c r="R168">
-        <v>3320</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9111,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9131,18 +9119,18 @@
       </c>
       <c r="P169" s="1"/>
       <c r="Q169">
-        <v>3321</v>
+        <v>3281</v>
       </c>
       <c r="R169">
-        <v>3340</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F170">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9153,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9173,85 +9161,79 @@
       </c>
       <c r="P170" s="1"/>
       <c r="Q170">
-        <v>3341</v>
+        <v>3301</v>
       </c>
       <c r="R170">
-        <v>3360</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="B171">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F171">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>82</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M171">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N171">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O171">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P171" s="1"/>
       <c r="Q171">
-        <v>3361</v>
+        <v>3321</v>
       </c>
       <c r="R171">
-        <v>3380</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B172">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M172">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9263,79 +9245,85 @@
       </c>
       <c r="P172" s="1"/>
       <c r="Q172">
-        <v>3381</v>
+        <v>3341</v>
       </c>
       <c r="R172">
-        <v>3400</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F173">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G173">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M173">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N173">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O173">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" s="1"/>
       <c r="Q173">
-        <v>3401</v>
+        <v>3361</v>
       </c>
       <c r="R173">
-        <v>3420</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F174">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9347,18 +9335,18 @@
       </c>
       <c r="P174" s="1"/>
       <c r="Q174">
-        <v>3421</v>
+        <v>3381</v>
       </c>
       <c r="R174">
-        <v>3440</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9369,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9389,43 +9377,37 @@
       </c>
       <c r="P175" s="1"/>
       <c r="Q175">
-        <v>3441</v>
+        <v>3401</v>
       </c>
       <c r="R175">
-        <v>3460</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B176">
-        <v>18</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>18</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9437,43 +9419,37 @@
       </c>
       <c r="P176" s="1"/>
       <c r="Q176">
-        <v>3461</v>
+        <v>3421</v>
       </c>
       <c r="R176">
-        <v>3480</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="B177">
         <v>5</v>
       </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
       <c r="F177">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>5</v>
       </c>
-      <c r="K177">
-        <v>1</v>
-      </c>
       <c r="L177">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N177">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9485,33 +9461,39 @@
       </c>
       <c r="P177" s="1"/>
       <c r="Q177">
-        <v>3481</v>
+        <v>3441</v>
       </c>
       <c r="R177">
-        <v>3500</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="B178">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
       </c>
       <c r="F178">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H178">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
       </c>
       <c r="L178">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9527,37 +9509,43 @@
       </c>
       <c r="P178" s="1"/>
       <c r="Q178">
-        <v>3501</v>
+        <v>3461</v>
       </c>
       <c r="R178">
-        <v>3520</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
       </c>
       <c r="F179">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
       </c>
       <c r="L179">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9569,37 +9557,37 @@
       </c>
       <c r="P179" s="1"/>
       <c r="Q179">
-        <v>3521</v>
+        <v>3481</v>
       </c>
       <c r="R179">
-        <v>3540</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F180">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L180">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N180">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9611,18 +9599,18 @@
       </c>
       <c r="P180" s="1"/>
       <c r="Q180">
-        <v>3541</v>
+        <v>3501</v>
       </c>
       <c r="R180">
-        <v>3560</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9653,18 +9641,18 @@
       </c>
       <c r="P181" s="1"/>
       <c r="Q181">
-        <v>3561</v>
+        <v>3521</v>
       </c>
       <c r="R181">
-        <v>3580</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9675,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9695,44 +9683,41 @@
       </c>
       <c r="P182" s="1"/>
       <c r="Q182">
-        <v>3581</v>
+        <v>3541</v>
       </c>
       <c r="R182">
-        <v>3600</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B183">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>70</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N183">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O183">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9740,18 +9725,18 @@
       </c>
       <c r="P183" s="1"/>
       <c r="Q183">
-        <v>3601</v>
+        <v>3561</v>
       </c>
       <c r="R183">
-        <v>3620</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B184">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9782,37 +9767,40 @@
       </c>
       <c r="P184" s="1"/>
       <c r="Q184">
-        <v>3621</v>
+        <v>3581</v>
       </c>
       <c r="R184">
-        <v>3640</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F185">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H185">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
       </c>
       <c r="L185">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N185">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9820,48 +9808,45 @@
       </c>
       <c r="O185">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P185" s="1"/>
       <c r="Q185">
-        <v>3641</v>
+        <v>3601</v>
       </c>
       <c r="R185">
-        <v>3660</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="B186">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F186">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>11</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N186">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9869,33 +9854,33 @@
       </c>
       <c r="P186" s="1"/>
       <c r="Q186">
-        <v>3661</v>
+        <v>3621</v>
       </c>
       <c r="R186">
-        <v>3680</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B187">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L187">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9903,26 +9888,26 @@
       </c>
       <c r="N187">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O187">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P187" s="1"/>
       <c r="Q187">
-        <v>3681</v>
+        <v>3641</v>
       </c>
       <c r="R187">
-        <v>3700</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F188">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9933,11 +9918,14 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
       </c>
       <c r="L188">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M188">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9945,7 +9933,7 @@
       </c>
       <c r="N188">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O188">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9953,37 +9941,37 @@
       </c>
       <c r="P188" s="1"/>
       <c r="Q188">
-        <v>3701</v>
+        <v>3661</v>
       </c>
       <c r="R188">
-        <v>3720</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F189">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L189">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9995,72 +9983,60 @@
       </c>
       <c r="P189" s="1"/>
       <c r="Q189">
-        <v>3721</v>
+        <v>3681</v>
       </c>
       <c r="R189">
-        <v>3740</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B190">
-        <v>21</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F190">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H190">
-        <v>25</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-      <c r="J190">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L190">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N190">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P190" s="1"/>
       <c r="Q190">
-        <v>3741</v>
+        <v>3701</v>
       </c>
       <c r="R190">
-        <v>3760</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10071,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10091,57 +10067,69 @@
       </c>
       <c r="P191" s="1"/>
       <c r="Q191">
-        <v>3761</v>
+        <v>3721</v>
       </c>
       <c r="R191">
-        <v>3780</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N192">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P192" s="1"/>
       <c r="Q192">
-        <v>3781</v>
+        <v>3741</v>
       </c>
       <c r="R192">
-        <v>3800</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -10155,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10175,18 +10163,18 @@
       </c>
       <c r="P193" s="1"/>
       <c r="Q193">
-        <v>3801</v>
+        <v>3761</v>
       </c>
       <c r="R193">
-        <v>3820</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10197,46 +10185,46 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L194">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P194" s="1"/>
       <c r="Q194">
-        <v>3821</v>
+        <v>3781</v>
       </c>
       <c r="R194">
-        <v>3840</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="B195">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>5</v>
@@ -10251,26 +10239,26 @@
       </c>
       <c r="N195">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O195">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P195" s="1"/>
       <c r="Q195">
-        <v>3841</v>
+        <v>3801</v>
       </c>
       <c r="R195">
-        <v>3860</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F196">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10281,46 +10269,46 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L196">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P196" s="1"/>
       <c r="Q196">
-        <v>3861</v>
+        <v>3821</v>
       </c>
       <c r="R196">
-        <v>3880</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F197">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>5</v>
@@ -10335,26 +10323,26 @@
       </c>
       <c r="N197">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O197">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P197" s="1"/>
       <c r="Q197">
-        <v>3881</v>
+        <v>3841</v>
       </c>
       <c r="R197">
-        <v>3900</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10365,57 +10353,57 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N198">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O198">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198">
-        <v>3901</v>
+        <v>3861</v>
       </c>
       <c r="R198">
-        <v>3920</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F199">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L199">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M199">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10427,29 +10415,29 @@
       </c>
       <c r="P199" s="1"/>
       <c r="Q199">
-        <v>3921</v>
+        <v>3881</v>
       </c>
       <c r="R199">
-        <v>3940</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B200">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10461,45 +10449,45 @@
       </c>
       <c r="N200">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O200">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200">
-        <v>3941</v>
+        <v>3901</v>
       </c>
       <c r="R200">
-        <v>3960</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F201">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N201">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10511,37 +10499,37 @@
       </c>
       <c r="P201" s="1"/>
       <c r="Q201">
-        <v>3961</v>
+        <v>3921</v>
       </c>
       <c r="R201">
-        <v>3980</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10553,15 +10541,15 @@
       </c>
       <c r="P202" s="1"/>
       <c r="Q202">
-        <v>3981</v>
+        <v>3941</v>
       </c>
       <c r="R202">
-        <v>4000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -10577,39 +10565,36 @@
       <c r="H203">
         <v>3</v>
       </c>
-      <c r="K203">
-        <v>1</v>
-      </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N203">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O203">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203">
-        <v>4001</v>
+        <v>3961</v>
       </c>
       <c r="R203">
-        <v>4020</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10620,52 +10605,52 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>2</v>
-      </c>
-      <c r="K204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M204">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O204">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P204" s="1"/>
       <c r="Q204">
-        <v>4021</v>
+        <v>3981</v>
       </c>
       <c r="R204">
-        <v>4040</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
       </c>
       <c r="L205">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10677,26 +10662,26 @@
       </c>
       <c r="N205">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O205">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P205" s="1"/>
       <c r="Q205">
-        <v>4041</v>
+        <v>4001</v>
       </c>
       <c r="R205">
-        <v>4060</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10707,57 +10692,60 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
       </c>
       <c r="L206">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P206" s="1"/>
       <c r="Q206">
-        <v>4061</v>
+        <v>4021</v>
       </c>
       <c r="R206">
-        <v>4080</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L207">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10769,29 +10757,29 @@
       </c>
       <c r="P207" s="1"/>
       <c r="Q207">
-        <v>4081</v>
+        <v>4041</v>
       </c>
       <c r="R207">
-        <v>4100</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B208">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L208">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10803,26 +10791,26 @@
       </c>
       <c r="N208">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O208">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P208" s="1"/>
       <c r="Q208">
-        <v>4101</v>
+        <v>4061</v>
       </c>
       <c r="R208">
-        <v>4120</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10833,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L209">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10853,97 +10841,79 @@
       </c>
       <c r="P209" s="1"/>
       <c r="Q209">
-        <v>4121</v>
+        <v>4081</v>
       </c>
       <c r="R209">
-        <v>4140</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="B210">
-        <v>58</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H210">
         <v>7</v>
       </c>
-      <c r="G210">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H210">
-        <v>68</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
-      <c r="J210">
-        <v>1</v>
-      </c>
       <c r="L210">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N210">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O210">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P210" s="1"/>
       <c r="Q210">
-        <v>4141</v>
+        <v>4101</v>
       </c>
       <c r="R210">
-        <v>4160</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="B211">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F211">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>16</v>
-      </c>
-      <c r="K211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L211">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N211">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10955,75 +10925,93 @@
       </c>
       <c r="P211" s="1"/>
       <c r="Q211">
-        <v>4161</v>
+        <v>4121</v>
       </c>
       <c r="R211">
-        <v>4180</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
       </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N212">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O212">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P212" s="1"/>
       <c r="Q212">
-        <v>4181</v>
+        <v>4141</v>
       </c>
       <c r="R212">
-        <v>4200</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H213">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
       </c>
       <c r="L213">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11039,41 +11027,41 @@
       </c>
       <c r="P213" s="1"/>
       <c r="Q213">
-        <v>4201</v>
+        <v>4161</v>
       </c>
       <c r="R213">
-        <v>4220</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="B214">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N214">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O214">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11081,37 +11069,37 @@
       </c>
       <c r="P214" s="1"/>
       <c r="Q214">
-        <v>4221</v>
+        <v>4181</v>
       </c>
       <c r="R214">
-        <v>4240</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11123,41 +11111,41 @@
       </c>
       <c r="P215" s="1"/>
       <c r="Q215">
-        <v>4241</v>
+        <v>4201</v>
       </c>
       <c r="R215">
-        <v>4260</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N216">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11165,15 +11153,15 @@
       </c>
       <c r="P216" s="1"/>
       <c r="Q216">
-        <v>4261</v>
+        <v>4221</v>
       </c>
       <c r="R216">
-        <v>4280</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -11207,15 +11195,15 @@
       </c>
       <c r="P217" s="1"/>
       <c r="Q217">
-        <v>4281</v>
+        <v>4241</v>
       </c>
       <c r="R217">
-        <v>4300</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -11249,41 +11237,41 @@
       </c>
       <c r="P218" s="1"/>
       <c r="Q218">
-        <v>4301</v>
+        <v>4261</v>
       </c>
       <c r="R218">
-        <v>4320</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="B219">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L219">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O219">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11291,18 +11279,18 @@
       </c>
       <c r="P219" s="1"/>
       <c r="Q219">
-        <v>4321</v>
+        <v>4281</v>
       </c>
       <c r="R219">
-        <v>4340</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11313,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11333,41 +11321,41 @@
       </c>
       <c r="P220" s="1"/>
       <c r="Q220">
-        <v>4341</v>
+        <v>4301</v>
       </c>
       <c r="R220">
-        <v>4360</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F221">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L221">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O221">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11375,37 +11363,37 @@
       </c>
       <c r="P221" s="1"/>
       <c r="Q221">
-        <v>4361</v>
+        <v>4321</v>
       </c>
       <c r="R221">
-        <v>4380</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B222">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F222">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G222">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L222">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M222">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N222">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11415,41 +11403,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P222" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P222" s="1"/>
       <c r="Q222">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="R222">
-        <v>4400</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L223">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N223">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11461,37 +11447,37 @@
       </c>
       <c r="P223" s="1"/>
       <c r="Q223">
-        <v>4401</v>
+        <v>4361</v>
       </c>
       <c r="R223">
-        <v>4420</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F224">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L224">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11501,20 +11487,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P224" s="1"/>
+      <c r="P224" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q224">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="R224">
-        <v>4440</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B225">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F225">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11525,11 +11513,11 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="L225">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11537,7 +11525,7 @@
       </c>
       <c r="N225">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O225">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11545,18 +11533,18 @@
       </c>
       <c r="P225" s="1"/>
       <c r="Q225">
-        <v>4441</v>
+        <v>4401</v>
       </c>
       <c r="R225">
-        <v>4460</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11587,18 +11575,18 @@
       </c>
       <c r="P226" s="1"/>
       <c r="Q226">
-        <v>4461</v>
+        <v>4421</v>
       </c>
       <c r="R226">
-        <v>4480</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B227">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F227">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11609,11 +11597,11 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="L227">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11621,7 +11609,7 @@
       </c>
       <c r="N227">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O227">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11629,43 +11617,37 @@
       </c>
       <c r="P227" s="1"/>
       <c r="Q227">
-        <v>4481</v>
+        <v>4441</v>
       </c>
       <c r="R227">
-        <v>4500</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B228">
-        <v>2</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>4</v>
-      </c>
-      <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11677,33 +11659,33 @@
       </c>
       <c r="P228" s="1"/>
       <c r="Q228">
-        <v>4501</v>
+        <v>4461</v>
       </c>
       <c r="R228">
-        <v>4520</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="B229">
+        <v>17</v>
+      </c>
+      <c r="F229">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H229">
         <v>16</v>
       </c>
-      <c r="F229">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G229">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H229">
-        <v>25</v>
-      </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11711,7 +11693,7 @@
       </c>
       <c r="N229">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O229">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11719,37 +11701,43 @@
       </c>
       <c r="P229" s="1"/>
       <c r="Q229">
-        <v>4521</v>
+        <v>4481</v>
       </c>
       <c r="R229">
-        <v>4540</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11761,41 +11749,41 @@
       </c>
       <c r="P230" s="1"/>
       <c r="Q230">
-        <v>4541</v>
+        <v>4501</v>
       </c>
       <c r="R230">
-        <v>4560</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N231">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O231">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11803,18 +11791,18 @@
       </c>
       <c r="P231" s="1"/>
       <c r="Q231">
-        <v>4561</v>
+        <v>4521</v>
       </c>
       <c r="R231">
-        <v>4580</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11825,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11845,18 +11833,18 @@
       </c>
       <c r="P232" s="1"/>
       <c r="Q232">
-        <v>4581</v>
+        <v>4541</v>
       </c>
       <c r="R232">
-        <v>4600</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11867,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11887,18 +11875,18 @@
       </c>
       <c r="P233" s="1"/>
       <c r="Q233">
-        <v>4601</v>
+        <v>4561</v>
       </c>
       <c r="R233">
-        <v>4620</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11909,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11929,18 +11917,18 @@
       </c>
       <c r="P234" s="1"/>
       <c r="Q234">
-        <v>4621</v>
+        <v>4581</v>
       </c>
       <c r="R234">
-        <v>4640</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11951,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11971,18 +11959,18 @@
       </c>
       <c r="P235" s="1"/>
       <c r="Q235">
-        <v>4641</v>
+        <v>4601</v>
       </c>
       <c r="R235">
-        <v>4660</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11993,38 +11981,38 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L236">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M236">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O236">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P236" s="1"/>
       <c r="Q236">
-        <v>4661</v>
+        <v>4621</v>
       </c>
       <c r="R236">
-        <v>4680</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F237">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12035,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12055,18 +12043,18 @@
       </c>
       <c r="P237" s="1"/>
       <c r="Q237">
-        <v>4681</v>
+        <v>4641</v>
       </c>
       <c r="R237">
-        <v>4700</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12077,63 +12065,57 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M238">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O238">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P238" s="1"/>
       <c r="Q238">
-        <v>4701</v>
+        <v>4661</v>
       </c>
       <c r="R238">
-        <v>4720</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="B239">
-        <v>49</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H239">
         <v>5</v>
       </c>
-      <c r="G239">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H239">
-        <v>45</v>
-      </c>
-      <c r="K239">
-        <v>1</v>
-      </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M239">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N239">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12145,43 +12127,37 @@
       </c>
       <c r="P239" s="1"/>
       <c r="Q239">
-        <v>4721</v>
+        <v>4681</v>
       </c>
       <c r="R239">
-        <v>4740</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="B240">
-        <v>7</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F240">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G240">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>5</v>
       </c>
-      <c r="J240">
-        <v>1</v>
-      </c>
       <c r="L240">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M240">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N240">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12193,99 +12169,111 @@
       </c>
       <c r="P240" s="1"/>
       <c r="Q240">
-        <v>4741</v>
+        <v>4701</v>
       </c>
       <c r="R240">
-        <v>4760</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
       </c>
       <c r="F241">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G241">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
       </c>
       <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M241">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N241">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O241">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P241" s="1"/>
       <c r="Q241">
-        <v>4761</v>
+        <v>4721</v>
       </c>
       <c r="R241">
-        <v>4780</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B242">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H242">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
       </c>
       <c r="L242">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N242">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O242">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P242" s="1"/>
       <c r="Q242">
-        <v>4781</v>
+        <v>4741</v>
       </c>
       <c r="R242">
-        <v>4800</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B243">
         <v>14</v>
@@ -12299,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L243">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12319,114 +12307,102 @@
       </c>
       <c r="P243" s="1"/>
       <c r="Q243">
-        <v>4801</v>
+        <v>4761</v>
       </c>
       <c r="R243">
-        <v>4820</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B244">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H244">
+        <v>53</v>
+      </c>
+      <c r="L244">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="L244">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N244">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O244">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P244" s="1"/>
       <c r="Q244">
-        <v>4821</v>
+        <v>4781</v>
       </c>
       <c r="R244">
-        <v>4840</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="B245">
-        <v>30</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>86</v>
-      </c>
-      <c r="I245">
-        <v>1</v>
-      </c>
-      <c r="K245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N245">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O245">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P245" s="1"/>
       <c r="Q245">
-        <v>4841</v>
+        <v>4801</v>
       </c>
       <c r="R245">
-        <v>4860</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B246">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12437,80 +12413,92 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L246">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N246">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O246">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P246" s="1"/>
       <c r="Q246">
-        <v>4861</v>
+        <v>4821</v>
       </c>
       <c r="R246">
-        <v>4880</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B247">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N247">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O247">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P247" s="1"/>
       <c r="Q247">
-        <v>4881</v>
+        <v>4841</v>
       </c>
       <c r="R247">
-        <v>4900</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="B248">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12521,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12541,37 +12529,37 @@
       </c>
       <c r="P248" s="1"/>
       <c r="Q248">
-        <v>4901</v>
+        <v>4861</v>
       </c>
       <c r="R248">
-        <v>4920</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N249">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12583,33 +12571,33 @@
       </c>
       <c r="P249" s="1"/>
       <c r="Q249">
-        <v>4921</v>
+        <v>4881</v>
       </c>
       <c r="R249">
-        <v>4940</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B250">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H250">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12625,41 +12613,41 @@
       </c>
       <c r="P250" s="1"/>
       <c r="Q250">
-        <v>4941</v>
+        <v>4901</v>
       </c>
       <c r="R250">
-        <v>4960</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N251">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O251">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12667,37 +12655,37 @@
       </c>
       <c r="P251" s="1"/>
       <c r="Q251">
-        <v>4961</v>
+        <v>4921</v>
       </c>
       <c r="R251">
-        <v>4980</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="B252">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12709,71 +12697,155 @@
       </c>
       <c r="P252" s="1"/>
       <c r="Q252">
-        <v>4981</v>
+        <v>4941</v>
       </c>
       <c r="R252">
-        <v>5000</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>84</v>
+      </c>
+      <c r="B253">
+        <v>10</v>
+      </c>
+      <c r="F253">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>24</v>
+      </c>
+      <c r="L253">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>3</v>
+      </c>
+      <c r="M253">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="O253">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P253" s="1"/>
+      <c r="Q253">
+        <v>4961</v>
+      </c>
+      <c r="R253">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>211</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="F254">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="L254">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P254" s="1"/>
+      <c r="Q254">
+        <v>4981</v>
+      </c>
+      <c r="R254">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>212</v>
       </c>
-      <c r="B253">
+      <c r="B255">
         <v>7</v>
       </c>
-      <c r="F253">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H253">
+      <c r="F255">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H255">
         <v>7</v>
       </c>
-      <c r="L253">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M253">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N253">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O253">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P253" s="1" t="s">
+      <c r="L255">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P255" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q253">
+      <c r="Q255">
         <v>5001</v>
       </c>
-      <c r="R253">
+      <c r="R255">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O253">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="N3:O255">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P253">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P3:P255">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12790,7 +12862,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DDBBD7-60CC-4A82-A490-1C23C570B8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D0835-E52A-4542-BD94-59F4B87184E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1806,7 +1806,7 @@
   <dimension ref="A2:R255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,7 +3609,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q41">
         <v>741</v>
       </c>
@@ -3651,7 +3653,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q42">
         <v>761</v>
       </c>
@@ -3687,7 +3691,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3723,7 +3729,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P44" s="1"/>
+      <c r="P44" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q44">
         <v>781</v>
       </c>
@@ -3765,7 +3773,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q45">
         <v>801</v>
       </c>
@@ -3807,7 +3817,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q46">
         <v>821</v>
       </c>
@@ -12844,7 +12856,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P255">
+  <conditionalFormatting sqref="P48:P255 P3:P46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -12862,7 +12874,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D0835-E52A-4542-BD94-59F4B87184E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235016C-1C5D-4B07-BFD9-4F2A6FD86DA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1453,6 +1453,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1481,9 +1484,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1532,7 +1532,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="1"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3861,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P47" s="1"/>
+      <c r="P47" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q47">
         <v>841</v>
       </c>
@@ -3903,7 +3905,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q48">
         <v>861</v>
       </c>
@@ -12846,17 +12850,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O255">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48:P255 P3:P46">
+  <conditionalFormatting sqref="P3:P255">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -12874,7 +12878,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235016C-1C5D-4B07-BFD9-4F2A6FD86DA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C8A750-3AED-4731-8B64-63BAFE153EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1443,6 +1443,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1451,9 +1454,6 @@
           <bgColor theme="9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1532,7 +1532,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,7 +3961,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q49">
         <v>881</v>
       </c>
@@ -12861,7 +12863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P255">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12877,8 +12879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C8A750-3AED-4731-8B64-63BAFE153EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43622262-31FB-427F-8751-B1703C99496B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1443,9 +1443,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1484,6 +1481,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1532,7 +1532,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,7 +4005,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P50" s="1"/>
+      <c r="P50" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q50">
         <v>901</v>
       </c>
@@ -4047,7 +4049,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q51">
         <v>921</v>
       </c>
@@ -4089,7 +4093,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q52">
         <v>941</v>
       </c>
@@ -4131,7 +4137,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P53" s="1"/>
+      <c r="P53" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q53">
         <v>961</v>
       </c>
@@ -4173,7 +4181,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q54">
         <v>981</v>
       </c>
@@ -12852,18 +12862,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O255">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P255">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12879,8 +12889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43622262-31FB-427F-8751-B1703C99496B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A20FD-FFD1-4DA0-978E-365F7597D140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1443,6 +1443,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1481,9 +1484,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1532,7 +1532,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1806,7 +1806,7 @@
   <dimension ref="A2:R255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4225,7 +4225,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q55">
         <v>1001</v>
       </c>
@@ -4267,7 +4269,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q56">
         <v>1021</v>
       </c>
@@ -4312,7 +4316,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q57">
         <v>1041</v>
       </c>
@@ -4354,7 +4360,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q58">
         <v>1061</v>
       </c>
@@ -4396,7 +4404,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q59">
         <v>1081</v>
       </c>
@@ -4438,7 +4448,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q60">
         <v>1101</v>
       </c>
@@ -4486,7 +4498,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q61">
         <v>1121</v>
       </c>
@@ -12862,18 +12876,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O255">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P255">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12890,7 +12904,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A20FD-FFD1-4DA0-978E-365F7597D140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A2C83-3929-43F4-A682-1361FE198C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="451">
   <si>
     <t>TAG</t>
   </si>
@@ -1443,9 +1443,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1484,6 +1481,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1532,7 +1532,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4542,7 +4542,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P62" s="1"/>
+      <c r="P62" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q62">
         <v>1141</v>
       </c>
@@ -4634,7 +4636,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P64" s="1"/>
+      <c r="P64" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q64">
         <v>1181</v>
       </c>
@@ -4676,7 +4680,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P65" s="1"/>
+      <c r="P65" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q65">
         <v>1201</v>
       </c>
@@ -4718,7 +4724,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P66" s="1"/>
+      <c r="P66" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q66">
         <v>1221</v>
       </c>
@@ -4760,7 +4768,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P67" s="1"/>
+      <c r="P67" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q67">
         <v>1241</v>
       </c>
@@ -4802,7 +4812,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P68" s="1"/>
+      <c r="P68" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q68">
         <v>1261</v>
       </c>
@@ -12876,18 +12888,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O255">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P255">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12904,7 +12916,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A2C83-3929-43F4-A682-1361FE198C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A3E3E4-F206-4E37-A9FF-912247E47DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1388,6 +1388,9 @@
   </si>
   <si>
     <t>CAS</t>
+  </si>
+  <si>
+    <t>ETK</t>
   </si>
 </sst>
 </file>
@@ -1443,6 +1446,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1482,9 +1488,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1499,10 +1502,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10BD23E6-60AB-42C7-B043-A8B30FF8C033}" name="Taulukko2" displayName="Taulukko2" ref="A2:R255" totalsRowShown="0">
-  <autoFilter ref="A2:R255" xr:uid="{6DDEF623-4240-4F7B-A4DC-C137388F3BBA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O255">
-    <sortCondition ref="A2:A255"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10BD23E6-60AB-42C7-B043-A8B30FF8C033}" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
+  <autoFilter ref="A2:R256" xr:uid="{6DDEF623-4240-4F7B-A4DC-C137388F3BBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O256">
+    <sortCondition ref="A2:A256"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0F370F1D-33D6-4690-B3B1-6018D18D0D34}" name="TAG"/>
@@ -1532,7 +1535,7 @@
     <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
   </tableColumns>
@@ -1803,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R255"/>
+  <dimension ref="A2:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,7 +4859,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P69" s="1"/>
+      <c r="P69" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q69">
         <v>1281</v>
       </c>
@@ -4898,7 +4903,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P70" s="1"/>
+      <c r="P70" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q70">
         <v>1301</v>
       </c>
@@ -5172,10 +5179,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
+        <v>451</v>
       </c>
       <c r="F77">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5185,9 +5189,6 @@
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
       <c r="L77">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>1</v>
@@ -5205,38 +5206,32 @@
         <v>0</v>
       </c>
       <c r="P77" s="1"/>
-      <c r="Q77">
-        <v>1441</v>
-      </c>
-      <c r="R77">
-        <v>1460</v>
-      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5248,39 +5243,33 @@
       </c>
       <c r="P78" s="1"/>
       <c r="Q78">
-        <v>1461</v>
+        <v>1441</v>
       </c>
       <c r="R78">
-        <v>1480</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>12</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H79">
-        <v>11</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L79">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M79">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -5296,29 +5285,35 @@
       </c>
       <c r="P79" s="1"/>
       <c r="Q79">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="R79">
-        <v>1500</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
       </c>
       <c r="L80">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5330,68 +5325,68 @@
       </c>
       <c r="N80">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="R80">
-        <v>1520</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>28</v>
+      </c>
+      <c r="L81">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="F81">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-      <c r="L81">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M81">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O81">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="R81">
-        <v>1540</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F82">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5402,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5422,18 +5417,18 @@
       </c>
       <c r="P82" s="1"/>
       <c r="Q82">
-        <v>1541</v>
+        <v>1521</v>
       </c>
       <c r="R82">
-        <v>1560</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5444,38 +5439,38 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L83">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83">
-        <v>1561</v>
+        <v>1541</v>
       </c>
       <c r="R83">
-        <v>1580</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5486,38 +5481,38 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L84">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84">
-        <v>1581</v>
+        <v>1561</v>
       </c>
       <c r="R84">
-        <v>1600</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5528,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5548,49 +5543,37 @@
       </c>
       <c r="P85" s="1"/>
       <c r="Q85">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="R85">
-        <v>1620</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B86">
-        <v>13</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F86">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>9</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L86">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5602,33 +5585,45 @@
       </c>
       <c r="P86" s="1"/>
       <c r="Q86">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="R86">
-        <v>1640</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
       </c>
       <c r="F87">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
       </c>
       <c r="L87">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M87">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -5636,23 +5631,23 @@
       </c>
       <c r="N87">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="R87">
-        <v>1660</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -5666,35 +5661,35 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L88">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="R88">
-        <v>1680</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -5708,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L89">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5728,43 +5723,37 @@
       </c>
       <c r="P89" s="1"/>
       <c r="Q89">
-        <v>1681</v>
+        <v>1661</v>
       </c>
       <c r="R89">
-        <v>1700</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B90">
-        <v>28</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>27</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5776,37 +5765,43 @@
       </c>
       <c r="P90" s="1"/>
       <c r="Q90">
-        <v>1701</v>
+        <v>1681</v>
       </c>
       <c r="R90">
-        <v>1720</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
       </c>
       <c r="L91">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M91">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5818,18 +5813,18 @@
       </c>
       <c r="P91" s="1"/>
       <c r="Q91">
-        <v>1721</v>
+        <v>1701</v>
       </c>
       <c r="R91">
-        <v>1740</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F92">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5860,18 +5855,18 @@
       </c>
       <c r="P92" s="1"/>
       <c r="Q92">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="R92">
-        <v>1760</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F93">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5882,38 +5877,38 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="R93">
-        <v>1780</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F94">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5924,38 +5919,38 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L94">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94">
-        <v>1781</v>
+        <v>1761</v>
       </c>
       <c r="R94">
-        <v>1800</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5966,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5986,15 +5981,15 @@
       </c>
       <c r="P95" s="1"/>
       <c r="Q95">
-        <v>1801</v>
+        <v>1781</v>
       </c>
       <c r="R95">
-        <v>1820</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -6008,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6028,15 +6023,15 @@
       </c>
       <c r="P96" s="1"/>
       <c r="Q96">
-        <v>1821</v>
+        <v>1801</v>
       </c>
       <c r="R96">
-        <v>1840</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6050,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L97">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6070,44 +6065,41 @@
       </c>
       <c r="P97" s="1"/>
       <c r="Q97">
-        <v>1841</v>
+        <v>1821</v>
       </c>
       <c r="R97">
-        <v>1860</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>24</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6115,21 +6107,18 @@
       </c>
       <c r="P98" s="1"/>
       <c r="Q98">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="R98">
-        <v>1880</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F99">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6140,14 +6129,14 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="L99">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M99">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6155,7 +6144,7 @@
       </c>
       <c r="N99">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O99">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6163,37 +6152,43 @@
       </c>
       <c r="P99" s="1"/>
       <c r="Q99">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="R99">
-        <v>1900</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
       <c r="F100">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
       <c r="L100">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6205,43 +6200,37 @@
       </c>
       <c r="P100" s="1"/>
       <c r="Q100">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="R100">
-        <v>1920</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>6</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6253,37 +6242,43 @@
       </c>
       <c r="P101" s="1"/>
       <c r="Q101">
-        <v>1921</v>
+        <v>1901</v>
       </c>
       <c r="R101">
-        <v>1940</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
       <c r="F102">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
       </c>
       <c r="L102">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6295,18 +6290,18 @@
       </c>
       <c r="P102" s="1"/>
       <c r="Q102">
-        <v>1941</v>
+        <v>1921</v>
       </c>
       <c r="R102">
-        <v>1960</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F103">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6317,35 +6312,35 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103">
-        <v>1961</v>
+        <v>1941</v>
       </c>
       <c r="R103">
-        <v>1980</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -6359,11 +6354,11 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L104">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M104">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6371,7 +6366,7 @@
       </c>
       <c r="N104">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6379,66 +6374,60 @@
       </c>
       <c r="P104" s="1"/>
       <c r="Q104">
-        <v>1981</v>
+        <v>1961</v>
       </c>
       <c r="R104">
-        <v>2000</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>25</v>
+      </c>
+      <c r="L105">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G105">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>4</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M105">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N105">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O105">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="R105">
-        <v>2020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6452,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -6473,37 +6462,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P106" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P106" s="1"/>
       <c r="Q106">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="R106">
-        <v>2040</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
       </c>
       <c r="F107">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H107">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
       </c>
       <c r="L107">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M107">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6517,39 +6510,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q107">
-        <v>2041</v>
+        <v>2021</v>
       </c>
       <c r="R107">
-        <v>2060</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F108">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G108">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L108">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6561,37 +6556,37 @@
       </c>
       <c r="P108" s="1"/>
       <c r="Q108">
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="R108">
-        <v>2080</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F109">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L109">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M109">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6603,26 +6598,26 @@
       </c>
       <c r="P109" s="1"/>
       <c r="Q109">
-        <v>2081</v>
+        <v>2061</v>
       </c>
       <c r="R109">
-        <v>2100</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F110">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G110">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>26</v>
@@ -6637,37 +6632,37 @@
       </c>
       <c r="N110">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O110">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110">
-        <v>2101</v>
+        <v>2081</v>
       </c>
       <c r="R110">
-        <v>2120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B111">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L111">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6679,55 +6674,49 @@
       </c>
       <c r="N111">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O111">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="R111">
-        <v>2140</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B112">
         <v>11</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
       <c r="F112">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>34</v>
+      </c>
+      <c r="L112">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="G112">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>12</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
       <c r="M112">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N112">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6735,37 +6724,43 @@
       </c>
       <c r="P112" s="1"/>
       <c r="Q112">
-        <v>2141</v>
+        <v>2121</v>
       </c>
       <c r="R112">
-        <v>2160</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F113">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G113">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
+        <v>12</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="L113">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M113">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6777,43 +6772,37 @@
       </c>
       <c r="P113" s="1"/>
       <c r="Q113">
-        <v>2161</v>
+        <v>2141</v>
       </c>
       <c r="R113">
-        <v>2180</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B114">
-        <v>15</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>3</v>
       </c>
-      <c r="G114">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>16</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
       <c r="L114">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6825,33 +6814,39 @@
       </c>
       <c r="P114" s="1"/>
       <c r="Q114">
-        <v>2181</v>
+        <v>2161</v>
       </c>
       <c r="R114">
-        <v>2200</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
       </c>
       <c r="F115">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G115">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H115">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
       </c>
       <c r="L115">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M115">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6867,37 +6862,37 @@
       </c>
       <c r="P115" s="1"/>
       <c r="Q115">
-        <v>2201</v>
+        <v>2181</v>
       </c>
       <c r="R115">
-        <v>2220</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F116">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L116">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6909,15 +6904,15 @@
       </c>
       <c r="P116" s="1"/>
       <c r="Q116">
-        <v>2221</v>
+        <v>2201</v>
       </c>
       <c r="R116">
-        <v>2240</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -6931,38 +6926,38 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117">
-        <v>2241</v>
+        <v>2221</v>
       </c>
       <c r="R117">
-        <v>2260</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F118">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6973,63 +6968,57 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L118">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118">
-        <v>2261</v>
+        <v>2241</v>
       </c>
       <c r="R118">
-        <v>2280</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B119">
-        <v>11</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F119">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>14</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L119">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M119">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7041,33 +7030,39 @@
       </c>
       <c r="P119" s="1"/>
       <c r="Q119">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="R119">
-        <v>2300</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="F120">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G120">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
       </c>
       <c r="L120">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M120">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7075,41 +7070,41 @@
       </c>
       <c r="N120">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="R120">
-        <v>2320</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="B121">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F121">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="L121">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7117,45 +7112,45 @@
       </c>
       <c r="N121">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" s="1"/>
       <c r="Q121">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="R121">
-        <v>2340</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F122">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G122">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="L122">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M122">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7167,37 +7162,37 @@
       </c>
       <c r="P122" s="1"/>
       <c r="Q122">
-        <v>2341</v>
+        <v>2321</v>
       </c>
       <c r="R122">
-        <v>2360</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7209,37 +7204,37 @@
       </c>
       <c r="P123" s="1"/>
       <c r="Q123">
-        <v>2361</v>
+        <v>2341</v>
       </c>
       <c r="R123">
-        <v>2380</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F124">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L124">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7251,43 +7246,37 @@
       </c>
       <c r="P124" s="1"/>
       <c r="Q124">
-        <v>2381</v>
+        <v>2361</v>
       </c>
       <c r="R124">
-        <v>2400</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F125">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>3</v>
-      </c>
-      <c r="J125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L125">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7299,18 +7288,21 @@
       </c>
       <c r="P125" s="1"/>
       <c r="Q125">
-        <v>2401</v>
+        <v>2381</v>
       </c>
       <c r="R125">
-        <v>2420</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B126">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="F126">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7321,7 +7313,10 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
       </c>
       <c r="L126">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7341,32 +7336,29 @@
       </c>
       <c r="P126" s="1"/>
       <c r="Q126">
-        <v>2421</v>
+        <v>2401</v>
       </c>
       <c r="R126">
-        <v>2440</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F127">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L127">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7378,68 +7370,71 @@
       </c>
       <c r="N127">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P127" s="1"/>
       <c r="Q127">
-        <v>2441</v>
+        <v>2421</v>
       </c>
       <c r="R127">
-        <v>2460</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
       </c>
       <c r="L128">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O128">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P128" s="1"/>
       <c r="Q128">
-        <v>2461</v>
+        <v>2441</v>
       </c>
       <c r="R128">
-        <v>2480</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="B129">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F129">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7450,61 +7445,61 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M129">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O129">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P129" s="1"/>
       <c r="Q129">
-        <v>2481</v>
+        <v>2461</v>
       </c>
       <c r="R129">
-        <v>2500</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F130">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L130">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -7512,26 +7507,26 @@
       </c>
       <c r="P130" s="1"/>
       <c r="Q130">
-        <v>2501</v>
+        <v>2481</v>
       </c>
       <c r="R130">
-        <v>2520</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -7546,71 +7541,68 @@
       </c>
       <c r="N131">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O131">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131">
-        <v>2521</v>
+        <v>2501</v>
       </c>
       <c r="R131">
-        <v>2540</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F132">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>3</v>
-      </c>
-      <c r="K132">
         <v>1</v>
       </c>
       <c r="L132">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O132">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P132" s="1"/>
       <c r="Q132">
-        <v>2541</v>
+        <v>2521</v>
       </c>
       <c r="R132">
-        <v>2560</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7621,35 +7613,38 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
       </c>
       <c r="L133">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133">
-        <v>2561</v>
+        <v>2541</v>
       </c>
       <c r="R133">
-        <v>2580</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -7663,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L134">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7683,18 +7678,18 @@
       </c>
       <c r="P134" s="1"/>
       <c r="Q134">
-        <v>2581</v>
+        <v>2561</v>
       </c>
       <c r="R134">
-        <v>2600</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7725,43 +7720,37 @@
       </c>
       <c r="P135" s="1"/>
       <c r="Q135">
-        <v>2601</v>
+        <v>2581</v>
       </c>
       <c r="R135">
-        <v>2620</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F136">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M136">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7773,29 +7762,35 @@
       </c>
       <c r="P136" s="1"/>
       <c r="Q136">
-        <v>2621</v>
+        <v>2601</v>
       </c>
       <c r="R136">
-        <v>2640</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
       <c r="F137">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
       </c>
       <c r="L137">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7807,26 +7802,26 @@
       </c>
       <c r="N137">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" s="1"/>
       <c r="Q137">
-        <v>2641</v>
+        <v>2621</v>
       </c>
       <c r="R137">
-        <v>2660</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7837,91 +7832,91 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L138">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P138" s="1"/>
       <c r="Q138">
-        <v>2661</v>
+        <v>2641</v>
       </c>
       <c r="R138">
-        <v>2680</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>7</v>
       </c>
-      <c r="F139">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>8</v>
-      </c>
       <c r="L139">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139" s="1"/>
       <c r="Q139">
-        <v>2681</v>
+        <v>2661</v>
       </c>
       <c r="R139">
-        <v>2700</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F140">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L140">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7933,41 +7928,41 @@
       </c>
       <c r="N140">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" s="1"/>
       <c r="Q140">
-        <v>2701</v>
+        <v>2681</v>
       </c>
       <c r="R140">
-        <v>2720</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B141">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F141">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L141">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7975,68 +7970,68 @@
       </c>
       <c r="N141">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O141">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141">
-        <v>2721</v>
+        <v>2701</v>
       </c>
       <c r="R141">
-        <v>2740</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F142">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G142">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L142">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M142">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O142">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P142" s="1"/>
       <c r="Q142">
-        <v>2741</v>
+        <v>2721</v>
       </c>
       <c r="R142">
-        <v>2760</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8067,18 +8062,18 @@
       </c>
       <c r="P143" s="1"/>
       <c r="Q143">
-        <v>2761</v>
+        <v>2741</v>
       </c>
       <c r="R143">
-        <v>2780</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F144">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8089,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8109,15 +8104,15 @@
       </c>
       <c r="P144" s="1"/>
       <c r="Q144">
-        <v>2781</v>
+        <v>2761</v>
       </c>
       <c r="R144">
-        <v>2800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8151,18 +8146,18 @@
       </c>
       <c r="P145" s="1"/>
       <c r="Q145">
-        <v>2801</v>
+        <v>2781</v>
       </c>
       <c r="R145">
-        <v>2820</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8173,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8193,18 +8188,18 @@
       </c>
       <c r="P146" s="1"/>
       <c r="Q146">
-        <v>2821</v>
+        <v>2801</v>
       </c>
       <c r="R146">
-        <v>2840</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F147">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8215,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L147">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8233,22 +8228,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P147" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P147" s="1"/>
       <c r="Q147">
-        <v>2841</v>
+        <v>2821</v>
       </c>
       <c r="R147">
-        <v>2860</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F148">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8259,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L148">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8277,20 +8270,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P148" s="1"/>
+      <c r="P148" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q148">
-        <v>2861</v>
+        <v>2841</v>
       </c>
       <c r="R148">
-        <v>2880</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8301,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L149">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8321,37 +8316,37 @@
       </c>
       <c r="P149" s="1"/>
       <c r="Q149">
-        <v>2881</v>
+        <v>2861</v>
       </c>
       <c r="R149">
-        <v>2900</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="B150">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F150">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>3</v>
       </c>
-      <c r="G150">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>29</v>
-      </c>
       <c r="L150">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M150">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8363,37 +8358,37 @@
       </c>
       <c r="P150" s="1"/>
       <c r="Q150">
-        <v>2901</v>
+        <v>2881</v>
       </c>
       <c r="R150">
-        <v>2920</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B151">
+        <v>27</v>
+      </c>
+      <c r="F151">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F151">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G151">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L151">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M151">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8405,18 +8400,18 @@
       </c>
       <c r="P151" s="1"/>
       <c r="Q151">
-        <v>2921</v>
+        <v>2901</v>
       </c>
       <c r="R151">
-        <v>2940</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F152">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8427,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L152">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8447,18 +8442,18 @@
       </c>
       <c r="P152" s="1"/>
       <c r="Q152">
-        <v>2941</v>
+        <v>2921</v>
       </c>
       <c r="R152">
-        <v>2960</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F153">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8469,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8489,18 +8484,18 @@
       </c>
       <c r="P153" s="1"/>
       <c r="Q153">
-        <v>2961</v>
+        <v>2941</v>
       </c>
       <c r="R153">
-        <v>2980</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F154">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8511,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L154">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8531,15 +8526,15 @@
       </c>
       <c r="P154" s="1"/>
       <c r="Q154">
-        <v>2981</v>
+        <v>2961</v>
       </c>
       <c r="R154">
-        <v>3000</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -8553,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L155">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8573,18 +8568,18 @@
       </c>
       <c r="P155" s="1"/>
       <c r="Q155">
-        <v>3001</v>
+        <v>2981</v>
       </c>
       <c r="R155">
-        <v>3020</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B156">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8595,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L156">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8615,18 +8610,18 @@
       </c>
       <c r="P156" s="1"/>
       <c r="Q156">
-        <v>3021</v>
+        <v>3001</v>
       </c>
       <c r="R156">
-        <v>3040</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F157">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8637,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L157">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8657,18 +8652,18 @@
       </c>
       <c r="P157" s="1"/>
       <c r="Q157">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="R157">
-        <v>3060</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F158">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8679,50 +8674,50 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M158">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O158">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P158" s="1"/>
       <c r="Q158">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="R158">
-        <v>3080</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>9</v>
       </c>
-      <c r="F159">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G159">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>12</v>
-      </c>
       <c r="L159">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>2</v>
@@ -8733,45 +8728,45 @@
       </c>
       <c r="N159">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" s="1"/>
       <c r="Q159">
-        <v>3081</v>
+        <v>3061</v>
       </c>
       <c r="R159">
-        <v>3100</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="B160">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F160">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G160">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L160">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M160">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N160">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8783,43 +8778,37 @@
       </c>
       <c r="P160" s="1"/>
       <c r="Q160">
-        <v>3101</v>
+        <v>3081</v>
       </c>
       <c r="R160">
-        <v>3120</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F161">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G161">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>3</v>
-      </c>
-      <c r="J161">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M161">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N161">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8831,34 +8820,34 @@
       </c>
       <c r="P161" s="1"/>
       <c r="Q161">
-        <v>3121</v>
+        <v>3101</v>
       </c>
       <c r="R161">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B162">
-        <v>10</v>
-      </c>
-      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="D162">
         <v>1</v>
       </c>
       <c r="F162">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H162">
         <v>3</v>
       </c>
-      <c r="G162">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>6</v>
-      </c>
-      <c r="K162">
+      <c r="J162">
         <v>1</v>
       </c>
       <c r="L162">
@@ -8871,7 +8860,7 @@
       </c>
       <c r="N162">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O162">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -8879,29 +8868,35 @@
       </c>
       <c r="P162" s="1"/>
       <c r="Q162">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="R162">
-        <v>3160</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
       </c>
       <c r="F163">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
       </c>
       <c r="L163">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8913,23 +8908,23 @@
       </c>
       <c r="N163">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O163">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P163" s="1"/>
       <c r="Q163">
-        <v>3161</v>
+        <v>3141</v>
       </c>
       <c r="R163">
-        <v>3180</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -8943,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L164">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8963,18 +8958,18 @@
       </c>
       <c r="P164" s="1"/>
       <c r="Q164">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="R164">
-        <v>3200</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8985,38 +8980,38 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L165">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N165">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O165">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P165" s="1"/>
       <c r="Q165">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="R165">
-        <v>3220</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F166">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9027,53 +9022,53 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L166">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M166">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O166">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P166" s="1"/>
       <c r="Q166">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="R166">
-        <v>3240</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B167">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F167">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="L167">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9081,45 +9076,45 @@
       </c>
       <c r="N167">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O167">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" s="1"/>
       <c r="Q167">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="R167">
-        <v>3260</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F168">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9131,18 +9126,18 @@
       </c>
       <c r="P168" s="1"/>
       <c r="Q168">
-        <v>3261</v>
+        <v>3241</v>
       </c>
       <c r="R168">
-        <v>3280</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9153,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9173,15 +9168,15 @@
       </c>
       <c r="P169" s="1"/>
       <c r="Q169">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="R169">
-        <v>3300</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -9195,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9215,18 +9210,18 @@
       </c>
       <c r="P170" s="1"/>
       <c r="Q170">
-        <v>3301</v>
+        <v>3281</v>
       </c>
       <c r="R170">
-        <v>3320</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F171">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9237,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9257,18 +9252,18 @@
       </c>
       <c r="P171" s="1"/>
       <c r="Q171">
-        <v>3321</v>
+        <v>3301</v>
       </c>
       <c r="R171">
-        <v>3340</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F172">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9279,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9299,127 +9294,127 @@
       </c>
       <c r="P172" s="1"/>
       <c r="Q172">
-        <v>3341</v>
+        <v>3321</v>
       </c>
       <c r="R172">
-        <v>3360</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B173">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F173">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>82</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M173">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N173">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O173">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P173" s="1"/>
       <c r="Q173">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="R173">
-        <v>3380</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B174">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F174">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N174">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O174">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174" s="1"/>
       <c r="Q174">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="R174">
-        <v>3400</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9431,15 +9426,15 @@
       </c>
       <c r="P175" s="1"/>
       <c r="Q175">
-        <v>3401</v>
+        <v>3381</v>
       </c>
       <c r="R175">
-        <v>3420</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -9473,18 +9468,18 @@
       </c>
       <c r="P176" s="1"/>
       <c r="Q176">
-        <v>3421</v>
+        <v>3401</v>
       </c>
       <c r="R176">
-        <v>3440</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="B177">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9495,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L177">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9515,43 +9510,37 @@
       </c>
       <c r="P177" s="1"/>
       <c r="Q177">
-        <v>3441</v>
+        <v>3421</v>
       </c>
       <c r="R177">
-        <v>3460</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B178">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F178">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>18</v>
-      </c>
-      <c r="K178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L178">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9563,39 +9552,39 @@
       </c>
       <c r="P178" s="1"/>
       <c r="Q178">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="R178">
-        <v>3480</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K179">
         <v>1</v>
       </c>
       <c r="L179">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9611,18 +9600,21 @@
       </c>
       <c r="P179" s="1"/>
       <c r="Q179">
-        <v>3481</v>
+        <v>3461</v>
       </c>
       <c r="R179">
-        <v>3500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B180">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
       </c>
       <c r="F180">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9633,7 +9625,10 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
       </c>
       <c r="L180">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9653,37 +9648,37 @@
       </c>
       <c r="P180" s="1"/>
       <c r="Q180">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="R180">
-        <v>3520</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L181">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9695,18 +9690,18 @@
       </c>
       <c r="P181" s="1"/>
       <c r="Q181">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="R181">
-        <v>3540</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9717,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9737,18 +9732,18 @@
       </c>
       <c r="P182" s="1"/>
       <c r="Q182">
-        <v>3541</v>
+        <v>3521</v>
       </c>
       <c r="R182">
-        <v>3560</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9759,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9779,15 +9774,15 @@
       </c>
       <c r="P183" s="1"/>
       <c r="Q183">
-        <v>3561</v>
+        <v>3541</v>
       </c>
       <c r="R183">
-        <v>3580</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -9821,44 +9816,41 @@
       </c>
       <c r="P184" s="1"/>
       <c r="Q184">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="R184">
-        <v>3600</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="B185">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>70</v>
-      </c>
-      <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L185">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N185">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O185">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9866,41 +9858,44 @@
       </c>
       <c r="P185" s="1"/>
       <c r="Q185">
-        <v>3601</v>
+        <v>3581</v>
       </c>
       <c r="R185">
-        <v>3620</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="B186">
+        <v>65</v>
+      </c>
+      <c r="F186">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>7</v>
       </c>
-      <c r="F186">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N186">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O186">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9908,18 +9903,18 @@
       </c>
       <c r="P186" s="1"/>
       <c r="Q186">
-        <v>3621</v>
+        <v>3601</v>
       </c>
       <c r="R186">
-        <v>3640</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F187">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9930,52 +9925,49 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N187">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O187">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P187" s="1"/>
       <c r="Q187">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="R187">
-        <v>3660</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>11</v>
-      </c>
-      <c r="K188">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L188">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9987,26 +9979,26 @@
       </c>
       <c r="N188">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O188">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188">
-        <v>3661</v>
+        <v>3641</v>
       </c>
       <c r="R188">
-        <v>3680</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="B189">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F189">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10017,11 +10009,14 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
       </c>
       <c r="L189">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10029,7 +10024,7 @@
       </c>
       <c r="N189">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O189">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10037,18 +10032,18 @@
       </c>
       <c r="P189" s="1"/>
       <c r="Q189">
-        <v>3681</v>
+        <v>3661</v>
       </c>
       <c r="R189">
-        <v>3700</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F190">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10059,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L190">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10079,37 +10074,37 @@
       </c>
       <c r="P190" s="1"/>
       <c r="Q190">
-        <v>3701</v>
+        <v>3681</v>
       </c>
       <c r="R190">
-        <v>3720</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L191">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10121,111 +10116,111 @@
       </c>
       <c r="P191" s="1"/>
       <c r="Q191">
-        <v>3721</v>
+        <v>3701</v>
       </c>
       <c r="R191">
-        <v>3740</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B192">
-        <v>21</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
         <v>1</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>25</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="J192">
         <v>1</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N192">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O192">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P192" s="1"/>
       <c r="Q192">
-        <v>3741</v>
+        <v>3721</v>
       </c>
       <c r="R192">
-        <v>3760</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
       </c>
       <c r="F193">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N193">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P193" s="1"/>
       <c r="Q193">
-        <v>3761</v>
+        <v>3741</v>
       </c>
       <c r="R193">
-        <v>3780</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -10259,15 +10254,15 @@
       </c>
       <c r="P194" s="1"/>
       <c r="Q194">
-        <v>3781</v>
+        <v>3761</v>
       </c>
       <c r="R194">
-        <v>3800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -10281,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L195">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10301,113 +10296,113 @@
       </c>
       <c r="P195" s="1"/>
       <c r="Q195">
-        <v>3801</v>
+        <v>3781</v>
       </c>
       <c r="R195">
-        <v>3820</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H196">
         <v>5</v>
       </c>
-      <c r="F196">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>11</v>
-      </c>
       <c r="L196">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O196">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P196" s="1"/>
       <c r="Q196">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="R196">
-        <v>3840</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F197">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L197">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M197">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N197">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O197">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P197" s="1"/>
       <c r="Q197">
-        <v>3841</v>
+        <v>3821</v>
       </c>
       <c r="R197">
-        <v>3860</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F198">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10419,26 +10414,26 @@
       </c>
       <c r="N198">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O198">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198">
-        <v>3861</v>
+        <v>3841</v>
       </c>
       <c r="R198">
-        <v>3880</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F199">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10449,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10469,18 +10464,18 @@
       </c>
       <c r="P199" s="1"/>
       <c r="Q199">
-        <v>3881</v>
+        <v>3861</v>
       </c>
       <c r="R199">
-        <v>3900</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F200">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10491,49 +10486,49 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O200">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200">
-        <v>3901</v>
+        <v>3881</v>
       </c>
       <c r="R200">
-        <v>3920</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10545,26 +10540,26 @@
       </c>
       <c r="N201">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P201" s="1"/>
       <c r="Q201">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="R201">
-        <v>3940</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="B202">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10575,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10595,37 +10590,37 @@
       </c>
       <c r="P202" s="1"/>
       <c r="Q202">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="R202">
-        <v>3960</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N203">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10637,18 +10632,18 @@
       </c>
       <c r="P203" s="1"/>
       <c r="Q203">
-        <v>3961</v>
+        <v>3941</v>
       </c>
       <c r="R203">
-        <v>3980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10679,18 +10674,18 @@
       </c>
       <c r="P204" s="1"/>
       <c r="Q204">
-        <v>3981</v>
+        <v>3961</v>
       </c>
       <c r="R204">
-        <v>4000</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10703,39 +10698,36 @@
       <c r="H205">
         <v>3</v>
       </c>
-      <c r="K205">
-        <v>1</v>
-      </c>
       <c r="L205">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N205">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O205">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P205" s="1"/>
       <c r="Q205">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R205">
-        <v>4020</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10746,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K206">
         <v>1</v>
@@ -10769,29 +10761,32 @@
       </c>
       <c r="P206" s="1"/>
       <c r="Q206">
-        <v>4021</v>
+        <v>4001</v>
       </c>
       <c r="R206">
-        <v>4040</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
       </c>
       <c r="L207">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10803,45 +10798,45 @@
       </c>
       <c r="N207">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O207">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P207" s="1"/>
       <c r="Q207">
-        <v>4041</v>
+        <v>4021</v>
       </c>
       <c r="R207">
-        <v>4060</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L208">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N208">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10853,18 +10848,18 @@
       </c>
       <c r="P208" s="1"/>
       <c r="Q208">
-        <v>4061</v>
+        <v>4041</v>
       </c>
       <c r="R208">
-        <v>4080</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10895,29 +10890,29 @@
       </c>
       <c r="P209" s="1"/>
       <c r="Q209">
-        <v>4081</v>
+        <v>4061</v>
       </c>
       <c r="R209">
-        <v>4100</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L210">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10929,37 +10924,37 @@
       </c>
       <c r="N210">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O210">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P210" s="1"/>
       <c r="Q210">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="R210">
-        <v>4120</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F211">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L211">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10971,147 +10966,147 @@
       </c>
       <c r="N211">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O211">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P211" s="1"/>
       <c r="Q211">
-        <v>4121</v>
+        <v>4101</v>
       </c>
       <c r="R211">
-        <v>4140</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="B212">
-        <v>58</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>68</v>
-      </c>
-      <c r="I212">
-        <v>1</v>
-      </c>
-      <c r="J212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N212">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O212">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P212" s="1"/>
       <c r="Q212">
-        <v>4141</v>
+        <v>4121</v>
       </c>
       <c r="R212">
-        <v>4160</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B213">
-        <v>20</v>
-      </c>
-      <c r="E213">
+        <v>58</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
         <v>1</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>7</v>
+      </c>
+      <c r="G213">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H213">
+        <v>68</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>8</v>
+      </c>
+      <c r="M213">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>3</v>
       </c>
-      <c r="G213">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H213">
-        <v>16</v>
-      </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M213">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
       <c r="N213">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O213">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P213" s="1"/>
       <c r="Q213">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="R213">
-        <v>4180</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N214">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11123,37 +11118,37 @@
       </c>
       <c r="P214" s="1"/>
       <c r="Q214">
-        <v>4181</v>
+        <v>4161</v>
       </c>
       <c r="R214">
-        <v>4200</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N215">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11165,18 +11160,18 @@
       </c>
       <c r="P215" s="1"/>
       <c r="Q215">
-        <v>4201</v>
+        <v>4181</v>
       </c>
       <c r="R215">
-        <v>4220</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B216">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11187,11 +11182,11 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11199,7 +11194,7 @@
       </c>
       <c r="N216">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O216">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11207,41 +11202,41 @@
       </c>
       <c r="P216" s="1"/>
       <c r="Q216">
-        <v>4221</v>
+        <v>4201</v>
       </c>
       <c r="R216">
-        <v>4240</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L217">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N217">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O217">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11249,15 +11244,15 @@
       </c>
       <c r="P217" s="1"/>
       <c r="Q217">
-        <v>4241</v>
+        <v>4221</v>
       </c>
       <c r="R217">
-        <v>4260</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -11291,15 +11286,15 @@
       </c>
       <c r="P218" s="1"/>
       <c r="Q218">
-        <v>4261</v>
+        <v>4241</v>
       </c>
       <c r="R218">
-        <v>4280</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -11333,15 +11328,15 @@
       </c>
       <c r="P219" s="1"/>
       <c r="Q219">
-        <v>4281</v>
+        <v>4261</v>
       </c>
       <c r="R219">
-        <v>4300</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -11375,41 +11370,41 @@
       </c>
       <c r="P220" s="1"/>
       <c r="Q220">
-        <v>4301</v>
+        <v>4281</v>
       </c>
       <c r="R220">
-        <v>4320</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="B221">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L221">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O221">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11417,41 +11412,41 @@
       </c>
       <c r="P221" s="1"/>
       <c r="Q221">
-        <v>4321</v>
+        <v>4301</v>
       </c>
       <c r="R221">
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F222">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G222">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L222">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M222">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N222">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O222">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11459,15 +11454,15 @@
       </c>
       <c r="P222" s="1"/>
       <c r="Q222">
-        <v>4341</v>
+        <v>4321</v>
       </c>
       <c r="R222">
-        <v>4360</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -11501,37 +11496,37 @@
       </c>
       <c r="P223" s="1"/>
       <c r="Q223">
-        <v>4361</v>
+        <v>4341</v>
       </c>
       <c r="R223">
-        <v>4380</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F224">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L224">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11541,22 +11536,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P224" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P224" s="1"/>
       <c r="Q224">
-        <v>4381</v>
+        <v>4361</v>
       </c>
       <c r="R224">
-        <v>4400</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B225">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F225">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11567,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L225">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11585,39 +11578,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P225" s="1"/>
+      <c r="P225" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q225">
-        <v>4401</v>
+        <v>4381</v>
       </c>
       <c r="R225">
-        <v>4420</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L226">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11629,41 +11624,41 @@
       </c>
       <c r="P226" s="1"/>
       <c r="Q226">
-        <v>4421</v>
+        <v>4401</v>
       </c>
       <c r="R226">
-        <v>4440</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="B227">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F227">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L227">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O227">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11671,41 +11666,41 @@
       </c>
       <c r="P227" s="1"/>
       <c r="Q227">
-        <v>4441</v>
+        <v>4421</v>
       </c>
       <c r="R227">
-        <v>4460</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O228">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11713,37 +11708,37 @@
       </c>
       <c r="P228" s="1"/>
       <c r="Q228">
-        <v>4461</v>
+        <v>4441</v>
       </c>
       <c r="R228">
-        <v>4480</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B229">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11755,21 +11750,18 @@
       </c>
       <c r="P229" s="1"/>
       <c r="Q229">
-        <v>4481</v>
+        <v>4461</v>
       </c>
       <c r="R229">
-        <v>4500</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B230">
-        <v>2</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11780,10 +11772,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>4</v>
-      </c>
-      <c r="J230">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11803,18 +11792,21 @@
       </c>
       <c r="P230" s="1"/>
       <c r="Q230">
-        <v>4501</v>
+        <v>4481</v>
       </c>
       <c r="R230">
-        <v>4520</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="B231">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11825,11 +11817,14 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11837,7 +11832,7 @@
       </c>
       <c r="N231">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O231">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11845,41 +11840,41 @@
       </c>
       <c r="P231" s="1"/>
       <c r="Q231">
-        <v>4521</v>
+        <v>4501</v>
       </c>
       <c r="R231">
-        <v>4540</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O232">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11887,15 +11882,15 @@
       </c>
       <c r="P232" s="1"/>
       <c r="Q232">
-        <v>4541</v>
+        <v>4521</v>
       </c>
       <c r="R232">
-        <v>4560</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -11909,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11929,18 +11924,18 @@
       </c>
       <c r="P233" s="1"/>
       <c r="Q233">
-        <v>4561</v>
+        <v>4541</v>
       </c>
       <c r="R233">
-        <v>4580</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11951,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11971,18 +11966,18 @@
       </c>
       <c r="P234" s="1"/>
       <c r="Q234">
-        <v>4581</v>
+        <v>4561</v>
       </c>
       <c r="R234">
-        <v>4600</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11993,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12013,18 +12008,18 @@
       </c>
       <c r="P235" s="1"/>
       <c r="Q235">
-        <v>4601</v>
+        <v>4581</v>
       </c>
       <c r="R235">
-        <v>4620</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F236">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12035,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L236">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12055,18 +12050,18 @@
       </c>
       <c r="P236" s="1"/>
       <c r="Q236">
-        <v>4621</v>
+        <v>4601</v>
       </c>
       <c r="R236">
-        <v>4640</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12077,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12097,18 +12092,18 @@
       </c>
       <c r="P237" s="1"/>
       <c r="Q237">
-        <v>4641</v>
+        <v>4621</v>
       </c>
       <c r="R237">
-        <v>4660</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12119,35 +12114,35 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M238">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O238">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P238" s="1"/>
       <c r="Q238">
-        <v>4661</v>
+        <v>4641</v>
       </c>
       <c r="R238">
-        <v>4680</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -12161,38 +12156,38 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M239">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O239">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P239" s="1"/>
       <c r="Q239">
-        <v>4681</v>
+        <v>4661</v>
       </c>
       <c r="R239">
-        <v>4700</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12223,43 +12218,37 @@
       </c>
       <c r="P240" s="1"/>
       <c r="Q240">
-        <v>4701</v>
+        <v>4681</v>
       </c>
       <c r="R240">
-        <v>4720</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B241">
-        <v>49</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F241">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H241">
         <v>5</v>
       </c>
-      <c r="G241">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H241">
-        <v>45</v>
-      </c>
-      <c r="K241">
-        <v>1</v>
-      </c>
       <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M241">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N241">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12271,43 +12260,43 @@
       </c>
       <c r="P241" s="1"/>
       <c r="Q241">
-        <v>4721</v>
+        <v>4701</v>
       </c>
       <c r="R241">
-        <v>4740</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B242">
-        <v>7</v>
-      </c>
-      <c r="D242">
+        <v>49</v>
+      </c>
+      <c r="E242">
         <v>1</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242">
+        <v>45</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="J242">
-        <v>1</v>
-      </c>
-      <c r="L242">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N242">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12319,18 +12308,21 @@
       </c>
       <c r="P242" s="1"/>
       <c r="Q242">
-        <v>4741</v>
+        <v>4721</v>
       </c>
       <c r="R242">
-        <v>4760</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B243">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
       </c>
       <c r="F243">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12341,122 +12333,125 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
       </c>
       <c r="L243">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M243">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N243">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O243">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P243" s="1"/>
       <c r="Q243">
-        <v>4761</v>
+        <v>4741</v>
       </c>
       <c r="R243">
-        <v>4780</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="B244">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H244">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="L244">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N244">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O244">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P244" s="1"/>
       <c r="Q244">
-        <v>4781</v>
+        <v>4761</v>
       </c>
       <c r="R244">
-        <v>4800</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="B245">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N245">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O245">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P245" s="1"/>
       <c r="Q245">
-        <v>4801</v>
+        <v>4781</v>
       </c>
       <c r="R245">
-        <v>4820</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12467,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L246">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12487,114 +12482,114 @@
       </c>
       <c r="P246" s="1"/>
       <c r="Q246">
-        <v>4821</v>
+        <v>4801</v>
       </c>
       <c r="R246">
-        <v>4840</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B247">
-        <v>30</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G247">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H247">
         <v>5</v>
       </c>
-      <c r="G247">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H247">
-        <v>86</v>
-      </c>
-      <c r="I247">
-        <v>1</v>
-      </c>
-      <c r="K247">
-        <v>1</v>
-      </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N247">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O247">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P247" s="1"/>
       <c r="Q247">
-        <v>4841</v>
+        <v>4821</v>
       </c>
       <c r="R247">
-        <v>4860</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B248">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N248">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O248">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P248" s="1"/>
       <c r="Q248">
-        <v>4861</v>
+        <v>4841</v>
       </c>
       <c r="R248">
-        <v>4880</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12605,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12625,18 +12620,18 @@
       </c>
       <c r="P249" s="1"/>
       <c r="Q249">
-        <v>4881</v>
+        <v>4861</v>
       </c>
       <c r="R249">
-        <v>4900</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B250">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12647,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12667,37 +12662,37 @@
       </c>
       <c r="P250" s="1"/>
       <c r="Q250">
-        <v>4901</v>
+        <v>4881</v>
       </c>
       <c r="R250">
-        <v>4920</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N251">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12709,37 +12704,37 @@
       </c>
       <c r="P251" s="1"/>
       <c r="Q251">
-        <v>4921</v>
+        <v>4901</v>
       </c>
       <c r="R251">
-        <v>4940</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B252">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N252">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12751,29 +12746,29 @@
       </c>
       <c r="P252" s="1"/>
       <c r="Q252">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="R252">
-        <v>4960</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H253">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12785,7 +12780,7 @@
       </c>
       <c r="N253">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O253">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12793,41 +12788,41 @@
       </c>
       <c r="P253" s="1"/>
       <c r="Q253">
-        <v>4961</v>
+        <v>4941</v>
       </c>
       <c r="R253">
-        <v>4980</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F254">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O254">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12835,71 +12830,113 @@
       </c>
       <c r="P254" s="1"/>
       <c r="Q254">
-        <v>4981</v>
+        <v>4961</v>
       </c>
       <c r="R254">
-        <v>5000</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>211</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="F255">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>4</v>
+      </c>
+      <c r="L255">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P255" s="1"/>
+      <c r="Q255">
+        <v>4981</v>
+      </c>
+      <c r="R255">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>212</v>
       </c>
-      <c r="B255">
+      <c r="B256">
         <v>7</v>
       </c>
-      <c r="F255">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H255">
+      <c r="F256">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H256">
         <v>7</v>
       </c>
-      <c r="L255">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M255">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N255">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O255">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P255" s="1" t="s">
+      <c r="L256">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P256" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q255">
+      <c r="Q256">
         <v>5001</v>
       </c>
-      <c r="R255">
+      <c r="R256">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O255">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="N3:O256">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P255">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="P3:P256">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12916,7 +12953,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A3E3E4-F206-4E37-A9FF-912247E47DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11136CD-73E6-4529-83F0-1FF2ADEA3980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,7 +4947,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P71" s="1"/>
+      <c r="P71" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q71">
         <v>1321</v>
       </c>
@@ -12953,7 +12955,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11136CD-73E6-4529-83F0-1FF2ADEA3980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98EFFE-942F-44E0-9F5E-DF30BB1543D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="P256" sqref="P256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,7 +4991,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P72" s="1"/>
+      <c r="P72" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q72">
         <v>1341</v>
       </c>
@@ -5042,7 +5044,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P73" s="1"/>
+      <c r="P73" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q73">
         <v>1361</v>
       </c>
@@ -12872,7 +12876,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P255" s="1"/>
+      <c r="P255" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q255">
         <v>4981</v>
       </c>
@@ -12955,7 +12961,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98EFFE-942F-44E0-9F5E-DF30BB1543D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B771A9FF-DF73-4DC9-9AF4-9400C7114B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="P256" sqref="P256"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,7 +5088,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P74" s="1"/>
+      <c r="P74" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q74">
         <v>1381</v>
       </c>
@@ -12582,7 +12584,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P248" s="1"/>
+      <c r="P248" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q248">
         <v>4841</v>
       </c>
@@ -12708,7 +12712,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P251" s="1"/>
+      <c r="P251" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q251">
         <v>4901</v>
       </c>
@@ -12750,7 +12756,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P252" s="1"/>
+      <c r="P252" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q252">
         <v>4921</v>
       </c>
@@ -12792,7 +12800,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P253" s="1"/>
+      <c r="P253" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q253">
         <v>4941</v>
       </c>
@@ -12834,7 +12844,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P254" s="1"/>
+      <c r="P254" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q254">
         <v>4961</v>
       </c>
@@ -12961,7 +12973,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B771A9FF-DF73-4DC9-9AF4-9400C7114B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FB85AF-9DFB-4659-B9FC-C9D955BEE929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1442,7 +1439,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1808,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,7 +5246,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P78" s="1"/>
+      <c r="P78" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q78">
         <v>1441</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FB85AF-9DFB-4659-B9FC-C9D955BEE929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6DB12-9DBD-4BEB-80DF-5C3D6CDD9549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="P121" sqref="P121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7083,7 +7083,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P120" s="1"/>
+      <c r="P120" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q120">
         <v>2281</v>
       </c>
@@ -12971,8 +12973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6DB12-9DBD-4BEB-80DF-5C3D6CDD9549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B385E2E7-0D0A-4F0F-B68B-59CA16BE16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1439,7 +1442,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1805,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="P121" sqref="P121"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,7 +5135,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P75" s="1"/>
+      <c r="P75" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q75">
         <v>1401</v>
       </c>
@@ -12973,8 +12978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B385E2E7-0D0A-4F0F-B68B-59CA16BE16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0BD248-A1C0-4E96-AE3C-CDB9E1CB6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5179,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P76" s="1"/>
+      <c r="P76" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q76">
         <v>1421</v>
       </c>
@@ -12979,7 +12981,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0BD248-A1C0-4E96-AE3C-CDB9E1CB6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5B0B1-CE85-4FAB-B1F8-E105E8D112CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P77" sqref="P77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5217,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P77" s="1"/>
+      <c r="P77" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -5297,7 +5299,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P79" s="1"/>
+      <c r="P79" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q79">
         <v>1461</v>
       </c>
@@ -12981,7 +12985,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misagh.H\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Millennium_Dawn_DEV\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5B0B1-CE85-4FAB-B1F8-E105E8D112CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1396,7 +1395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1442,7 +1441,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1502,42 +1501,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10BD23E6-60AB-42C7-B043-A8B30FF8C033}" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
-  <autoFilter ref="A2:R256" xr:uid="{6DDEF623-4240-4F7B-A4DC-C137388F3BBA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
+  <autoFilter ref="A2:R256"/>
+  <sortState ref="A3:O256">
     <sortCondition ref="A2:A256"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0F370F1D-33D6-4690-B3B1-6018D18D0D34}" name="TAG"/>
-    <tableColumn id="2" xr3:uid="{A251529F-C198-4882-980D-186989E9B99C}" name="Units 1"/>
-    <tableColumn id="3" xr3:uid="{7E1D6517-8E7B-4427-B6C9-14389192DE8B}" name="Is Major 1"/>
-    <tableColumn id="4" xr3:uid="{588C3809-C9CA-4AEA-9EF0-533C64E739E4}" name="Is in Faction 1"/>
-    <tableColumn id="5" xr3:uid="{BCCB4B03-5F7F-44EB-9901-B606126976C3}" name="Is Nato 1"/>
-    <tableColumn id="6" xr3:uid="{44BAFD9D-822B-4663-B280-3DE4FEA8BB69}" name="No of Gens 1">
+    <tableColumn id="1" name="TAG"/>
+    <tableColumn id="2" name="Units 1"/>
+    <tableColumn id="3" name="Is Major 1"/>
+    <tableColumn id="4" name="Is in Faction 1"/>
+    <tableColumn id="5" name="Is Nato 1"/>
+    <tableColumn id="6" name="No of Gens 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{197C5B3F-B43B-4A81-ACD0-74C7949DAA61}" name="No of FMs 1">
+    <tableColumn id="7" name="No of FMs 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FF51BC1D-EA0A-40F6-9D8C-3D1FE4BCF8C4}" name="Units 2"/>
-    <tableColumn id="9" xr3:uid="{49589B77-E62E-4D08-96EA-7877AEB0D0EE}" name="Is Major 2"/>
-    <tableColumn id="10" xr3:uid="{586137D4-3C4D-4543-9BFB-6E492F8AA6CF}" name="Is in Faction 2"/>
-    <tableColumn id="11" xr3:uid="{0C7687F4-429E-4266-936C-B122FB9E9DC6}" name="Is Nato 2"/>
-    <tableColumn id="12" xr3:uid="{BB7F4C2D-E9D6-4786-A46D-3B04A81F33AB}" name="No of Gens 2">
+    <tableColumn id="8" name="Units 2"/>
+    <tableColumn id="9" name="Is Major 2"/>
+    <tableColumn id="10" name="Is in Faction 2"/>
+    <tableColumn id="11" name="Is Nato 2"/>
+    <tableColumn id="12" name="No of Gens 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BB43CEF2-1EEA-4030-8A67-A9CA835A06EA}" name="No of FMs 2">
+    <tableColumn id="13" name="No of FMs 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{68AAE598-9B8F-45FA-A989-9EEA87297881}" name="DeltaG">
+    <tableColumn id="14" name="DeltaG">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{AD6381E7-3290-44E4-9E98-E7E9063F54F9}" name="DeltaFM">
+    <tableColumn id="15" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F1A1B7D8-F172-48DC-AF4F-5C441C6D421B}" name="Done" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{C49D052D-3754-49A2-9551-F2176AA27932}" name="ID min"/>
-    <tableColumn id="18" xr3:uid="{8A6F4AEA-EC4E-4C6E-A653-1A392AFA8658}" name="ID max"/>
+    <tableColumn id="16" name="Done" dataDxfId="0"/>
+    <tableColumn id="17" name="ID min"/>
+    <tableColumn id="18" name="ID max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1805,11 +1804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,7 +5432,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P82" s="1"/>
+      <c r="P82" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q82">
         <v>1521</v>
       </c>
@@ -12981,7 +12982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E469F0-E937-4D3B-84E7-469E4E3F14B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="B234" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,7 +9403,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P174" s="1"/>
+      <c r="P174" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q174">
         <v>3361</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B234" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="B218" workbookViewId="0">
+      <selection activeCell="S228" sqref="S228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6657,7 +6657,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P110" s="1"/>
+      <c r="P110" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q110">
         <v>2081</v>
       </c>
@@ -7307,7 +7309,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P125" s="1"/>
+      <c r="P125" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q125">
         <v>2381</v>
       </c>
@@ -11729,7 +11733,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P228" s="1"/>
+      <c r="P228" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q228">
         <v>4441</v>
       </c>
@@ -12377,7 +12383,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P243" s="1"/>
+      <c r="P243" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q243">
         <v>4741</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B218" workbookViewId="0">
-      <selection activeCell="S228" sqref="S228"/>
+    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
+      <selection activeCell="S193" sqref="S193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10237,7 +10237,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P193" s="1"/>
+      <c r="P193" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q193">
         <v>3741</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misagh.H\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Millennium_Dawn_DEV\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2296BE-15B0-4DCF-8255-B4902B63E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1395,7 +1396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1441,7 +1442,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1501,42 +1502,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
-  <autoFilter ref="A2:R256"/>
-  <sortState ref="A3:O256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
+  <autoFilter ref="A2:R256" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O256">
     <sortCondition ref="A2:A256"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="TAG"/>
-    <tableColumn id="2" name="Units 1"/>
-    <tableColumn id="3" name="Is Major 1"/>
-    <tableColumn id="4" name="Is in Faction 1"/>
-    <tableColumn id="5" name="Is Nato 1"/>
-    <tableColumn id="6" name="No of Gens 1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Major 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is in Faction 1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Nato 1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No of Gens 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No of FMs 1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="No of FMs 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Units 2"/>
-    <tableColumn id="9" name="Is Major 2"/>
-    <tableColumn id="10" name="Is in Faction 2"/>
-    <tableColumn id="11" name="Is Nato 2"/>
-    <tableColumn id="12" name="No of Gens 2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Units 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is Major 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Is in Faction 2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Is Nato 2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="No of Gens 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="No of FMs 2">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="No of FMs 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="DeltaG">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DeltaG">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DeltaFM">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Done" dataDxfId="0"/>
-    <tableColumn id="17" name="ID min"/>
-    <tableColumn id="18" name="ID max"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,11 +1805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
-      <selection activeCell="S193" sqref="S193"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,7 +5391,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P81" s="1"/>
+      <c r="P81" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q81">
         <v>1501</v>
       </c>
@@ -12994,11 +12997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
-      <selection activeCell="S193" sqref="S193"/>
+    <sheetView tabSelected="1" topLeftCell="B160" workbookViewId="0">
+      <selection activeCell="S167" sqref="S167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6923,7 +6923,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P116" s="1"/>
+      <c r="P116" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q116">
         <v>2201</v>
       </c>
@@ -9107,7 +9109,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P167" s="1"/>
+      <c r="P167" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q167">
         <v>3221</v>
       </c>
@@ -9799,7 +9803,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P183" s="1"/>
+      <c r="P183" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q183">
         <v>3541</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2296BE-15B0-4DCF-8255-B4902B63E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75178AAC-33BE-4332-A206-E29340614336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,7 +5479,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P83" s="1"/>
+      <c r="P83" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q83">
         <v>1541</v>
       </c>
@@ -5521,7 +5523,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P84" s="1"/>
+      <c r="P84" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q84">
         <v>1561</v>
       </c>
@@ -5563,7 +5567,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P85" s="1"/>
+      <c r="P85" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q85">
         <v>1581</v>
       </c>
@@ -5833,7 +5839,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P91" s="1"/>
+      <c r="P91" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q91">
         <v>1701</v>
       </c>
@@ -13001,7 +13009,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misagh.H\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Millennium_Dawn_DEV\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75178AAC-33BE-4332-A206-E29340614336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="452">
   <si>
     <t>TAG</t>
   </si>
@@ -1396,7 +1395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1442,7 +1441,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1502,42 +1501,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
-  <autoFilter ref="A2:R256" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O256">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
+  <autoFilter ref="A2:R256"/>
+  <sortState ref="A3:O256">
     <sortCondition ref="A2:A256"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Major 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is in Faction 1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Nato 1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No of Gens 1">
+    <tableColumn id="1" name="TAG"/>
+    <tableColumn id="2" name="Units 1"/>
+    <tableColumn id="3" name="Is Major 1"/>
+    <tableColumn id="4" name="Is in Faction 1"/>
+    <tableColumn id="5" name="Is Nato 1"/>
+    <tableColumn id="6" name="No of Gens 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="No of FMs 1">
+    <tableColumn id="7" name="No of FMs 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Units 2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is Major 2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Is in Faction 2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Is Nato 2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="No of Gens 2">
+    <tableColumn id="8" name="Units 2"/>
+    <tableColumn id="9" name="Is Major 2"/>
+    <tableColumn id="10" name="Is in Faction 2"/>
+    <tableColumn id="11" name="Is Nato 2"/>
+    <tableColumn id="12" name="No of Gens 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="No of FMs 2">
+    <tableColumn id="13" name="No of FMs 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DeltaG">
+    <tableColumn id="14" name="DeltaG">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
+    <tableColumn id="15" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
+    <tableColumn id="16" name="Done" dataDxfId="0"/>
+    <tableColumn id="17" name="ID min"/>
+    <tableColumn id="18" name="ID max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1805,11 +1804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView tabSelected="1" topLeftCell="B157" workbookViewId="0">
+      <selection activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6934,7 +6933,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P116" s="1"/>
+      <c r="P116" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q116">
         <v>2201</v>
       </c>
@@ -9118,7 +9119,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P167" s="1"/>
+      <c r="P167" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q167">
         <v>3221</v>
       </c>
@@ -9810,7 +9813,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P183" s="1"/>
+      <c r="P183" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q183">
         <v>3541</v>
       </c>
@@ -13005,7 +13010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misagh.H\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Millennium_Dawn_DEV\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264D2E1-8AF2-4C73-BC0A-6ED0BB2A6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="453">
   <si>
     <t>TAG</t>
   </si>
@@ -1390,12 +1391,15 @@
   </si>
   <si>
     <t>ETK</t>
+  </si>
+  <si>
+    <t>GLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1441,12 +1445,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1487,6 +1488,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1501,42 +1505,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Taulukko2" displayName="Taulukko2" ref="A2:R256" totalsRowShown="0">
-  <autoFilter ref="A2:R256"/>
-  <sortState ref="A3:O256">
-    <sortCondition ref="A2:A256"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R257" totalsRowShown="0">
+  <autoFilter ref="A2:R257" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O257">
+    <sortCondition ref="A2:A257"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="TAG"/>
-    <tableColumn id="2" name="Units 1"/>
-    <tableColumn id="3" name="Is Major 1"/>
-    <tableColumn id="4" name="Is in Faction 1"/>
-    <tableColumn id="5" name="Is Nato 1"/>
-    <tableColumn id="6" name="No of Gens 1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Major 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is in Faction 1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Nato 1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No of Gens 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No of FMs 1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="No of FMs 1">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Units 2"/>
-    <tableColumn id="9" name="Is Major 2"/>
-    <tableColumn id="10" name="Is in Faction 2"/>
-    <tableColumn id="11" name="Is Nato 2"/>
-    <tableColumn id="12" name="No of Gens 2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Units 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is Major 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Is in Faction 2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Is Nato 2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="No of Gens 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="No of FMs 2">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="No of FMs 2">
       <calculatedColumnFormula>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="DeltaG">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DeltaG">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DeltaFM">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Done" dataDxfId="0"/>
-    <tableColumn id="17" name="ID min"/>
-    <tableColumn id="18" name="ID max"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,11 +1808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" workbookViewId="0">
-      <selection activeCell="J167" sqref="J167"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,7 +5614,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P86" s="1"/>
+      <c r="P86" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q86">
         <v>1601</v>
       </c>
@@ -5664,7 +5670,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P87" s="1"/>
+      <c r="P87" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q87">
         <v>1621</v>
       </c>
@@ -5674,10 +5682,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>221</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F88">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5687,36 +5692,27 @@
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>18</v>
-      </c>
       <c r="L88">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" s="1"/>
-      <c r="Q88">
-        <v>1641</v>
-      </c>
-      <c r="R88">
-        <v>1660</v>
-      </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -5730,35 +5726,35 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L89">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="R89">
-        <v>1680</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -5772,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L90">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -5792,43 +5788,37 @@
       </c>
       <c r="P90" s="1"/>
       <c r="Q90">
-        <v>1681</v>
+        <v>1661</v>
       </c>
       <c r="R90">
-        <v>1700</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B91">
-        <v>28</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>27</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5838,41 +5828,45 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P91" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P91" s="1"/>
       <c r="Q91">
-        <v>1701</v>
+        <v>1681</v>
       </c>
       <c r="R91">
-        <v>1720</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G92">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
       </c>
       <c r="L92">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M92">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -5882,20 +5876,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P92" s="1"/>
+      <c r="P92" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q92">
-        <v>1721</v>
+        <v>1701</v>
       </c>
       <c r="R92">
-        <v>1740</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F93">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5926,18 +5922,18 @@
       </c>
       <c r="P93" s="1"/>
       <c r="Q93">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="R93">
-        <v>1760</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5948,38 +5944,38 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L94">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="R94">
-        <v>1780</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F95">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -5990,38 +5986,38 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L95">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95">
-        <v>1781</v>
+        <v>1761</v>
       </c>
       <c r="R95">
-        <v>1800</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6032,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L96">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6052,15 +6048,15 @@
       </c>
       <c r="P96" s="1"/>
       <c r="Q96">
-        <v>1801</v>
+        <v>1781</v>
       </c>
       <c r="R96">
-        <v>1820</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6074,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6094,15 +6090,15 @@
       </c>
       <c r="P97" s="1"/>
       <c r="Q97">
-        <v>1821</v>
+        <v>1801</v>
       </c>
       <c r="R97">
-        <v>1840</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -6116,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L98">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6136,44 +6132,41 @@
       </c>
       <c r="P98" s="1"/>
       <c r="Q98">
-        <v>1841</v>
+        <v>1821</v>
       </c>
       <c r="R98">
-        <v>1860</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>24</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O99">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6181,21 +6174,18 @@
       </c>
       <c r="P99" s="1"/>
       <c r="Q99">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="R99">
-        <v>1880</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F100">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6206,14 +6196,14 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="L100">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M100">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6221,7 +6211,7 @@
       </c>
       <c r="N100">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6229,37 +6219,43 @@
       </c>
       <c r="P100" s="1"/>
       <c r="Q100">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="R100">
-        <v>1900</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
       <c r="F101">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
       <c r="L101">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6271,43 +6267,37 @@
       </c>
       <c r="P101" s="1"/>
       <c r="Q101">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="R101">
-        <v>1920</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>6</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6319,37 +6309,43 @@
       </c>
       <c r="P102" s="1"/>
       <c r="Q102">
-        <v>1921</v>
+        <v>1901</v>
       </c>
       <c r="R102">
-        <v>1940</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B103">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
       </c>
       <c r="F103">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
       </c>
       <c r="L103">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M103">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6361,18 +6357,18 @@
       </c>
       <c r="P103" s="1"/>
       <c r="Q103">
-        <v>1941</v>
+        <v>1921</v>
       </c>
       <c r="R103">
-        <v>1960</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F104">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6383,35 +6379,35 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104">
-        <v>1961</v>
+        <v>1941</v>
       </c>
       <c r="R104">
-        <v>1980</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -6425,11 +6421,11 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L105">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M105">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6437,7 +6433,7 @@
       </c>
       <c r="N105">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6445,66 +6441,60 @@
       </c>
       <c r="P105" s="1"/>
       <c r="Q105">
-        <v>1981</v>
+        <v>1961</v>
       </c>
       <c r="R105">
-        <v>2000</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>25</v>
+      </c>
+      <c r="L106">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G106">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>4</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M106">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N106">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O106">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="R106">
-        <v>2020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6518,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -6539,37 +6529,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P107" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P107" s="1"/>
       <c r="Q107">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="R107">
-        <v>2040</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B108">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
       </c>
       <c r="F108">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H108">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
       </c>
       <c r="L108">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M108">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6583,39 +6577,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P108" s="1"/>
+      <c r="P108" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q108">
-        <v>2041</v>
+        <v>2021</v>
       </c>
       <c r="R108">
-        <v>2060</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B109">
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F109">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G109">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L109">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M109">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6627,37 +6623,37 @@
       </c>
       <c r="P109" s="1"/>
       <c r="Q109">
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="R109">
-        <v>2080</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B110">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L110">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6667,30 +6663,28 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P110" s="1"/>
       <c r="Q110">
-        <v>2081</v>
+        <v>2061</v>
       </c>
       <c r="R110">
-        <v>2100</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F111">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>26</v>
@@ -6705,37 +6699,39 @@
       </c>
       <c r="N111">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O111">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P111" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q111">
-        <v>2101</v>
+        <v>2081</v>
       </c>
       <c r="R111">
-        <v>2120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B112">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L112">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6747,55 +6743,49 @@
       </c>
       <c r="N112">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O112">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="R112">
-        <v>2140</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B113">
         <v>11</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
       <c r="F113">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>34</v>
+      </c>
+      <c r="L113">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="G113">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>12</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
       <c r="M113">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N113">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -6803,37 +6793,43 @@
       </c>
       <c r="P113" s="1"/>
       <c r="Q113">
-        <v>2141</v>
+        <v>2121</v>
       </c>
       <c r="R113">
-        <v>2160</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F114">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G114">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
+        <v>12</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="L114">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M114">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6845,43 +6841,37 @@
       </c>
       <c r="P114" s="1"/>
       <c r="Q114">
-        <v>2161</v>
+        <v>2141</v>
       </c>
       <c r="R114">
-        <v>2180</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B115">
-        <v>15</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F115">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>3</v>
       </c>
-      <c r="G115">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>16</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="L115">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6893,33 +6883,39 @@
       </c>
       <c r="P115" s="1"/>
       <c r="Q115">
-        <v>2181</v>
+        <v>2161</v>
       </c>
       <c r="R115">
-        <v>2200</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
       </c>
       <c r="F116">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H116">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
       </c>
       <c r="L116">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M116">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -6933,41 +6929,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P116" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P116" s="1"/>
       <c r="Q116">
-        <v>2201</v>
+        <v>2181</v>
       </c>
       <c r="R116">
-        <v>2220</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F117">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L117">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6977,17 +6971,19 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P117" s="1"/>
+      <c r="P117" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q117">
-        <v>2221</v>
+        <v>2201</v>
       </c>
       <c r="R117">
-        <v>2240</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -7001,38 +6997,38 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L118">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118">
-        <v>2241</v>
+        <v>2221</v>
       </c>
       <c r="R118">
-        <v>2260</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F119">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7043,63 +7039,57 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L119">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M119">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119">
-        <v>2261</v>
+        <v>2241</v>
       </c>
       <c r="R119">
-        <v>2280</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B120">
-        <v>11</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F120">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
-      </c>
-      <c r="J120">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L120">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M120">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7109,37 +7099,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P120" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P120" s="1"/>
       <c r="Q120">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="R120">
-        <v>2300</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="F121">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
       </c>
       <c r="L121">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7147,41 +7141,43 @@
       </c>
       <c r="N121">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P121" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q121">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="R121">
-        <v>2320</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="B122">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F122">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="L122">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M122">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7189,45 +7185,45 @@
       </c>
       <c r="N122">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="1"/>
       <c r="Q122">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="R122">
-        <v>2340</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F123">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G123">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="L123">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M123">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7239,37 +7235,37 @@
       </c>
       <c r="P123" s="1"/>
       <c r="Q123">
-        <v>2341</v>
+        <v>2321</v>
       </c>
       <c r="R123">
-        <v>2360</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L124">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7281,37 +7277,37 @@
       </c>
       <c r="P124" s="1"/>
       <c r="Q124">
-        <v>2361</v>
+        <v>2341</v>
       </c>
       <c r="R124">
-        <v>2380</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F125">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L125">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7321,47 +7317,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P125" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P125" s="1"/>
       <c r="Q125">
-        <v>2381</v>
+        <v>2361</v>
       </c>
       <c r="R125">
-        <v>2400</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F126">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>3</v>
-      </c>
-      <c r="J126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L126">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M126">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7371,20 +7359,25 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P126" s="1"/>
+      <c r="P126" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q126">
-        <v>2401</v>
+        <v>2381</v>
       </c>
       <c r="R126">
-        <v>2420</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="F127">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7395,7 +7388,10 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
       </c>
       <c r="L127">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7415,32 +7411,29 @@
       </c>
       <c r="P127" s="1"/>
       <c r="Q127">
-        <v>2421</v>
+        <v>2401</v>
       </c>
       <c r="R127">
-        <v>2440</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F128">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L128">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7452,68 +7445,71 @@
       </c>
       <c r="N128">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" s="1"/>
       <c r="Q128">
-        <v>2441</v>
+        <v>2421</v>
       </c>
       <c r="R128">
-        <v>2460</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
       </c>
       <c r="L129">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O129">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P129" s="1"/>
       <c r="Q129">
-        <v>2461</v>
+        <v>2441</v>
       </c>
       <c r="R129">
-        <v>2480</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="B130">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F130">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7524,61 +7520,61 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O130">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130">
-        <v>2481</v>
+        <v>2461</v>
       </c>
       <c r="R130">
-        <v>2500</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F131">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L131">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M131">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -7586,26 +7582,26 @@
       </c>
       <c r="P131" s="1"/>
       <c r="Q131">
-        <v>2501</v>
+        <v>2481</v>
       </c>
       <c r="R131">
-        <v>2520</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -7620,71 +7616,68 @@
       </c>
       <c r="N132">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O132">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P132" s="1"/>
       <c r="Q132">
-        <v>2521</v>
+        <v>2501</v>
       </c>
       <c r="R132">
-        <v>2540</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F133">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>3</v>
-      </c>
-      <c r="K133">
         <v>1</v>
       </c>
       <c r="L133">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O133">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133">
-        <v>2541</v>
+        <v>2521</v>
       </c>
       <c r="R133">
-        <v>2560</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F134">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7695,35 +7688,38 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
       </c>
       <c r="L134">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134">
-        <v>2561</v>
+        <v>2541</v>
       </c>
       <c r="R134">
-        <v>2580</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7737,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L135">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7757,18 +7753,18 @@
       </c>
       <c r="P135" s="1"/>
       <c r="Q135">
-        <v>2581</v>
+        <v>2561</v>
       </c>
       <c r="R135">
-        <v>2600</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7799,43 +7795,37 @@
       </c>
       <c r="P136" s="1"/>
       <c r="Q136">
-        <v>2601</v>
+        <v>2581</v>
       </c>
       <c r="R136">
-        <v>2620</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F137">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7847,29 +7837,35 @@
       </c>
       <c r="P137" s="1"/>
       <c r="Q137">
-        <v>2621</v>
+        <v>2601</v>
       </c>
       <c r="R137">
-        <v>2640</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
       <c r="F138">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
       </c>
       <c r="L138">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7881,26 +7877,26 @@
       </c>
       <c r="N138">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" s="1"/>
       <c r="Q138">
-        <v>2641</v>
+        <v>2621</v>
       </c>
       <c r="R138">
-        <v>2660</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7911,91 +7907,91 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L139">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" s="1"/>
       <c r="Q139">
-        <v>2661</v>
+        <v>2641</v>
       </c>
       <c r="R139">
-        <v>2680</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>7</v>
       </c>
-      <c r="F140">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>8</v>
-      </c>
       <c r="L140">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M140">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140" s="1"/>
       <c r="Q140">
-        <v>2681</v>
+        <v>2661</v>
       </c>
       <c r="R140">
-        <v>2700</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B141">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F141">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L141">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8007,41 +8003,41 @@
       </c>
       <c r="N141">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141">
-        <v>2701</v>
+        <v>2681</v>
       </c>
       <c r="R141">
-        <v>2720</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B142">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F142">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G142">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L142">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M142">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -8049,68 +8045,68 @@
       </c>
       <c r="N142">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O142">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P142" s="1"/>
       <c r="Q142">
-        <v>2721</v>
+        <v>2701</v>
       </c>
       <c r="R142">
-        <v>2740</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F143">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G143">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L143">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O143">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P143" s="1"/>
       <c r="Q143">
-        <v>2741</v>
+        <v>2721</v>
       </c>
       <c r="R143">
-        <v>2760</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8141,18 +8137,18 @@
       </c>
       <c r="P144" s="1"/>
       <c r="Q144">
-        <v>2761</v>
+        <v>2741</v>
       </c>
       <c r="R144">
-        <v>2780</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F145">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8163,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8183,15 +8179,15 @@
       </c>
       <c r="P145" s="1"/>
       <c r="Q145">
-        <v>2781</v>
+        <v>2761</v>
       </c>
       <c r="R145">
-        <v>2800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8225,18 +8221,18 @@
       </c>
       <c r="P146" s="1"/>
       <c r="Q146">
-        <v>2801</v>
+        <v>2781</v>
       </c>
       <c r="R146">
-        <v>2820</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8247,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L147">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8267,18 +8263,18 @@
       </c>
       <c r="P147" s="1"/>
       <c r="Q147">
-        <v>2821</v>
+        <v>2801</v>
       </c>
       <c r="R147">
-        <v>2840</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F148">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8289,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L148">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8307,22 +8303,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P148" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P148" s="1"/>
       <c r="Q148">
-        <v>2841</v>
+        <v>2821</v>
       </c>
       <c r="R148">
-        <v>2860</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F149">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8333,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L149">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8351,20 +8345,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P149" s="1"/>
+      <c r="P149" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q149">
-        <v>2861</v>
+        <v>2841</v>
       </c>
       <c r="R149">
-        <v>2880</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8375,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L150">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8395,37 +8391,37 @@
       </c>
       <c r="P150" s="1"/>
       <c r="Q150">
-        <v>2881</v>
+        <v>2861</v>
       </c>
       <c r="R150">
-        <v>2900</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="B151">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F151">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>3</v>
       </c>
-      <c r="G151">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>29</v>
-      </c>
       <c r="L151">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M151">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8437,37 +8433,37 @@
       </c>
       <c r="P151" s="1"/>
       <c r="Q151">
-        <v>2901</v>
+        <v>2881</v>
       </c>
       <c r="R151">
-        <v>2920</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B152">
+        <v>27</v>
+      </c>
+      <c r="F152">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F152">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G152">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L152">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M152">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8479,18 +8475,18 @@
       </c>
       <c r="P152" s="1"/>
       <c r="Q152">
-        <v>2921</v>
+        <v>2901</v>
       </c>
       <c r="R152">
-        <v>2940</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F153">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8501,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L153">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8521,18 +8517,18 @@
       </c>
       <c r="P153" s="1"/>
       <c r="Q153">
-        <v>2941</v>
+        <v>2921</v>
       </c>
       <c r="R153">
-        <v>2960</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8543,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L154">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8563,18 +8559,18 @@
       </c>
       <c r="P154" s="1"/>
       <c r="Q154">
-        <v>2961</v>
+        <v>2941</v>
       </c>
       <c r="R154">
-        <v>2980</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F155">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8585,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L155">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8605,15 +8601,15 @@
       </c>
       <c r="P155" s="1"/>
       <c r="Q155">
-        <v>2981</v>
+        <v>2961</v>
       </c>
       <c r="R155">
-        <v>3000</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -8627,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L156">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8647,18 +8643,18 @@
       </c>
       <c r="P156" s="1"/>
       <c r="Q156">
-        <v>3001</v>
+        <v>2981</v>
       </c>
       <c r="R156">
-        <v>3020</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8669,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L157">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8689,18 +8685,18 @@
       </c>
       <c r="P157" s="1"/>
       <c r="Q157">
-        <v>3021</v>
+        <v>3001</v>
       </c>
       <c r="R157">
-        <v>3040</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F158">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8711,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L158">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8731,18 +8727,18 @@
       </c>
       <c r="P158" s="1"/>
       <c r="Q158">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="R158">
-        <v>3060</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F159">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8753,50 +8749,50 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L159">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M159">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O159">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P159" s="1"/>
       <c r="Q159">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="R159">
-        <v>3080</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>9</v>
       </c>
-      <c r="F160">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G160">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>12</v>
-      </c>
       <c r="L160">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>2</v>
@@ -8807,45 +8803,45 @@
       </c>
       <c r="N160">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P160" s="1"/>
       <c r="Q160">
-        <v>3081</v>
+        <v>3061</v>
       </c>
       <c r="R160">
-        <v>3100</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="B161">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F161">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G161">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M161">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N161">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8857,43 +8853,37 @@
       </c>
       <c r="P161" s="1"/>
       <c r="Q161">
-        <v>3101</v>
+        <v>3081</v>
       </c>
       <c r="R161">
-        <v>3120</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F162">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G162">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>3</v>
-      </c>
-      <c r="J162">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L162">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M162">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N162">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8905,34 +8895,34 @@
       </c>
       <c r="P162" s="1"/>
       <c r="Q162">
-        <v>3121</v>
+        <v>3101</v>
       </c>
       <c r="R162">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B163">
-        <v>10</v>
-      </c>
-      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="D163">
         <v>1</v>
       </c>
       <c r="F163">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H163">
         <v>3</v>
       </c>
-      <c r="G163">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>6</v>
-      </c>
-      <c r="K163">
+      <c r="J163">
         <v>1</v>
       </c>
       <c r="L163">
@@ -8945,7 +8935,7 @@
       </c>
       <c r="N163">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O163">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -8953,29 +8943,35 @@
       </c>
       <c r="P163" s="1"/>
       <c r="Q163">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="R163">
-        <v>3160</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
       </c>
       <c r="F164">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
       </c>
       <c r="L164">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8987,23 +8983,23 @@
       </c>
       <c r="N164">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O164">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P164" s="1"/>
       <c r="Q164">
-        <v>3161</v>
+        <v>3141</v>
       </c>
       <c r="R164">
-        <v>3180</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -9017,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L165">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9037,18 +9033,18 @@
       </c>
       <c r="P165" s="1"/>
       <c r="Q165">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="R165">
-        <v>3200</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9059,38 +9055,38 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L166">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P166" s="1"/>
       <c r="Q166">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="R166">
-        <v>3220</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F167">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9101,55 +9097,53 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L167">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O167">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P167" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P167" s="1"/>
       <c r="Q167">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="R167">
-        <v>3240</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B168">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F168">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9157,45 +9151,47 @@
       </c>
       <c r="N168">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P168" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q168">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="R168">
-        <v>3260</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9207,18 +9203,18 @@
       </c>
       <c r="P169" s="1"/>
       <c r="Q169">
-        <v>3261</v>
+        <v>3241</v>
       </c>
       <c r="R169">
-        <v>3280</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9229,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9249,15 +9245,15 @@
       </c>
       <c r="P170" s="1"/>
       <c r="Q170">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="R170">
-        <v>3300</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -9271,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9291,18 +9287,18 @@
       </c>
       <c r="P171" s="1"/>
       <c r="Q171">
-        <v>3301</v>
+        <v>3281</v>
       </c>
       <c r="R171">
-        <v>3320</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F172">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9313,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9333,18 +9329,18 @@
       </c>
       <c r="P172" s="1"/>
       <c r="Q172">
-        <v>3321</v>
+        <v>3301</v>
       </c>
       <c r="R172">
-        <v>3340</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F173">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9355,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9375,129 +9371,129 @@
       </c>
       <c r="P173" s="1"/>
       <c r="Q173">
-        <v>3341</v>
+        <v>3321</v>
       </c>
       <c r="R173">
-        <v>3360</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B174">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>82</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N174">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O174">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P174" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P174" s="1"/>
       <c r="Q174">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="R174">
-        <v>3380</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B175">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G175">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M175">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N175">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O175">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P175" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q175">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="R175">
-        <v>3400</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F176">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L176">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9509,15 +9505,15 @@
       </c>
       <c r="P176" s="1"/>
       <c r="Q176">
-        <v>3401</v>
+        <v>3381</v>
       </c>
       <c r="R176">
-        <v>3420</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -9551,18 +9547,18 @@
       </c>
       <c r="P177" s="1"/>
       <c r="Q177">
-        <v>3421</v>
+        <v>3401</v>
       </c>
       <c r="R177">
-        <v>3440</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9573,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L178">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9593,43 +9589,37 @@
       </c>
       <c r="P178" s="1"/>
       <c r="Q178">
-        <v>3441</v>
+        <v>3421</v>
       </c>
       <c r="R178">
-        <v>3460</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B179">
-        <v>18</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F179">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>18</v>
-      </c>
-      <c r="K179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L179">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9641,39 +9631,39 @@
       </c>
       <c r="P179" s="1"/>
       <c r="Q179">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="R179">
-        <v>3480</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K180">
         <v>1</v>
       </c>
       <c r="L180">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9689,18 +9679,21 @@
       </c>
       <c r="P180" s="1"/>
       <c r="Q180">
-        <v>3481</v>
+        <v>3461</v>
       </c>
       <c r="R180">
-        <v>3500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B181">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9711,7 +9704,10 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
       </c>
       <c r="L181">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9731,37 +9727,37 @@
       </c>
       <c r="P181" s="1"/>
       <c r="Q181">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="R181">
-        <v>3520</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M182">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9773,18 +9769,18 @@
       </c>
       <c r="P182" s="1"/>
       <c r="Q182">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="R182">
-        <v>3540</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9795,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9813,22 +9809,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P183" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P183" s="1"/>
       <c r="Q183">
-        <v>3541</v>
+        <v>3521</v>
       </c>
       <c r="R183">
-        <v>3560</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F184">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9839,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L184">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9857,17 +9851,19 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P184" s="1"/>
+      <c r="P184" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q184">
-        <v>3561</v>
+        <v>3541</v>
       </c>
       <c r="R184">
-        <v>3580</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -9901,44 +9897,41 @@
       </c>
       <c r="P185" s="1"/>
       <c r="Q185">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="R185">
-        <v>3600</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="B186">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>70</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N186">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O186">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9946,41 +9939,44 @@
       </c>
       <c r="P186" s="1"/>
       <c r="Q186">
-        <v>3601</v>
+        <v>3581</v>
       </c>
       <c r="R186">
-        <v>3620</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="B187">
+        <v>65</v>
+      </c>
+      <c r="F187">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="G187">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>70</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>7</v>
       </c>
-      <c r="F187">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N187">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O187">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9988,18 +9984,18 @@
       </c>
       <c r="P187" s="1"/>
       <c r="Q187">
-        <v>3621</v>
+        <v>3601</v>
       </c>
       <c r="R187">
-        <v>3640</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F188">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10010,52 +10006,49 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L188">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M188">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O188">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="R188">
-        <v>3660</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="B189">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F189">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>11</v>
-      </c>
-      <c r="K189">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L189">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10067,26 +10060,26 @@
       </c>
       <c r="N189">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O189">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P189" s="1"/>
       <c r="Q189">
-        <v>3661</v>
+        <v>3641</v>
       </c>
       <c r="R189">
-        <v>3680</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="B190">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F190">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10097,11 +10090,14 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
       </c>
       <c r="L190">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10109,7 +10105,7 @@
       </c>
       <c r="N190">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10117,18 +10113,18 @@
       </c>
       <c r="P190" s="1"/>
       <c r="Q190">
-        <v>3681</v>
+        <v>3661</v>
       </c>
       <c r="R190">
-        <v>3700</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10139,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L191">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10159,37 +10155,37 @@
       </c>
       <c r="P191" s="1"/>
       <c r="Q191">
-        <v>3701</v>
+        <v>3681</v>
       </c>
       <c r="R191">
-        <v>3720</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10201,113 +10197,113 @@
       </c>
       <c r="P192" s="1"/>
       <c r="Q192">
-        <v>3721</v>
+        <v>3701</v>
       </c>
       <c r="R192">
-        <v>3740</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B193">
-        <v>21</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
         <v>1</v>
       </c>
       <c r="F193">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>25</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-      <c r="J193">
         <v>1</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N193">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O193">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P193" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P193" s="1"/>
       <c r="Q193">
-        <v>3741</v>
+        <v>3721</v>
       </c>
       <c r="R193">
-        <v>3760</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
       </c>
       <c r="F194">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
       </c>
       <c r="L194">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N194">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P194" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q194">
-        <v>3761</v>
+        <v>3741</v>
       </c>
       <c r="R194">
-        <v>3780</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -10341,15 +10337,15 @@
       </c>
       <c r="P195" s="1"/>
       <c r="Q195">
-        <v>3781</v>
+        <v>3761</v>
       </c>
       <c r="R195">
-        <v>3800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -10363,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L196">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10383,113 +10379,113 @@
       </c>
       <c r="P196" s="1"/>
       <c r="Q196">
-        <v>3801</v>
+        <v>3781</v>
       </c>
       <c r="R196">
-        <v>3820</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H197">
         <v>5</v>
       </c>
-      <c r="F197">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>11</v>
-      </c>
       <c r="L197">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M197">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N197">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O197">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P197" s="1"/>
       <c r="Q197">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="R197">
-        <v>3840</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B198">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F198">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O198">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198">
-        <v>3841</v>
+        <v>3821</v>
       </c>
       <c r="R198">
-        <v>3860</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F199">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L199">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10501,26 +10497,26 @@
       </c>
       <c r="N199">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O199">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P199" s="1"/>
       <c r="Q199">
-        <v>3861</v>
+        <v>3841</v>
       </c>
       <c r="R199">
-        <v>3880</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F200">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10531,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10551,18 +10547,18 @@
       </c>
       <c r="P200" s="1"/>
       <c r="Q200">
-        <v>3881</v>
+        <v>3861</v>
       </c>
       <c r="R200">
-        <v>3900</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F201">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10573,49 +10569,49 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O201">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P201" s="1"/>
       <c r="Q201">
-        <v>3901</v>
+        <v>3881</v>
       </c>
       <c r="R201">
-        <v>3920</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10627,26 +10623,26 @@
       </c>
       <c r="N202">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O202">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P202" s="1"/>
       <c r="Q202">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="R202">
-        <v>3940</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="B203">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10657,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10677,37 +10673,37 @@
       </c>
       <c r="P203" s="1"/>
       <c r="Q203">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="R203">
-        <v>3960</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G204">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M204">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10719,18 +10715,18 @@
       </c>
       <c r="P204" s="1"/>
       <c r="Q204">
-        <v>3961</v>
+        <v>3941</v>
       </c>
       <c r="R204">
-        <v>3980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10761,18 +10757,18 @@
       </c>
       <c r="P205" s="1"/>
       <c r="Q205">
-        <v>3981</v>
+        <v>3961</v>
       </c>
       <c r="R205">
-        <v>4000</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10785,39 +10781,36 @@
       <c r="H206">
         <v>3</v>
       </c>
-      <c r="K206">
-        <v>1</v>
-      </c>
       <c r="L206">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M206">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O206">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P206" s="1"/>
       <c r="Q206">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R206">
-        <v>4020</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10828,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K207">
         <v>1</v>
@@ -10851,29 +10844,32 @@
       </c>
       <c r="P207" s="1"/>
       <c r="Q207">
-        <v>4021</v>
+        <v>4001</v>
       </c>
       <c r="R207">
-        <v>4040</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="B208">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
       </c>
       <c r="L208">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10885,45 +10881,45 @@
       </c>
       <c r="N208">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P208" s="1"/>
       <c r="Q208">
-        <v>4041</v>
+        <v>4021</v>
       </c>
       <c r="R208">
-        <v>4060</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L209">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10935,18 +10931,18 @@
       </c>
       <c r="P209" s="1"/>
       <c r="Q209">
-        <v>4061</v>
+        <v>4041</v>
       </c>
       <c r="R209">
-        <v>4080</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10977,29 +10973,29 @@
       </c>
       <c r="P210" s="1"/>
       <c r="Q210">
-        <v>4081</v>
+        <v>4061</v>
       </c>
       <c r="R210">
-        <v>4100</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B211">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F211">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L211">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11011,37 +11007,37 @@
       </c>
       <c r="N211">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O211">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P211" s="1"/>
       <c r="Q211">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="R211">
-        <v>4120</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11053,147 +11049,147 @@
       </c>
       <c r="N212">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O212">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P212" s="1"/>
       <c r="Q212">
-        <v>4121</v>
+        <v>4101</v>
       </c>
       <c r="R212">
-        <v>4140</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="B213">
-        <v>58</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>68</v>
-      </c>
-      <c r="I213">
-        <v>1</v>
-      </c>
-      <c r="J213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L213">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N213">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O213">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P213" s="1"/>
       <c r="Q213">
-        <v>4141</v>
+        <v>4121</v>
       </c>
       <c r="R213">
-        <v>4160</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B214">
-        <v>20</v>
-      </c>
-      <c r="E214">
+        <v>58</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
         <v>1</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>7</v>
+      </c>
+      <c r="G214">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>68</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>8</v>
+      </c>
+      <c r="M214">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>3</v>
       </c>
-      <c r="G214">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>16</v>
-      </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-      <c r="L214">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M214">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
       <c r="N214">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O214">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P214" s="1"/>
       <c r="Q214">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="R214">
-        <v>4180</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11205,37 +11201,37 @@
       </c>
       <c r="P215" s="1"/>
       <c r="Q215">
-        <v>4181</v>
+        <v>4161</v>
       </c>
       <c r="R215">
-        <v>4200</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B216">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N216">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11247,18 +11243,18 @@
       </c>
       <c r="P216" s="1"/>
       <c r="Q216">
-        <v>4201</v>
+        <v>4181</v>
       </c>
       <c r="R216">
-        <v>4220</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11269,11 +11265,11 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L217">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11281,7 +11277,7 @@
       </c>
       <c r="N217">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O217">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11289,41 +11285,41 @@
       </c>
       <c r="P217" s="1"/>
       <c r="Q217">
-        <v>4221</v>
+        <v>4201</v>
       </c>
       <c r="R217">
-        <v>4240</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F218">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L218">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N218">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O218">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11331,15 +11327,15 @@
       </c>
       <c r="P218" s="1"/>
       <c r="Q218">
-        <v>4241</v>
+        <v>4221</v>
       </c>
       <c r="R218">
-        <v>4260</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -11373,15 +11369,15 @@
       </c>
       <c r="P219" s="1"/>
       <c r="Q219">
-        <v>4261</v>
+        <v>4241</v>
       </c>
       <c r="R219">
-        <v>4280</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -11415,15 +11411,15 @@
       </c>
       <c r="P220" s="1"/>
       <c r="Q220">
-        <v>4281</v>
+        <v>4261</v>
       </c>
       <c r="R220">
-        <v>4300</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -11457,41 +11453,41 @@
       </c>
       <c r="P221" s="1"/>
       <c r="Q221">
-        <v>4301</v>
+        <v>4281</v>
       </c>
       <c r="R221">
-        <v>4320</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="B222">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F222">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G222">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L222">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M222">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N222">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O222">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11499,41 +11495,41 @@
       </c>
       <c r="P222" s="1"/>
       <c r="Q222">
-        <v>4321</v>
+        <v>4301</v>
       </c>
       <c r="R222">
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F223">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L223">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O223">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11541,15 +11537,15 @@
       </c>
       <c r="P223" s="1"/>
       <c r="Q223">
-        <v>4341</v>
+        <v>4321</v>
       </c>
       <c r="R223">
-        <v>4360</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -11583,37 +11579,37 @@
       </c>
       <c r="P224" s="1"/>
       <c r="Q224">
-        <v>4361</v>
+        <v>4341</v>
       </c>
       <c r="R224">
-        <v>4380</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B225">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F225">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L225">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N225">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11623,22 +11619,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P225" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P225" s="1"/>
       <c r="Q225">
-        <v>4381</v>
+        <v>4361</v>
       </c>
       <c r="R225">
-        <v>4400</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B226">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11649,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L226">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11667,39 +11661,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P226" s="1"/>
+      <c r="P226" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q226">
-        <v>4401</v>
+        <v>4381</v>
       </c>
       <c r="R226">
-        <v>4420</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="B227">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F227">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L227">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11711,123 +11707,123 @@
       </c>
       <c r="P227" s="1"/>
       <c r="Q227">
-        <v>4421</v>
+        <v>4401</v>
       </c>
       <c r="R227">
-        <v>4440</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="B228">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O228">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P228" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P228" s="1"/>
       <c r="Q228">
-        <v>4441</v>
+        <v>4421</v>
       </c>
       <c r="R228">
-        <v>4460</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O229">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P229" s="1"/>
+      <c r="P229" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q229">
-        <v>4461</v>
+        <v>4441</v>
       </c>
       <c r="R229">
-        <v>4480</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B230">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N230">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11839,21 +11835,18 @@
       </c>
       <c r="P230" s="1"/>
       <c r="Q230">
-        <v>4481</v>
+        <v>4461</v>
       </c>
       <c r="R230">
-        <v>4500</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B231">
-        <v>2</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11864,10 +11857,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>4</v>
-      </c>
-      <c r="J231">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11887,18 +11877,21 @@
       </c>
       <c r="P231" s="1"/>
       <c r="Q231">
-        <v>4501</v>
+        <v>4481</v>
       </c>
       <c r="R231">
-        <v>4520</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="B232">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11909,11 +11902,14 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11921,7 +11917,7 @@
       </c>
       <c r="N232">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O232">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11929,41 +11925,41 @@
       </c>
       <c r="P232" s="1"/>
       <c r="Q232">
-        <v>4521</v>
+        <v>4501</v>
       </c>
       <c r="R232">
-        <v>4540</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11971,15 +11967,15 @@
       </c>
       <c r="P233" s="1"/>
       <c r="Q233">
-        <v>4541</v>
+        <v>4521</v>
       </c>
       <c r="R233">
-        <v>4560</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -11993,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12013,18 +12009,18 @@
       </c>
       <c r="P234" s="1"/>
       <c r="Q234">
-        <v>4561</v>
+        <v>4541</v>
       </c>
       <c r="R234">
-        <v>4580</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12035,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12055,18 +12051,18 @@
       </c>
       <c r="P235" s="1"/>
       <c r="Q235">
-        <v>4581</v>
+        <v>4561</v>
       </c>
       <c r="R235">
-        <v>4600</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F236">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12077,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L236">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12097,18 +12093,18 @@
       </c>
       <c r="P236" s="1"/>
       <c r="Q236">
-        <v>4601</v>
+        <v>4581</v>
       </c>
       <c r="R236">
-        <v>4620</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F237">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12119,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12139,18 +12135,18 @@
       </c>
       <c r="P237" s="1"/>
       <c r="Q237">
-        <v>4621</v>
+        <v>4601</v>
       </c>
       <c r="R237">
-        <v>4640</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B238">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12161,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12181,18 +12177,18 @@
       </c>
       <c r="P238" s="1"/>
       <c r="Q238">
-        <v>4641</v>
+        <v>4621</v>
       </c>
       <c r="R238">
-        <v>4660</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12203,35 +12199,35 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M239">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N239">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O239">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P239" s="1"/>
       <c r="Q239">
-        <v>4661</v>
+        <v>4641</v>
       </c>
       <c r="R239">
-        <v>4680</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -12245,38 +12241,38 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L240">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M240">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N240">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O240">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P240" s="1"/>
       <c r="Q240">
-        <v>4681</v>
+        <v>4661</v>
       </c>
       <c r="R240">
-        <v>4700</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F241">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12307,43 +12303,37 @@
       </c>
       <c r="P241" s="1"/>
       <c r="Q241">
-        <v>4701</v>
+        <v>4681</v>
       </c>
       <c r="R241">
-        <v>4720</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B242">
-        <v>49</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H242">
         <v>5</v>
       </c>
-      <c r="G242">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H242">
-        <v>45</v>
-      </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
       <c r="L242">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N242">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12355,43 +12345,43 @@
       </c>
       <c r="P242" s="1"/>
       <c r="Q242">
-        <v>4721</v>
+        <v>4701</v>
       </c>
       <c r="R242">
-        <v>4740</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B243">
-        <v>7</v>
-      </c>
-      <c r="D243">
+        <v>49</v>
+      </c>
+      <c r="E243">
         <v>1</v>
       </c>
       <c r="F243">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G243">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H243">
+        <v>45</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="J243">
-        <v>1</v>
-      </c>
-      <c r="L243">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M243">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N243">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12401,22 +12391,23 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P243" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P243" s="1"/>
       <c r="Q243">
-        <v>4741</v>
+        <v>4721</v>
       </c>
       <c r="R243">
-        <v>4760</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B244">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12427,122 +12418,127 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
       </c>
       <c r="L244">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N244">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O244">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
-      </c>
-      <c r="P244" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q244">
-        <v>4761</v>
+        <v>4741</v>
       </c>
       <c r="R244">
-        <v>4780</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="B245">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H245">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N245">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O245">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P245" s="1"/>
       <c r="Q245">
-        <v>4781</v>
+        <v>4761</v>
       </c>
       <c r="R245">
-        <v>4800</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="B246">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L246">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N246">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O246">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P246" s="1"/>
       <c r="Q246">
-        <v>4801</v>
+        <v>4781</v>
       </c>
       <c r="R246">
-        <v>4820</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="B247">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12553,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12573,116 +12569,116 @@
       </c>
       <c r="P247" s="1"/>
       <c r="Q247">
-        <v>4821</v>
+        <v>4801</v>
       </c>
       <c r="R247">
-        <v>4840</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B248">
-        <v>30</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G248">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H248">
         <v>5</v>
       </c>
-      <c r="G248">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H248">
-        <v>86</v>
-      </c>
-      <c r="I248">
-        <v>1</v>
-      </c>
-      <c r="K248">
-        <v>1</v>
-      </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N248">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O248">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P248" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P248" s="1"/>
       <c r="Q248">
-        <v>4841</v>
+        <v>4821</v>
       </c>
       <c r="R248">
-        <v>4860</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B249">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N249">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O249">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P249" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q249">
-        <v>4861</v>
+        <v>4841</v>
       </c>
       <c r="R249">
-        <v>4880</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B250">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12693,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12713,18 +12709,18 @@
       </c>
       <c r="P250" s="1"/>
       <c r="Q250">
-        <v>4881</v>
+        <v>4861</v>
       </c>
       <c r="R250">
-        <v>4900</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B251">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12735,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12753,41 +12749,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P251" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P251" s="1"/>
       <c r="Q251">
-        <v>4901</v>
+        <v>4881</v>
       </c>
       <c r="R251">
-        <v>4920</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12801,37 +12795,37 @@
         <v>269</v>
       </c>
       <c r="Q252">
-        <v>4921</v>
+        <v>4901</v>
       </c>
       <c r="R252">
-        <v>4940</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B253">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N253">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12845,29 +12839,29 @@
         <v>269</v>
       </c>
       <c r="Q253">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="R253">
-        <v>4960</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B254">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F254">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H254">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12879,7 +12873,7 @@
       </c>
       <c r="N254">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O254">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12889,41 +12883,41 @@
         <v>269</v>
       </c>
       <c r="Q254">
-        <v>4961</v>
+        <v>4941</v>
       </c>
       <c r="R254">
-        <v>4980</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F255">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L255">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O255">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12933,18 +12927,18 @@
         <v>269</v>
       </c>
       <c r="Q255">
-        <v>4981</v>
+        <v>4961</v>
       </c>
       <c r="R255">
-        <v>5000</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B256">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F256">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12955,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L256">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12977,27 +12971,71 @@
         <v>269</v>
       </c>
       <c r="Q256">
+        <v>4981</v>
+      </c>
+      <c r="R256">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>212</v>
+      </c>
+      <c r="B257">
+        <v>7</v>
+      </c>
+      <c r="F257">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>7</v>
+      </c>
+      <c r="L257">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q257">
         <v>5001</v>
       </c>
-      <c r="R256">
+      <c r="R257">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O256">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="N3:O257">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P256">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P3:P257">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13010,7 +13048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264D2E1-8AF2-4C73-BC0A-6ED0BB2A6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF08EA3-C89C-41F4-AB4B-65B919AC5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="453">
   <si>
     <t>TAG</t>
   </si>
@@ -1449,6 +1449,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1487,9 +1490,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1538,7 +1538,7 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5708,7 +5708,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P88" s="1"/>
+      <c r="P88" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -5744,7 +5746,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P89" s="1"/>
+      <c r="P89" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q89">
         <v>1641</v>
       </c>
@@ -5786,7 +5790,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P90" s="1"/>
+      <c r="P90" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q90">
         <v>1661</v>
       </c>
@@ -5828,7 +5834,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P91" s="1"/>
+      <c r="P91" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q91">
         <v>1681</v>
       </c>
@@ -5876,9 +5884,7 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P92" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P92" s="1"/>
       <c r="Q92">
         <v>1701</v>
       </c>
@@ -5920,7 +5926,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P93" s="1"/>
+      <c r="P93" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q93">
         <v>1721</v>
       </c>
@@ -5962,7 +5970,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P94" s="1"/>
+      <c r="P94" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q94">
         <v>1741</v>
       </c>
@@ -6929,7 +6939,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P116" s="1"/>
+      <c r="P116" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q116">
         <v>2181</v>
       </c>
@@ -13024,18 +13036,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O257">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P257">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13052,7 +13064,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF08EA3-C89C-41F4-AB4B-65B919AC5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01D986-D6B2-4563-8E5E-DE1A5484BCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="453">
   <si>
     <t>TAG</t>
   </si>
@@ -1445,7 +1442,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1811,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="P151" sqref="P151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8443,7 +8440,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P151" s="1"/>
+      <c r="P151" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q151">
         <v>2881</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01D986-D6B2-4563-8E5E-DE1A5484BCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE396457-BE00-4A84-9D78-0D861894F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="453">
   <si>
     <t>TAG</t>
   </si>
@@ -1442,7 +1445,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1808,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="P151" sqref="P151"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="P103" sqref="P103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5881,7 +5884,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P92" s="1"/>
+      <c r="P92" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q92">
         <v>1701</v>
       </c>
@@ -6011,7 +6016,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P95" s="1"/>
+      <c r="P95" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q95">
         <v>1761</v>
       </c>
@@ -6053,7 +6060,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P96" s="1"/>
+      <c r="P96" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q96">
         <v>1781</v>
       </c>
@@ -6095,7 +6104,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P97" s="1"/>
+      <c r="P97" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q97">
         <v>1801</v>
       </c>
@@ -6137,7 +6148,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P98" s="1"/>
+      <c r="P98" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q98">
         <v>1821</v>
       </c>
@@ -6179,7 +6192,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P99" s="1"/>
+      <c r="P99" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q99">
         <v>1841</v>
       </c>
@@ -6224,7 +6239,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P100" s="1"/>
+      <c r="P100" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q100">
         <v>1861</v>
       </c>
@@ -6272,7 +6289,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P101" s="1"/>
+      <c r="P101" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q101">
         <v>1881</v>
       </c>
@@ -6314,7 +6333,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P102" s="1"/>
+      <c r="P102" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q102">
         <v>1901</v>
       </c>
@@ -13062,8 +13083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE396457-BE00-4A84-9D78-0D861894F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDF918-290C-4EF0-BDF2-745CAEC21687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="453">
   <si>
     <t>TAG</t>
   </si>
@@ -1445,7 +1442,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1811,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="P103" sqref="P103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="P110" sqref="P110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6691,7 +6688,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P110" s="1"/>
+      <c r="P110" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q110">
         <v>2061</v>
       </c>
@@ -13084,7 +13083,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDF918-290C-4EF0-BDF2-745CAEC21687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9B200-619F-4325-95B6-FF3982835A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="453">
   <si>
     <t>TAG</t>
   </si>
@@ -1442,7 +1445,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -6380,7 +6383,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P103" s="1"/>
+      <c r="P103" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q103">
         <v>1921</v>
       </c>
@@ -6422,7 +6427,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P104" s="1"/>
+      <c r="P104" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q104">
         <v>1941</v>
       </c>
@@ -6464,7 +6471,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P105" s="1"/>
+      <c r="P105" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q105">
         <v>1961</v>
       </c>
@@ -6506,7 +6515,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P106" s="1"/>
+      <c r="P106" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q106">
         <v>1981</v>
       </c>
@@ -6554,7 +6565,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q107">
         <v>2001</v>
       </c>
@@ -12332,7 +12345,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P241" s="1"/>
+      <c r="P241" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q241">
         <v>4681</v>
       </c>
@@ -13082,8 +13097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A9B200-619F-4325-95B6-FF3982835A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD36260-D479-4E59-A771-1E60FBAAF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1394,6 +1394,9 @@
   </si>
   <si>
     <t>GLC</t>
+  </si>
+  <si>
+    <t>IOM</t>
   </si>
 </sst>
 </file>
@@ -1449,9 +1452,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1491,6 +1491,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1505,10 +1508,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R257" totalsRowShown="0">
-  <autoFilter ref="A2:R257" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O257">
-    <sortCondition ref="A2:A257"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R258" totalsRowShown="0">
+  <autoFilter ref="A2:R258" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O258">
+    <sortCondition ref="A2:A258"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
@@ -1538,7 +1541,7 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
@@ -1809,9 +1812,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R257"/>
+  <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="P110" sqref="P110"/>
     </sheetView>
   </sheetViews>
@@ -6659,7 +6662,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P109" s="1"/>
+      <c r="P109" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q109">
         <v>2041</v>
       </c>
@@ -6669,10 +6674,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
+        <v>453</v>
       </c>
       <c r="F110">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -6682,9 +6684,6 @@
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
       <c r="L110">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>1</v>
@@ -6701,41 +6700,33 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q110">
-        <v>2061</v>
-      </c>
-      <c r="R110">
-        <v>2080</v>
-      </c>
+      <c r="P110" s="1"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B111">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6749,26 +6740,26 @@
         <v>269</v>
       </c>
       <c r="Q111">
-        <v>2081</v>
+        <v>2061</v>
       </c>
       <c r="R111">
-        <v>2100</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F112">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G112">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>26</v>
@@ -6783,37 +6774,39 @@
       </c>
       <c r="N112">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O112">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P112" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q112">
-        <v>2101</v>
+        <v>2081</v>
       </c>
       <c r="R112">
-        <v>2120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L113">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -6825,93 +6818,95 @@
       </c>
       <c r="N113">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O113">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="R113">
-        <v>2140</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B114">
         <v>11</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
       <c r="F114">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>34</v>
+      </c>
+      <c r="L114">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="G114">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>12</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
       <c r="M114">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N114">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P114" s="1"/>
+      <c r="P114" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q114">
-        <v>2141</v>
+        <v>2121</v>
       </c>
       <c r="R114">
-        <v>2160</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F115">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G115">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
+        <v>12</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="L115">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M115">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6923,43 +6918,37 @@
       </c>
       <c r="P115" s="1"/>
       <c r="Q115">
-        <v>2161</v>
+        <v>2141</v>
       </c>
       <c r="R115">
-        <v>2180</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B116">
-        <v>15</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>3</v>
       </c>
-      <c r="G116">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>16</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
       <c r="L116">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -6969,37 +6958,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P116" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P116" s="1"/>
       <c r="Q116">
-        <v>2181</v>
+        <v>2161</v>
       </c>
       <c r="R116">
-        <v>2200</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
       </c>
       <c r="F117">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H117">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
       </c>
       <c r="L117">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M117">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7017,37 +7010,37 @@
         <v>269</v>
       </c>
       <c r="Q117">
-        <v>2201</v>
+        <v>2181</v>
       </c>
       <c r="R117">
-        <v>2220</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F118">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L118">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7057,17 +7050,19 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P118" s="1"/>
+      <c r="P118" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q118">
-        <v>2221</v>
+        <v>2201</v>
       </c>
       <c r="R118">
-        <v>2240</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -7081,38 +7076,38 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119">
-        <v>2241</v>
+        <v>2221</v>
       </c>
       <c r="R119">
-        <v>2260</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F120">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7123,63 +7118,57 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L120">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120">
-        <v>2261</v>
+        <v>2241</v>
       </c>
       <c r="R120">
-        <v>2280</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B121">
-        <v>11</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F121">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>14</v>
-      </c>
-      <c r="J121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L121">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M121">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7189,37 +7178,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P121" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P121" s="1"/>
       <c r="Q121">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="R121">
-        <v>2300</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="F122">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
       </c>
       <c r="L122">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M122">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7227,41 +7220,43 @@
       </c>
       <c r="N122">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P122" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q122">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="R122">
-        <v>2320</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="B123">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F123">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="L123">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M123">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -7269,45 +7264,45 @@
       </c>
       <c r="N123">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="R123">
-        <v>2340</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F124">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="L124">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M124">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7317,39 +7312,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P124" s="1"/>
+      <c r="P124" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q124">
-        <v>2341</v>
+        <v>2321</v>
       </c>
       <c r="R124">
-        <v>2360</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L125">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7361,37 +7358,37 @@
       </c>
       <c r="P125" s="1"/>
       <c r="Q125">
-        <v>2361</v>
+        <v>2341</v>
       </c>
       <c r="R125">
-        <v>2380</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F126">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L126">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M126">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7401,47 +7398,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P126" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P126" s="1"/>
       <c r="Q126">
-        <v>2381</v>
+        <v>2361</v>
       </c>
       <c r="R126">
-        <v>2400</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B127">
-        <v>3</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F127">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>3</v>
-      </c>
-      <c r="J127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L127">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7451,20 +7440,25 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P127" s="1"/>
+      <c r="P127" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q127">
-        <v>2401</v>
+        <v>2381</v>
       </c>
       <c r="R127">
-        <v>2420</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
       </c>
       <c r="F128">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7475,7 +7469,10 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
       </c>
       <c r="L128">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7495,32 +7492,29 @@
       </c>
       <c r="P128" s="1"/>
       <c r="Q128">
-        <v>2421</v>
+        <v>2401</v>
       </c>
       <c r="R128">
-        <v>2440</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F129">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L129">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7532,68 +7526,71 @@
       </c>
       <c r="N129">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" s="1"/>
       <c r="Q129">
-        <v>2441</v>
+        <v>2421</v>
       </c>
       <c r="R129">
-        <v>2460</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
       </c>
       <c r="L130">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M130">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O130">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130">
-        <v>2461</v>
+        <v>2441</v>
       </c>
       <c r="R130">
-        <v>2480</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F131">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7604,61 +7601,61 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M131">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O131">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131">
-        <v>2481</v>
+        <v>2461</v>
       </c>
       <c r="R131">
-        <v>2500</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F132">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L132">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M132">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -7666,26 +7663,26 @@
       </c>
       <c r="P132" s="1"/>
       <c r="Q132">
-        <v>2501</v>
+        <v>2481</v>
       </c>
       <c r="R132">
-        <v>2520</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -7700,71 +7697,68 @@
       </c>
       <c r="N133">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O133">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133">
-        <v>2521</v>
+        <v>2501</v>
       </c>
       <c r="R133">
-        <v>2540</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F134">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>3</v>
-      </c>
-      <c r="K134">
         <v>1</v>
       </c>
       <c r="L134">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O134">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134">
-        <v>2541</v>
+        <v>2521</v>
       </c>
       <c r="R134">
-        <v>2560</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F135">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7775,35 +7769,38 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
       </c>
       <c r="L135">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M135">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" s="1"/>
       <c r="Q135">
-        <v>2561</v>
+        <v>2541</v>
       </c>
       <c r="R135">
-        <v>2580</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -7817,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L136">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7837,18 +7834,18 @@
       </c>
       <c r="P136" s="1"/>
       <c r="Q136">
-        <v>2581</v>
+        <v>2561</v>
       </c>
       <c r="R136">
-        <v>2600</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7879,43 +7876,37 @@
       </c>
       <c r="P137" s="1"/>
       <c r="Q137">
-        <v>2601</v>
+        <v>2581</v>
       </c>
       <c r="R137">
-        <v>2620</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F138">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7927,29 +7918,35 @@
       </c>
       <c r="P138" s="1"/>
       <c r="Q138">
-        <v>2621</v>
+        <v>2601</v>
       </c>
       <c r="R138">
-        <v>2640</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
       <c r="F139">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
       </c>
       <c r="L139">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7961,26 +7958,26 @@
       </c>
       <c r="N139">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139" s="1"/>
       <c r="Q139">
-        <v>2641</v>
+        <v>2621</v>
       </c>
       <c r="R139">
-        <v>2660</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7991,91 +7988,91 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L140">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M140">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" s="1"/>
       <c r="Q140">
-        <v>2661</v>
+        <v>2641</v>
       </c>
       <c r="R140">
-        <v>2680</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>7</v>
       </c>
-      <c r="F141">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>8</v>
-      </c>
       <c r="L141">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141">
-        <v>2681</v>
+        <v>2661</v>
       </c>
       <c r="R141">
-        <v>2700</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F142">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L142">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8087,41 +8084,41 @@
       </c>
       <c r="N142">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" s="1"/>
       <c r="Q142">
-        <v>2701</v>
+        <v>2681</v>
       </c>
       <c r="R142">
-        <v>2720</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B143">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F143">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G143">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L143">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M143">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -8129,68 +8126,68 @@
       </c>
       <c r="N143">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O143">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P143" s="1"/>
       <c r="Q143">
-        <v>2721</v>
+        <v>2701</v>
       </c>
       <c r="R143">
-        <v>2740</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F144">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G144">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L144">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M144">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O144">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P144" s="1"/>
       <c r="Q144">
-        <v>2741</v>
+        <v>2721</v>
       </c>
       <c r="R144">
-        <v>2760</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8221,18 +8218,18 @@
       </c>
       <c r="P145" s="1"/>
       <c r="Q145">
-        <v>2761</v>
+        <v>2741</v>
       </c>
       <c r="R145">
-        <v>2780</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F146">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8243,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8263,15 +8260,15 @@
       </c>
       <c r="P146" s="1"/>
       <c r="Q146">
-        <v>2781</v>
+        <v>2761</v>
       </c>
       <c r="R146">
-        <v>2800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -8305,18 +8302,18 @@
       </c>
       <c r="P147" s="1"/>
       <c r="Q147">
-        <v>2801</v>
+        <v>2781</v>
       </c>
       <c r="R147">
-        <v>2820</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8327,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8347,18 +8344,18 @@
       </c>
       <c r="P148" s="1"/>
       <c r="Q148">
-        <v>2821</v>
+        <v>2801</v>
       </c>
       <c r="R148">
-        <v>2840</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F149">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8369,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8387,22 +8384,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P149" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P149" s="1"/>
       <c r="Q149">
-        <v>2841</v>
+        <v>2821</v>
       </c>
       <c r="R149">
-        <v>2860</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F150">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8413,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L150">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8431,20 +8426,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P150" s="1"/>
+      <c r="P150" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q150">
-        <v>2861</v>
+        <v>2841</v>
       </c>
       <c r="R150">
-        <v>2880</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8455,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L151">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8473,41 +8470,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P151" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P151" s="1"/>
       <c r="Q151">
-        <v>2881</v>
+        <v>2861</v>
       </c>
       <c r="R151">
-        <v>2900</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="B152">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F152">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>3</v>
       </c>
-      <c r="G152">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>29</v>
-      </c>
       <c r="L152">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M152">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8517,39 +8512,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P152" s="1"/>
+      <c r="P152" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q152">
-        <v>2901</v>
+        <v>2881</v>
       </c>
       <c r="R152">
-        <v>2920</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153">
+        <v>27</v>
+      </c>
+      <c r="F153">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F153">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G153">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L153">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M153">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8561,18 +8558,18 @@
       </c>
       <c r="P153" s="1"/>
       <c r="Q153">
-        <v>2921</v>
+        <v>2901</v>
       </c>
       <c r="R153">
-        <v>2940</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F154">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8583,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L154">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8603,18 +8600,18 @@
       </c>
       <c r="P154" s="1"/>
       <c r="Q154">
-        <v>2941</v>
+        <v>2921</v>
       </c>
       <c r="R154">
-        <v>2960</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8625,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L155">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8645,18 +8642,18 @@
       </c>
       <c r="P155" s="1"/>
       <c r="Q155">
-        <v>2961</v>
+        <v>2941</v>
       </c>
       <c r="R155">
-        <v>2980</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F156">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8667,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L156">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8687,15 +8684,15 @@
       </c>
       <c r="P156" s="1"/>
       <c r="Q156">
-        <v>2981</v>
+        <v>2961</v>
       </c>
       <c r="R156">
-        <v>3000</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -8709,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L157">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8729,18 +8726,18 @@
       </c>
       <c r="P157" s="1"/>
       <c r="Q157">
-        <v>3001</v>
+        <v>2981</v>
       </c>
       <c r="R157">
-        <v>3020</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8751,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L158">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8771,18 +8768,18 @@
       </c>
       <c r="P158" s="1"/>
       <c r="Q158">
-        <v>3021</v>
+        <v>3001</v>
       </c>
       <c r="R158">
-        <v>3040</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F159">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8793,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L159">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8813,18 +8810,18 @@
       </c>
       <c r="P159" s="1"/>
       <c r="Q159">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="R159">
-        <v>3060</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F160">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8835,50 +8832,50 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L160">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M160">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O160">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P160" s="1"/>
       <c r="Q160">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="R160">
-        <v>3080</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H161">
         <v>9</v>
       </c>
-      <c r="F161">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G161">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>12</v>
-      </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>2</v>
@@ -8889,45 +8886,45 @@
       </c>
       <c r="N161">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" s="1"/>
       <c r="Q161">
-        <v>3081</v>
+        <v>3061</v>
       </c>
       <c r="R161">
-        <v>3100</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="B162">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F162">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G162">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L162">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M162">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N162">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8939,43 +8936,37 @@
       </c>
       <c r="P162" s="1"/>
       <c r="Q162">
-        <v>3101</v>
+        <v>3081</v>
       </c>
       <c r="R162">
-        <v>3120</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B163">
-        <v>3</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F163">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>3</v>
-      </c>
-      <c r="J163">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L163">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N163">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8987,34 +8978,34 @@
       </c>
       <c r="P163" s="1"/>
       <c r="Q163">
-        <v>3121</v>
+        <v>3101</v>
       </c>
       <c r="R163">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B164">
-        <v>10</v>
-      </c>
-      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="D164">
         <v>1</v>
       </c>
       <c r="F164">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H164">
         <v>3</v>
       </c>
-      <c r="G164">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>6</v>
-      </c>
-      <c r="K164">
+      <c r="J164">
         <v>1</v>
       </c>
       <c r="L164">
@@ -9027,7 +9018,7 @@
       </c>
       <c r="N164">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O164">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9035,29 +9026,35 @@
       </c>
       <c r="P164" s="1"/>
       <c r="Q164">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="R164">
-        <v>3160</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
       </c>
       <c r="F165">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
       </c>
       <c r="L165">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9069,23 +9066,23 @@
       </c>
       <c r="N165">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O165">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" s="1"/>
       <c r="Q165">
-        <v>3161</v>
+        <v>3141</v>
       </c>
       <c r="R165">
-        <v>3180</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -9099,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L166">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9119,18 +9116,18 @@
       </c>
       <c r="P166" s="1"/>
       <c r="Q166">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="R166">
-        <v>3200</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9141,38 +9138,38 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L167">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O167">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" s="1"/>
       <c r="Q167">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="R167">
-        <v>3220</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9183,55 +9180,53 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N168">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O168">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P168" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P168" s="1"/>
       <c r="Q168">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="R168">
-        <v>3240</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B169">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9239,45 +9234,47 @@
       </c>
       <c r="N169">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P169" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q169">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="R169">
-        <v>3260</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F170">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G170">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M170">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9287,20 +9284,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P170" s="1"/>
+      <c r="P170" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q170">
-        <v>3261</v>
+        <v>3241</v>
       </c>
       <c r="R170">
-        <v>3280</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9311,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9331,15 +9330,15 @@
       </c>
       <c r="P171" s="1"/>
       <c r="Q171">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="R171">
-        <v>3300</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -9353,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9373,18 +9372,18 @@
       </c>
       <c r="P172" s="1"/>
       <c r="Q172">
-        <v>3301</v>
+        <v>3281</v>
       </c>
       <c r="R172">
-        <v>3320</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F173">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9395,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9415,18 +9414,18 @@
       </c>
       <c r="P173" s="1"/>
       <c r="Q173">
-        <v>3321</v>
+        <v>3301</v>
       </c>
       <c r="R173">
-        <v>3340</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F174">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9437,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9457,129 +9456,129 @@
       </c>
       <c r="P174" s="1"/>
       <c r="Q174">
-        <v>3341</v>
+        <v>3321</v>
       </c>
       <c r="R174">
-        <v>3360</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B175">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>82</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N175">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O175">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P175" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P175" s="1"/>
       <c r="Q175">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="R175">
-        <v>3380</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B176">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F176">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
       </c>
       <c r="L176">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N176">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O176">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P176" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q176">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="R176">
-        <v>3400</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F177">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L177">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N177">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9591,15 +9590,15 @@
       </c>
       <c r="P177" s="1"/>
       <c r="Q177">
-        <v>3401</v>
+        <v>3381</v>
       </c>
       <c r="R177">
-        <v>3420</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -9633,18 +9632,18 @@
       </c>
       <c r="P178" s="1"/>
       <c r="Q178">
-        <v>3421</v>
+        <v>3401</v>
       </c>
       <c r="R178">
-        <v>3440</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9655,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L179">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9675,43 +9674,37 @@
       </c>
       <c r="P179" s="1"/>
       <c r="Q179">
-        <v>3441</v>
+        <v>3421</v>
       </c>
       <c r="R179">
-        <v>3460</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B180">
-        <v>18</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F180">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>18</v>
-      </c>
-      <c r="K180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L180">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9723,39 +9716,39 @@
       </c>
       <c r="P180" s="1"/>
       <c r="Q180">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="R180">
-        <v>3480</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K181">
         <v>1</v>
       </c>
       <c r="L181">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9771,18 +9764,21 @@
       </c>
       <c r="P181" s="1"/>
       <c r="Q181">
-        <v>3481</v>
+        <v>3461</v>
       </c>
       <c r="R181">
-        <v>3500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B182">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9793,7 +9789,10 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9813,37 +9812,37 @@
       </c>
       <c r="P182" s="1"/>
       <c r="Q182">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="R182">
-        <v>3520</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9855,18 +9854,18 @@
       </c>
       <c r="P183" s="1"/>
       <c r="Q183">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="R183">
-        <v>3540</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F184">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9877,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L184">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9895,22 +9894,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P184" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P184" s="1"/>
       <c r="Q184">
-        <v>3541</v>
+        <v>3521</v>
       </c>
       <c r="R184">
-        <v>3560</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F185">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9921,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L185">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9939,17 +9936,19 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P185" s="1"/>
+      <c r="P185" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q185">
-        <v>3561</v>
+        <v>3541</v>
       </c>
       <c r="R185">
-        <v>3580</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -9983,44 +9982,41 @@
       </c>
       <c r="P186" s="1"/>
       <c r="Q186">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="R186">
-        <v>3600</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="B187">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>70</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N187">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O187">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10028,41 +10024,44 @@
       </c>
       <c r="P187" s="1"/>
       <c r="Q187">
-        <v>3601</v>
+        <v>3581</v>
       </c>
       <c r="R187">
-        <v>3620</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="B188">
+        <v>65</v>
+      </c>
+      <c r="F188">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="G188">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <v>70</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>7</v>
       </c>
-      <c r="F188">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="L188">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M188">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N188">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O188">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10070,18 +10069,18 @@
       </c>
       <c r="P188" s="1"/>
       <c r="Q188">
-        <v>3621</v>
+        <v>3601</v>
       </c>
       <c r="R188">
-        <v>3640</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F189">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10092,52 +10091,49 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O189">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P189" s="1"/>
       <c r="Q189">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="R189">
-        <v>3660</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="B190">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>11</v>
-      </c>
-      <c r="K190">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L190">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10149,26 +10145,26 @@
       </c>
       <c r="N190">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O190">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P190" s="1"/>
       <c r="Q190">
-        <v>3661</v>
+        <v>3641</v>
       </c>
       <c r="R190">
-        <v>3680</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10179,11 +10175,14 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
       </c>
       <c r="L191">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M191">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10191,7 +10190,7 @@
       </c>
       <c r="N191">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10199,18 +10198,18 @@
       </c>
       <c r="P191" s="1"/>
       <c r="Q191">
-        <v>3681</v>
+        <v>3661</v>
       </c>
       <c r="R191">
-        <v>3700</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10221,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10241,37 +10240,37 @@
       </c>
       <c r="P192" s="1"/>
       <c r="Q192">
-        <v>3701</v>
+        <v>3681</v>
       </c>
       <c r="R192">
-        <v>3720</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F193">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N193">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10283,113 +10282,113 @@
       </c>
       <c r="P193" s="1"/>
       <c r="Q193">
-        <v>3721</v>
+        <v>3701</v>
       </c>
       <c r="R193">
-        <v>3740</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B194">
-        <v>21</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194">
         <v>1</v>
       </c>
       <c r="F194">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>25</v>
-      </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
-      <c r="J194">
         <v>1</v>
       </c>
       <c r="L194">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N194">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P194" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P194" s="1"/>
       <c r="Q194">
-        <v>3741</v>
+        <v>3721</v>
       </c>
       <c r="R194">
-        <v>3760</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
       </c>
       <c r="F195">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
       </c>
       <c r="L195">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N195">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P195" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q195">
-        <v>3761</v>
+        <v>3741</v>
       </c>
       <c r="R195">
-        <v>3780</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -10423,15 +10422,15 @@
       </c>
       <c r="P196" s="1"/>
       <c r="Q196">
-        <v>3781</v>
+        <v>3761</v>
       </c>
       <c r="R196">
-        <v>3800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -10445,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L197">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10465,113 +10464,113 @@
       </c>
       <c r="P197" s="1"/>
       <c r="Q197">
-        <v>3801</v>
+        <v>3781</v>
       </c>
       <c r="R197">
-        <v>3820</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H198">
         <v>5</v>
       </c>
-      <c r="F198">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>11</v>
-      </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N198">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O198">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="R198">
-        <v>3840</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B199">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F199">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L199">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N199">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O199">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P199" s="1"/>
       <c r="Q199">
-        <v>3841</v>
+        <v>3821</v>
       </c>
       <c r="R199">
-        <v>3860</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F200">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10583,26 +10582,26 @@
       </c>
       <c r="N200">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O200">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200">
-        <v>3861</v>
+        <v>3841</v>
       </c>
       <c r="R200">
-        <v>3880</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F201">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10613,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10633,18 +10632,18 @@
       </c>
       <c r="P201" s="1"/>
       <c r="Q201">
-        <v>3881</v>
+        <v>3861</v>
       </c>
       <c r="R201">
-        <v>3900</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10655,49 +10654,49 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O202">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P202" s="1"/>
       <c r="Q202">
-        <v>3901</v>
+        <v>3881</v>
       </c>
       <c r="R202">
-        <v>3920</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="B203">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10709,26 +10708,26 @@
       </c>
       <c r="N203">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="R203">
-        <v>3940</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="B204">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10739,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10759,37 +10758,37 @@
       </c>
       <c r="P204" s="1"/>
       <c r="Q204">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="R204">
-        <v>3960</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L205">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N205">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10801,18 +10800,18 @@
       </c>
       <c r="P205" s="1"/>
       <c r="Q205">
-        <v>3961</v>
+        <v>3941</v>
       </c>
       <c r="R205">
-        <v>3980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10843,18 +10842,18 @@
       </c>
       <c r="P206" s="1"/>
       <c r="Q206">
-        <v>3981</v>
+        <v>3961</v>
       </c>
       <c r="R206">
-        <v>4000</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10867,39 +10866,36 @@
       <c r="H207">
         <v>3</v>
       </c>
-      <c r="K207">
-        <v>1</v>
-      </c>
       <c r="L207">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O207">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P207" s="1"/>
       <c r="Q207">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R207">
-        <v>4020</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10910,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K208">
         <v>1</v>
@@ -10933,29 +10929,32 @@
       </c>
       <c r="P208" s="1"/>
       <c r="Q208">
-        <v>4021</v>
+        <v>4001</v>
       </c>
       <c r="R208">
-        <v>4040</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="B209">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
       </c>
       <c r="L209">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10967,45 +10966,45 @@
       </c>
       <c r="N209">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O209">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P209" s="1"/>
       <c r="Q209">
-        <v>4041</v>
+        <v>4021</v>
       </c>
       <c r="R209">
-        <v>4060</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L210">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11017,18 +11016,18 @@
       </c>
       <c r="P210" s="1"/>
       <c r="Q210">
-        <v>4061</v>
+        <v>4041</v>
       </c>
       <c r="R210">
-        <v>4080</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F211">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11059,29 +11058,29 @@
       </c>
       <c r="P211" s="1"/>
       <c r="Q211">
-        <v>4081</v>
+        <v>4061</v>
       </c>
       <c r="R211">
-        <v>4100</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B212">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11093,37 +11092,37 @@
       </c>
       <c r="N212">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O212">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P212" s="1"/>
       <c r="Q212">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="R212">
-        <v>4120</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L213">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11135,147 +11134,147 @@
       </c>
       <c r="N213">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O213">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P213" s="1"/>
       <c r="Q213">
-        <v>4121</v>
+        <v>4101</v>
       </c>
       <c r="R213">
-        <v>4140</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="B214">
-        <v>58</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>68</v>
-      </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N214">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O214">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P214" s="1"/>
       <c r="Q214">
-        <v>4141</v>
+        <v>4121</v>
       </c>
       <c r="R214">
-        <v>4160</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B215">
-        <v>20</v>
-      </c>
-      <c r="E215">
+        <v>58</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
         <v>1</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>7</v>
+      </c>
+      <c r="G215">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <v>68</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>8</v>
+      </c>
+      <c r="M215">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>3</v>
       </c>
-      <c r="G215">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H215">
-        <v>16</v>
-      </c>
-      <c r="K215">
-        <v>1</v>
-      </c>
-      <c r="L215">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M215">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
       <c r="N215">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P215" s="1"/>
       <c r="Q215">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="R215">
-        <v>4180</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N216">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11287,37 +11286,37 @@
       </c>
       <c r="P216" s="1"/>
       <c r="Q216">
-        <v>4181</v>
+        <v>4161</v>
       </c>
       <c r="R216">
-        <v>4200</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B217">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L217">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N217">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11329,18 +11328,18 @@
       </c>
       <c r="P217" s="1"/>
       <c r="Q217">
-        <v>4201</v>
+        <v>4181</v>
       </c>
       <c r="R217">
-        <v>4220</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B218">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F218">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11351,11 +11350,11 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L218">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11363,7 +11362,7 @@
       </c>
       <c r="N218">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O218">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11371,41 +11370,41 @@
       </c>
       <c r="P218" s="1"/>
       <c r="Q218">
-        <v>4221</v>
+        <v>4201</v>
       </c>
       <c r="R218">
-        <v>4240</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F219">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L219">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11413,15 +11412,15 @@
       </c>
       <c r="P219" s="1"/>
       <c r="Q219">
-        <v>4241</v>
+        <v>4221</v>
       </c>
       <c r="R219">
-        <v>4260</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -11455,15 +11454,15 @@
       </c>
       <c r="P220" s="1"/>
       <c r="Q220">
-        <v>4261</v>
+        <v>4241</v>
       </c>
       <c r="R220">
-        <v>4280</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -11497,15 +11496,15 @@
       </c>
       <c r="P221" s="1"/>
       <c r="Q221">
-        <v>4281</v>
+        <v>4261</v>
       </c>
       <c r="R221">
-        <v>4300</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -11539,41 +11538,41 @@
       </c>
       <c r="P222" s="1"/>
       <c r="Q222">
-        <v>4301</v>
+        <v>4281</v>
       </c>
       <c r="R222">
-        <v>4320</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="B223">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L223">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N223">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O223">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11581,41 +11580,41 @@
       </c>
       <c r="P223" s="1"/>
       <c r="Q223">
-        <v>4321</v>
+        <v>4301</v>
       </c>
       <c r="R223">
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F224">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L224">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O224">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11623,15 +11622,15 @@
       </c>
       <c r="P224" s="1"/>
       <c r="Q224">
-        <v>4341</v>
+        <v>4321</v>
       </c>
       <c r="R224">
-        <v>4360</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -11665,37 +11664,37 @@
       </c>
       <c r="P225" s="1"/>
       <c r="Q225">
-        <v>4361</v>
+        <v>4341</v>
       </c>
       <c r="R225">
-        <v>4380</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B226">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L226">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N226">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11705,22 +11704,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P226" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P226" s="1"/>
       <c r="Q226">
-        <v>4381</v>
+        <v>4361</v>
       </c>
       <c r="R226">
-        <v>4400</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B227">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F227">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11731,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L227">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11749,39 +11746,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P227" s="1"/>
+      <c r="P227" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q227">
-        <v>4401</v>
+        <v>4381</v>
       </c>
       <c r="R227">
-        <v>4420</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11793,123 +11792,123 @@
       </c>
       <c r="P228" s="1"/>
       <c r="Q228">
-        <v>4421</v>
+        <v>4401</v>
       </c>
       <c r="R228">
-        <v>4440</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="B229">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O229">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P229" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P229" s="1"/>
       <c r="Q229">
-        <v>4441</v>
+        <v>4421</v>
       </c>
       <c r="R229">
-        <v>4460</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O230">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P230" s="1"/>
+      <c r="P230" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q230">
-        <v>4461</v>
+        <v>4441</v>
       </c>
       <c r="R230">
-        <v>4480</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B231">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N231">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11921,21 +11920,18 @@
       </c>
       <c r="P231" s="1"/>
       <c r="Q231">
-        <v>4481</v>
+        <v>4461</v>
       </c>
       <c r="R231">
-        <v>4500</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B232">
-        <v>2</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11946,10 +11942,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>4</v>
-      </c>
-      <c r="J232">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11967,20 +11960,25 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P232" s="1"/>
+      <c r="P232" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q232">
-        <v>4501</v>
+        <v>4481</v>
       </c>
       <c r="R232">
-        <v>4520</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="B233">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11991,11 +11989,14 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12003,7 +12004,7 @@
       </c>
       <c r="N233">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O233">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12011,41 +12012,41 @@
       </c>
       <c r="P233" s="1"/>
       <c r="Q233">
-        <v>4521</v>
+        <v>4501</v>
       </c>
       <c r="R233">
-        <v>4540</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N234">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O234">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12053,15 +12054,15 @@
       </c>
       <c r="P234" s="1"/>
       <c r="Q234">
-        <v>4541</v>
+        <v>4521</v>
       </c>
       <c r="R234">
-        <v>4560</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -12075,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12095,18 +12096,18 @@
       </c>
       <c r="P235" s="1"/>
       <c r="Q235">
-        <v>4561</v>
+        <v>4541</v>
       </c>
       <c r="R235">
-        <v>4580</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B236">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F236">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12117,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L236">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12137,18 +12138,18 @@
       </c>
       <c r="P236" s="1"/>
       <c r="Q236">
-        <v>4581</v>
+        <v>4561</v>
       </c>
       <c r="R236">
-        <v>4600</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F237">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12159,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12179,18 +12180,18 @@
       </c>
       <c r="P237" s="1"/>
       <c r="Q237">
-        <v>4601</v>
+        <v>4581</v>
       </c>
       <c r="R237">
-        <v>4620</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12201,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12221,18 +12222,18 @@
       </c>
       <c r="P238" s="1"/>
       <c r="Q238">
-        <v>4621</v>
+        <v>4601</v>
       </c>
       <c r="R238">
-        <v>4640</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12243,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12263,18 +12264,18 @@
       </c>
       <c r="P239" s="1"/>
       <c r="Q239">
-        <v>4641</v>
+        <v>4621</v>
       </c>
       <c r="R239">
-        <v>4660</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F240">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12285,35 +12286,35 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L240">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M240">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N240">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O240">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P240" s="1"/>
       <c r="Q240">
-        <v>4661</v>
+        <v>4641</v>
       </c>
       <c r="R240">
-        <v>4680</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -12327,40 +12328,38 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M241">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N241">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O241">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P241" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P241" s="1"/>
       <c r="Q241">
-        <v>4681</v>
+        <v>4661</v>
       </c>
       <c r="R241">
-        <v>4700</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B242">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12389,45 +12388,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P242" s="1"/>
+      <c r="P242" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q242">
-        <v>4701</v>
+        <v>4681</v>
       </c>
       <c r="R242">
-        <v>4720</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B243">
-        <v>49</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F243">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H243">
         <v>5</v>
       </c>
-      <c r="G243">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H243">
-        <v>45</v>
-      </c>
-      <c r="K243">
-        <v>1</v>
-      </c>
       <c r="L243">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M243">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N243">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12439,43 +12434,43 @@
       </c>
       <c r="P243" s="1"/>
       <c r="Q243">
-        <v>4721</v>
+        <v>4701</v>
       </c>
       <c r="R243">
-        <v>4740</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B244">
-        <v>7</v>
-      </c>
-      <c r="D244">
+        <v>49</v>
+      </c>
+      <c r="E244">
         <v>1</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244">
+        <v>45</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="J244">
-        <v>1</v>
-      </c>
-      <c r="L244">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N244">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12485,22 +12480,23 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P244" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P244" s="1"/>
       <c r="Q244">
-        <v>4741</v>
+        <v>4721</v>
       </c>
       <c r="R244">
-        <v>4760</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B245">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12511,122 +12507,127 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N245">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O245">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
-      </c>
-      <c r="P245" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q245">
-        <v>4761</v>
+        <v>4741</v>
       </c>
       <c r="R245">
-        <v>4780</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="B246">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H246">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="L246">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N246">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O246">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P246" s="1"/>
       <c r="Q246">
-        <v>4781</v>
+        <v>4761</v>
       </c>
       <c r="R246">
-        <v>4800</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N247">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O247">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P247" s="1"/>
       <c r="Q247">
-        <v>4801</v>
+        <v>4781</v>
       </c>
       <c r="R247">
-        <v>4820</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="B248">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12637,7 +12638,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12657,116 +12658,116 @@
       </c>
       <c r="P248" s="1"/>
       <c r="Q248">
-        <v>4821</v>
+        <v>4801</v>
       </c>
       <c r="R248">
-        <v>4840</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B249">
-        <v>30</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G249">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H249">
         <v>5</v>
       </c>
-      <c r="G249">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H249">
-        <v>86</v>
-      </c>
-      <c r="I249">
-        <v>1</v>
-      </c>
-      <c r="K249">
-        <v>1</v>
-      </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N249">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O249">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P249" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="P249" s="1"/>
       <c r="Q249">
-        <v>4841</v>
+        <v>4821</v>
       </c>
       <c r="R249">
-        <v>4860</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B250">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
       </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N250">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O250">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P250" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q250">
-        <v>4861</v>
+        <v>4841</v>
       </c>
       <c r="R250">
-        <v>4880</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B251">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12777,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12797,18 +12798,18 @@
       </c>
       <c r="P251" s="1"/>
       <c r="Q251">
-        <v>4881</v>
+        <v>4861</v>
       </c>
       <c r="R251">
-        <v>4900</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B252">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12819,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12837,41 +12838,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P252" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P252" s="1"/>
       <c r="Q252">
-        <v>4901</v>
+        <v>4881</v>
       </c>
       <c r="R252">
-        <v>4920</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N253">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12885,37 +12884,37 @@
         <v>269</v>
       </c>
       <c r="Q253">
-        <v>4921</v>
+        <v>4901</v>
       </c>
       <c r="R253">
-        <v>4940</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B254">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F254">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N254">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12929,29 +12928,29 @@
         <v>269</v>
       </c>
       <c r="Q254">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="R254">
-        <v>4960</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F255">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H255">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L255">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12963,7 +12962,7 @@
       </c>
       <c r="N255">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O255">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12973,41 +12972,41 @@
         <v>269</v>
       </c>
       <c r="Q255">
-        <v>4961</v>
+        <v>4941</v>
       </c>
       <c r="R255">
-        <v>4980</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F256">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L256">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N256">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O256">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13017,18 +13016,18 @@
         <v>269</v>
       </c>
       <c r="Q256">
-        <v>4981</v>
+        <v>4961</v>
       </c>
       <c r="R256">
-        <v>5000</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F257">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13039,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L257">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13061,27 +13060,71 @@
         <v>269</v>
       </c>
       <c r="Q257">
+        <v>4981</v>
+      </c>
+      <c r="R257">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>212</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="F258">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>7</v>
+      </c>
+      <c r="L258">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q258">
         <v>5001</v>
       </c>
-      <c r="R257">
+      <c r="R258">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O257">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="N3:O258">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P257">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P3:P258">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13098,7 +13141,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD36260-D479-4E59-A771-1E60FBAAF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D163FA79-DBED-48C1-881E-BE3EC16732E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1448,9 +1445,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1490,9 +1490,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1541,7 +1538,7 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
@@ -1814,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="P110" sqref="P110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="P117" sqref="P117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6958,7 +6955,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P116" s="1"/>
+      <c r="P116" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q116">
         <v>2161</v>
       </c>
@@ -13113,18 +13112,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O258">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P258">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D163FA79-DBED-48C1-881E-BE3EC16732E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3ECADE-EBFA-45FA-AB46-CB82F2F2CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1445,7 +1448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1811,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="P123" sqref="P123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,7 +6700,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P110" s="1"/>
+      <c r="P110" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -6821,7 +6826,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P113" s="1"/>
+      <c r="P113" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q113">
         <v>2101</v>
       </c>
@@ -6913,7 +6920,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P115" s="1"/>
+      <c r="P115" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q115">
         <v>2141</v>
       </c>
@@ -7093,7 +7102,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P119" s="1"/>
+      <c r="P119" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q119">
         <v>2221</v>
       </c>
@@ -7135,7 +7146,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P120" s="1"/>
+      <c r="P120" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q120">
         <v>2241</v>
       </c>
@@ -7177,7 +7190,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P121" s="1"/>
+      <c r="P121" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q121">
         <v>2261</v>
       </c>
@@ -13140,7 +13155,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3ECADE-EBFA-45FA-AB46-CB82F2F2CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2241F8-3BEF-4CC5-AB12-1AFC0A760229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1448,7 +1448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1814,11 +1814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="P123" sqref="P123"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="S252" sqref="S252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -12852,7 +12852,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P252" s="1"/>
+      <c r="P252" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q252">
         <v>4881</v>
       </c>
@@ -13158,7 +13160,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2241F8-3BEF-4CC5-AB12-1AFC0A760229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1E0A66-EC30-48B9-A97A-C6787DEC2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="S252" sqref="S252"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="L249" sqref="L249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12810,7 +12810,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P251" s="1"/>
+      <c r="P251" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q251">
         <v>4861</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1E0A66-EC30-48B9-A97A-C6787DEC2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66D3AF-9EBC-44DD-82E7-5F7C6947F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="L249" sqref="L249"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="S253" sqref="S253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12712,7 +12712,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P249" s="1"/>
+      <c r="P249" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q249">
         <v>4821</v>
       </c>
@@ -13158,8 +13160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66D3AF-9EBC-44DD-82E7-5F7C6947F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6192F9-C838-49D9-B5C0-02F530C64B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="S253" sqref="S253"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="S246" sqref="S246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12670,7 +12670,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P248" s="1"/>
+      <c r="P248" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q248">
         <v>4801</v>
       </c>
@@ -13160,7 +13162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6192F9-C838-49D9-B5C0-02F530C64B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E4A5D-ACE3-4CA1-BE3A-18D886621EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="S246" sqref="S246"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="N262" sqref="N262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12628,7 +12628,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P247" s="1"/>
+      <c r="P247" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q247">
         <v>4781</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E4A5D-ACE3-4CA1-BE3A-18D886621EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA0CEB-0AEE-4E8B-BD3B-F24F880FF3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="N262" sqref="N262"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="S244" sqref="S244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12586,7 +12586,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P246" s="1"/>
+      <c r="P246" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q246">
         <v>4761</v>
       </c>
@@ -13164,7 +13166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA0CEB-0AEE-4E8B-BD3B-F24F880FF3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC34A1-24A3-460B-AFE1-ABEE475D773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1815,7 +1815,7 @@
   <dimension ref="A2:R258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="S244" sqref="S244"/>
+      <selection activeCell="S242" sqref="S242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12494,7 +12494,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P244" s="1"/>
+      <c r="P244" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q244">
         <v>4721</v>
       </c>
@@ -13166,7 +13168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC34A1-24A3-460B-AFE1-ABEE475D773E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ED8C62-B7CA-4B6A-9106-38A357353466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1815,7 +1815,7 @@
   <dimension ref="A2:R258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="S242" sqref="S242"/>
+      <selection activeCell="S238" sqref="S238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12446,7 +12446,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P243" s="1"/>
+      <c r="P243" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q243">
         <v>4701</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ED8C62-B7CA-4B6A-9106-38A357353466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F49004-E454-464C-9DF8-17F1D8F28F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1815,7 +1815,7 @@
   <dimension ref="A2:R258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="S238" sqref="S238"/>
+      <selection activeCell="S239" sqref="S239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12360,7 +12360,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P241" s="1"/>
+      <c r="P241" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q241">
         <v>4661</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F49004-E454-464C-9DF8-17F1D8F28F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD5330E-E788-47C7-BC5E-D230CB6DB55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1815,7 +1815,7 @@
   <dimension ref="A2:R258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="S239" sqref="S239"/>
+      <selection activeCell="S238" sqref="S238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12318,7 +12318,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P240" s="1"/>
+      <c r="P240" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q240">
         <v>4641</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD5330E-E788-47C7-BC5E-D230CB6DB55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207ED174-B0AA-4937-8E8A-02B89EBA40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="S238" sqref="S238"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="P219" sqref="P219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12108,7 +12108,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P235" s="1"/>
+      <c r="P235" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q235">
         <v>4541</v>
       </c>
@@ -12150,7 +12152,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P236" s="1"/>
+      <c r="P236" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q236">
         <v>4561</v>
       </c>
@@ -12192,7 +12196,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P237" s="1"/>
+      <c r="P237" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q237">
         <v>4581</v>
       </c>
@@ -12234,7 +12240,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P238" s="1"/>
+      <c r="P238" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q238">
         <v>4601</v>
       </c>
@@ -12276,7 +12284,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P239" s="1"/>
+      <c r="P239" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q239">
         <v>4621</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levia\OneDrive\Dokumente\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207ED174-B0AA-4937-8E8A-02B89EBA40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FCBCB-06B7-4043-9EC9-4FC6C60823FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1448,7 +1448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1814,11 +1814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="P219" sqref="P219"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -7284,7 +7284,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P123" s="1"/>
+      <c r="P123" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q123">
         <v>2301</v>
       </c>
@@ -13185,10 +13187,10 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FCBCB-06B7-4043-9EC9-4FC6C60823FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE361B-F187-428B-878D-D83FACD139FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="T120" sqref="T120"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="P233" sqref="P233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12026,7 +12026,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P233" s="1"/>
+      <c r="P233" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q233">
         <v>4501</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACE361B-F187-428B-878D-D83FACD139FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD02DD-A1D2-47A8-A237-857D84F5DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="454">
   <si>
     <t>TAG</t>
   </si>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="P233" sqref="P233"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="P127" sqref="P127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7372,7 +7372,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P125" s="1"/>
+      <c r="P125" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q125">
         <v>2341</v>
       </c>
@@ -7414,7 +7416,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P126" s="1"/>
+      <c r="P126" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q126">
         <v>2361</v>
       </c>
@@ -13189,7 +13193,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD02DD-A1D2-47A8-A237-857D84F5DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17906EF-066B-4C35-8215-2BEEE35F5730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1397,6 +1397,9 @@
   </si>
   <si>
     <t>IOM</t>
+  </si>
+  <si>
+    <t>LIC</t>
   </si>
 </sst>
 </file>
@@ -1452,9 +1455,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1494,6 +1494,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1508,10 +1511,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R258" totalsRowShown="0">
-  <autoFilter ref="A2:R258" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O258">
-    <sortCondition ref="A2:A258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R259" totalsRowShown="0">
+  <autoFilter ref="A2:R259" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O259">
+    <sortCondition ref="A2:A259"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
@@ -1541,7 +1544,7 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="4"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
@@ -1812,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R258"/>
+  <dimension ref="A2:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="P127" sqref="P127"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="P129" sqref="P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7513,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P128" s="1"/>
+      <c r="P128" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q128">
         <v>2401</v>
       </c>
@@ -7775,10 +7780,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>28</v>
-      </c>
-      <c r="B135">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="F135">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7788,42 +7790,30 @@
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>0</v>
       </c>
-      <c r="H135">
-        <v>3</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
       <c r="L135">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" s="1"/>
-      <c r="Q135">
-        <v>2541</v>
-      </c>
-      <c r="R135">
-        <v>2560</v>
-      </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F136">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7834,35 +7824,38 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
       </c>
       <c r="L136">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M136">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136" s="1"/>
       <c r="Q136">
-        <v>2561</v>
+        <v>2541</v>
       </c>
       <c r="R136">
-        <v>2580</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -7876,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L137">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -7896,18 +7889,18 @@
       </c>
       <c r="P137" s="1"/>
       <c r="Q137">
-        <v>2581</v>
+        <v>2561</v>
       </c>
       <c r="R137">
-        <v>2600</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -7938,43 +7931,37 @@
       </c>
       <c r="P138" s="1"/>
       <c r="Q138">
-        <v>2601</v>
+        <v>2581</v>
       </c>
       <c r="R138">
-        <v>2620</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -7986,29 +7973,35 @@
       </c>
       <c r="P139" s="1"/>
       <c r="Q139">
-        <v>2621</v>
+        <v>2601</v>
       </c>
       <c r="R139">
-        <v>2640</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
       <c r="F140">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
       </c>
       <c r="L140">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8020,26 +8013,26 @@
       </c>
       <c r="N140">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140" s="1"/>
       <c r="Q140">
-        <v>2641</v>
+        <v>2621</v>
       </c>
       <c r="R140">
-        <v>2660</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8050,91 +8043,91 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L141">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M141">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141" s="1"/>
       <c r="Q141">
-        <v>2661</v>
+        <v>2641</v>
       </c>
       <c r="R141">
-        <v>2680</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>7</v>
       </c>
-      <c r="F142">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>8</v>
-      </c>
       <c r="L142">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O142">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" s="1"/>
       <c r="Q142">
-        <v>2681</v>
+        <v>2661</v>
       </c>
       <c r="R142">
-        <v>2700</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F143">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L143">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8146,41 +8139,41 @@
       </c>
       <c r="N143">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P143" s="1"/>
       <c r="Q143">
-        <v>2701</v>
+        <v>2681</v>
       </c>
       <c r="R143">
-        <v>2720</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B144">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F144">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G144">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L144">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M144">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -8188,68 +8181,68 @@
       </c>
       <c r="N144">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O144">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P144" s="1"/>
       <c r="Q144">
-        <v>2721</v>
+        <v>2701</v>
       </c>
       <c r="R144">
-        <v>2740</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F145">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G145">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L145">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M145">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O145">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P145" s="1"/>
       <c r="Q145">
-        <v>2741</v>
+        <v>2721</v>
       </c>
       <c r="R145">
-        <v>2760</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8280,18 +8273,18 @@
       </c>
       <c r="P146" s="1"/>
       <c r="Q146">
-        <v>2761</v>
+        <v>2741</v>
       </c>
       <c r="R146">
-        <v>2780</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8302,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8322,15 +8315,15 @@
       </c>
       <c r="P147" s="1"/>
       <c r="Q147">
-        <v>2781</v>
+        <v>2761</v>
       </c>
       <c r="R147">
-        <v>2800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -8364,18 +8357,18 @@
       </c>
       <c r="P148" s="1"/>
       <c r="Q148">
-        <v>2801</v>
+        <v>2781</v>
       </c>
       <c r="R148">
-        <v>2820</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8386,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L149">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8406,18 +8399,18 @@
       </c>
       <c r="P149" s="1"/>
       <c r="Q149">
-        <v>2821</v>
+        <v>2801</v>
       </c>
       <c r="R149">
-        <v>2840</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F150">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8428,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L150">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8446,22 +8439,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P150" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P150" s="1"/>
       <c r="Q150">
-        <v>2841</v>
+        <v>2821</v>
       </c>
       <c r="R150">
-        <v>2860</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F151">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8472,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L151">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8490,20 +8481,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P151" s="1"/>
+      <c r="P151" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q151">
-        <v>2861</v>
+        <v>2841</v>
       </c>
       <c r="R151">
-        <v>2880</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8514,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L152">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8532,41 +8525,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P152" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P152" s="1"/>
       <c r="Q152">
-        <v>2881</v>
+        <v>2861</v>
       </c>
       <c r="R152">
-        <v>2900</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="B153">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F153">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>3</v>
       </c>
-      <c r="G153">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>29</v>
-      </c>
       <c r="L153">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M153">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8576,39 +8567,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P153" s="1"/>
+      <c r="P153" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q153">
-        <v>2901</v>
+        <v>2881</v>
       </c>
       <c r="R153">
-        <v>2920</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B154">
+        <v>27</v>
+      </c>
+      <c r="F154">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F154">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G154">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L154">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M154">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8620,18 +8613,18 @@
       </c>
       <c r="P154" s="1"/>
       <c r="Q154">
-        <v>2921</v>
+        <v>2901</v>
       </c>
       <c r="R154">
-        <v>2940</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F155">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8642,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L155">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8662,18 +8655,18 @@
       </c>
       <c r="P155" s="1"/>
       <c r="Q155">
-        <v>2941</v>
+        <v>2921</v>
       </c>
       <c r="R155">
-        <v>2960</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F156">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8684,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L156">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8704,18 +8697,18 @@
       </c>
       <c r="P156" s="1"/>
       <c r="Q156">
-        <v>2961</v>
+        <v>2941</v>
       </c>
       <c r="R156">
-        <v>2980</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F157">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8726,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L157">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8746,15 +8739,15 @@
       </c>
       <c r="P157" s="1"/>
       <c r="Q157">
-        <v>2981</v>
+        <v>2961</v>
       </c>
       <c r="R157">
-        <v>3000</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -8768,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8788,18 +8781,18 @@
       </c>
       <c r="P158" s="1"/>
       <c r="Q158">
-        <v>3001</v>
+        <v>2981</v>
       </c>
       <c r="R158">
-        <v>3020</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8810,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L159">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8830,18 +8823,18 @@
       </c>
       <c r="P159" s="1"/>
       <c r="Q159">
-        <v>3021</v>
+        <v>3001</v>
       </c>
       <c r="R159">
-        <v>3040</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F160">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8852,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L160">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8872,18 +8865,18 @@
       </c>
       <c r="P160" s="1"/>
       <c r="Q160">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="R160">
-        <v>3060</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F161">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8894,50 +8887,50 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M161">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N161">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O161">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P161" s="1"/>
       <c r="Q161">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="R161">
-        <v>3080</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H162">
         <v>9</v>
       </c>
-      <c r="F162">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G162">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>12</v>
-      </c>
       <c r="L162">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>2</v>
@@ -8948,45 +8941,45 @@
       </c>
       <c r="N162">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" s="1"/>
       <c r="Q162">
-        <v>3081</v>
+        <v>3061</v>
       </c>
       <c r="R162">
-        <v>3100</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="B163">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F163">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L163">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8998,43 +8991,37 @@
       </c>
       <c r="P163" s="1"/>
       <c r="Q163">
-        <v>3101</v>
+        <v>3081</v>
       </c>
       <c r="R163">
-        <v>3120</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B164">
-        <v>3</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F164">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
-        <v>3</v>
-      </c>
-      <c r="J164">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L164">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N164">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9046,34 +9033,34 @@
       </c>
       <c r="P164" s="1"/>
       <c r="Q164">
-        <v>3121</v>
+        <v>3101</v>
       </c>
       <c r="R164">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B165">
-        <v>10</v>
-      </c>
-      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="D165">
         <v>1</v>
       </c>
       <c r="F165">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H165">
         <v>3</v>
       </c>
-      <c r="G165">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>6</v>
-      </c>
-      <c r="K165">
+      <c r="J165">
         <v>1</v>
       </c>
       <c r="L165">
@@ -9086,7 +9073,7 @@
       </c>
       <c r="N165">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O165">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9094,29 +9081,35 @@
       </c>
       <c r="P165" s="1"/>
       <c r="Q165">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="R165">
-        <v>3160</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
       </c>
       <c r="F166">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G166">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
       </c>
       <c r="L166">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9128,23 +9121,23 @@
       </c>
       <c r="N166">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O166">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P166" s="1"/>
       <c r="Q166">
-        <v>3161</v>
+        <v>3141</v>
       </c>
       <c r="R166">
-        <v>3180</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -9158,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L167">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9178,18 +9171,18 @@
       </c>
       <c r="P167" s="1"/>
       <c r="Q167">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="R167">
-        <v>3200</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9200,38 +9193,38 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" s="1"/>
       <c r="Q168">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="R168">
-        <v>3220</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9242,55 +9235,53 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N169">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O169">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P169" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P169" s="1"/>
       <c r="Q169">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="R169">
-        <v>3240</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B170">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F170">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M170">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9298,47 +9289,47 @@
       </c>
       <c r="N170">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q170">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="R170">
-        <v>3260</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F171">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G171">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M171">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9348,20 +9339,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P171" s="1"/>
+      <c r="P171" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q171">
-        <v>3261</v>
+        <v>3241</v>
       </c>
       <c r="R171">
-        <v>3280</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9372,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9392,15 +9385,15 @@
       </c>
       <c r="P172" s="1"/>
       <c r="Q172">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="R172">
-        <v>3300</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -9414,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9434,18 +9427,18 @@
       </c>
       <c r="P173" s="1"/>
       <c r="Q173">
-        <v>3301</v>
+        <v>3281</v>
       </c>
       <c r="R173">
-        <v>3320</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F174">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9456,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9476,18 +9469,18 @@
       </c>
       <c r="P174" s="1"/>
       <c r="Q174">
-        <v>3321</v>
+        <v>3301</v>
       </c>
       <c r="R174">
-        <v>3340</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9498,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9518,129 +9511,129 @@
       </c>
       <c r="P175" s="1"/>
       <c r="Q175">
-        <v>3341</v>
+        <v>3321</v>
       </c>
       <c r="R175">
-        <v>3360</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B176">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>82</v>
-      </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="J176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M176">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N176">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O176">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P176" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P176" s="1"/>
       <c r="Q176">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="R176">
-        <v>3380</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B177">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F177">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
       </c>
       <c r="L177">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N177">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O177">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P177" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q177">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="R177">
-        <v>3400</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F178">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L178">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N178">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9652,15 +9645,15 @@
       </c>
       <c r="P178" s="1"/>
       <c r="Q178">
-        <v>3401</v>
+        <v>3381</v>
       </c>
       <c r="R178">
-        <v>3420</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -9694,18 +9687,18 @@
       </c>
       <c r="P179" s="1"/>
       <c r="Q179">
-        <v>3421</v>
+        <v>3401</v>
       </c>
       <c r="R179">
-        <v>3440</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F180">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9716,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L180">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9736,43 +9729,37 @@
       </c>
       <c r="P180" s="1"/>
       <c r="Q180">
-        <v>3441</v>
+        <v>3421</v>
       </c>
       <c r="R180">
-        <v>3460</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B181">
-        <v>18</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>18</v>
-      </c>
-      <c r="K181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L181">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N181">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9784,39 +9771,39 @@
       </c>
       <c r="P181" s="1"/>
       <c r="Q181">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="R181">
-        <v>3480</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B182">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G182">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K182">
         <v>1</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M182">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9832,18 +9819,21 @@
       </c>
       <c r="P182" s="1"/>
       <c r="Q182">
-        <v>3481</v>
+        <v>3461</v>
       </c>
       <c r="R182">
-        <v>3500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B183">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9854,7 +9844,10 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9874,37 +9867,37 @@
       </c>
       <c r="P183" s="1"/>
       <c r="Q183">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="R183">
-        <v>3520</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F184">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L184">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9916,18 +9909,18 @@
       </c>
       <c r="P184" s="1"/>
       <c r="Q184">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="R184">
-        <v>3540</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F185">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9938,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L185">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9956,22 +9949,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P185" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P185" s="1"/>
       <c r="Q185">
-        <v>3541</v>
+        <v>3521</v>
       </c>
       <c r="R185">
-        <v>3560</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F186">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9982,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L186">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10000,17 +9991,19 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P186" s="1"/>
+      <c r="P186" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q186">
-        <v>3561</v>
+        <v>3541</v>
       </c>
       <c r="R186">
-        <v>3580</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -10044,44 +10037,41 @@
       </c>
       <c r="P187" s="1"/>
       <c r="Q187">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="R187">
-        <v>3600</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="B188">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>70</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M188">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N188">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O188">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10089,41 +10079,44 @@
       </c>
       <c r="P188" s="1"/>
       <c r="Q188">
-        <v>3601</v>
+        <v>3581</v>
       </c>
       <c r="R188">
-        <v>3620</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="B189">
+        <v>65</v>
+      </c>
+      <c r="F189">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="G189">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>70</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>7</v>
       </c>
-      <c r="F189">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="L189">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N189">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O189">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10131,18 +10124,18 @@
       </c>
       <c r="P189" s="1"/>
       <c r="Q189">
-        <v>3621</v>
+        <v>3601</v>
       </c>
       <c r="R189">
-        <v>3640</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F190">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10153,52 +10146,49 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L190">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O190">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P190" s="1"/>
       <c r="Q190">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="R190">
-        <v>3660</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="B191">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>11</v>
-      </c>
-      <c r="K191">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L191">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10210,26 +10200,26 @@
       </c>
       <c r="N191">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O191">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P191" s="1"/>
       <c r="Q191">
-        <v>3661</v>
+        <v>3641</v>
       </c>
       <c r="R191">
-        <v>3680</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="B192">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10240,11 +10230,14 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10252,7 +10245,7 @@
       </c>
       <c r="N192">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10260,18 +10253,18 @@
       </c>
       <c r="P192" s="1"/>
       <c r="Q192">
-        <v>3681</v>
+        <v>3661</v>
       </c>
       <c r="R192">
-        <v>3700</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F193">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10282,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10302,37 +10295,37 @@
       </c>
       <c r="P193" s="1"/>
       <c r="Q193">
-        <v>3701</v>
+        <v>3681</v>
       </c>
       <c r="R193">
-        <v>3720</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F194">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L194">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10344,113 +10337,113 @@
       </c>
       <c r="P194" s="1"/>
       <c r="Q194">
-        <v>3721</v>
+        <v>3701</v>
       </c>
       <c r="R194">
-        <v>3740</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B195">
-        <v>21</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
         <v>1</v>
       </c>
       <c r="F195">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>25</v>
-      </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-      <c r="J195">
         <v>1</v>
       </c>
       <c r="L195">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N195">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O195">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P195" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P195" s="1"/>
       <c r="Q195">
-        <v>3741</v>
+        <v>3721</v>
       </c>
       <c r="R195">
-        <v>3760</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
       </c>
       <c r="F196">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
       </c>
       <c r="L196">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N196">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P196" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q196">
-        <v>3761</v>
+        <v>3741</v>
       </c>
       <c r="R196">
-        <v>3780</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -10484,15 +10477,15 @@
       </c>
       <c r="P197" s="1"/>
       <c r="Q197">
-        <v>3781</v>
+        <v>3761</v>
       </c>
       <c r="R197">
-        <v>3800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -10506,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10526,113 +10519,113 @@
       </c>
       <c r="P198" s="1"/>
       <c r="Q198">
-        <v>3801</v>
+        <v>3781</v>
       </c>
       <c r="R198">
-        <v>3820</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H199">
         <v>5</v>
       </c>
-      <c r="F199">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>11</v>
-      </c>
       <c r="L199">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M199">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O199">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P199" s="1"/>
       <c r="Q199">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="R199">
-        <v>3840</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B200">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F200">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O200">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200">
-        <v>3841</v>
+        <v>3821</v>
       </c>
       <c r="R200">
-        <v>3860</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F201">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10644,26 +10637,26 @@
       </c>
       <c r="N201">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O201">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P201" s="1"/>
       <c r="Q201">
-        <v>3861</v>
+        <v>3841</v>
       </c>
       <c r="R201">
-        <v>3880</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10674,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10694,18 +10687,18 @@
       </c>
       <c r="P202" s="1"/>
       <c r="Q202">
-        <v>3881</v>
+        <v>3861</v>
       </c>
       <c r="R202">
-        <v>3900</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10716,49 +10709,49 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N203">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O203">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203">
-        <v>3901</v>
+        <v>3881</v>
       </c>
       <c r="R203">
-        <v>3920</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10770,26 +10763,26 @@
       </c>
       <c r="N204">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O204">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P204" s="1"/>
       <c r="Q204">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="R204">
-        <v>3940</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="B205">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10800,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L205">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10820,37 +10813,37 @@
       </c>
       <c r="P205" s="1"/>
       <c r="Q205">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="R205">
-        <v>3960</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G206">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L206">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10862,18 +10855,18 @@
       </c>
       <c r="P206" s="1"/>
       <c r="Q206">
-        <v>3961</v>
+        <v>3941</v>
       </c>
       <c r="R206">
-        <v>3980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10904,18 +10897,18 @@
       </c>
       <c r="P207" s="1"/>
       <c r="Q207">
-        <v>3981</v>
+        <v>3961</v>
       </c>
       <c r="R207">
-        <v>4000</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10928,39 +10921,36 @@
       <c r="H208">
         <v>3</v>
       </c>
-      <c r="K208">
-        <v>1</v>
-      </c>
       <c r="L208">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N208">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O208">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P208" s="1"/>
       <c r="Q208">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R208">
-        <v>4020</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10971,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K209">
         <v>1</v>
@@ -10994,29 +10984,32 @@
       </c>
       <c r="P209" s="1"/>
       <c r="Q209">
-        <v>4021</v>
+        <v>4001</v>
       </c>
       <c r="R209">
-        <v>4040</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
       </c>
       <c r="L210">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11028,45 +11021,45 @@
       </c>
       <c r="N210">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O210">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P210" s="1"/>
       <c r="Q210">
-        <v>4041</v>
+        <v>4021</v>
       </c>
       <c r="R210">
-        <v>4060</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F211">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L211">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N211">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11078,18 +11071,18 @@
       </c>
       <c r="P211" s="1"/>
       <c r="Q211">
-        <v>4061</v>
+        <v>4041</v>
       </c>
       <c r="R211">
-        <v>4080</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11120,29 +11113,29 @@
       </c>
       <c r="P212" s="1"/>
       <c r="Q212">
-        <v>4081</v>
+        <v>4061</v>
       </c>
       <c r="R212">
-        <v>4100</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L213">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11154,37 +11147,37 @@
       </c>
       <c r="N213">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O213">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P213" s="1"/>
       <c r="Q213">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="R213">
-        <v>4120</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11196,147 +11189,147 @@
       </c>
       <c r="N214">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O214">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P214" s="1"/>
       <c r="Q214">
-        <v>4121</v>
+        <v>4101</v>
       </c>
       <c r="R214">
-        <v>4140</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="B215">
-        <v>58</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>68</v>
-      </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-      <c r="J215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N215">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O215">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P215" s="1"/>
       <c r="Q215">
-        <v>4141</v>
+        <v>4121</v>
       </c>
       <c r="R215">
-        <v>4160</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B216">
-        <v>20</v>
-      </c>
-      <c r="E216">
+        <v>58</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
         <v>1</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>7</v>
+      </c>
+      <c r="G216">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>68</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>8</v>
+      </c>
+      <c r="M216">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>3</v>
       </c>
-      <c r="G216">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>16</v>
-      </c>
-      <c r="K216">
-        <v>1</v>
-      </c>
-      <c r="L216">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M216">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
       <c r="N216">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P216" s="1"/>
       <c r="Q216">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="R216">
-        <v>4180</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
       </c>
       <c r="L217">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N217">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11348,37 +11341,37 @@
       </c>
       <c r="P217" s="1"/>
       <c r="Q217">
-        <v>4181</v>
+        <v>4161</v>
       </c>
       <c r="R217">
-        <v>4200</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="B218">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F218">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L218">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N218">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11390,18 +11383,18 @@
       </c>
       <c r="P218" s="1"/>
       <c r="Q218">
-        <v>4201</v>
+        <v>4181</v>
       </c>
       <c r="R218">
-        <v>4220</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B219">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F219">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11412,11 +11405,11 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L219">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11424,7 +11417,7 @@
       </c>
       <c r="N219">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O219">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11432,41 +11425,41 @@
       </c>
       <c r="P219" s="1"/>
       <c r="Q219">
-        <v>4221</v>
+        <v>4201</v>
       </c>
       <c r="R219">
-        <v>4240</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F220">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G220">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L220">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M220">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O220">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11474,15 +11467,15 @@
       </c>
       <c r="P220" s="1"/>
       <c r="Q220">
-        <v>4241</v>
+        <v>4221</v>
       </c>
       <c r="R220">
-        <v>4260</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -11516,15 +11509,15 @@
       </c>
       <c r="P221" s="1"/>
       <c r="Q221">
-        <v>4261</v>
+        <v>4241</v>
       </c>
       <c r="R221">
-        <v>4280</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -11558,15 +11551,15 @@
       </c>
       <c r="P222" s="1"/>
       <c r="Q222">
-        <v>4281</v>
+        <v>4261</v>
       </c>
       <c r="R222">
-        <v>4300</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -11600,41 +11593,41 @@
       </c>
       <c r="P223" s="1"/>
       <c r="Q223">
-        <v>4301</v>
+        <v>4281</v>
       </c>
       <c r="R223">
-        <v>4320</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L224">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O224">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11642,41 +11635,41 @@
       </c>
       <c r="P224" s="1"/>
       <c r="Q224">
-        <v>4321</v>
+        <v>4301</v>
       </c>
       <c r="R224">
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F225">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L225">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O225">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11684,15 +11677,15 @@
       </c>
       <c r="P225" s="1"/>
       <c r="Q225">
-        <v>4341</v>
+        <v>4321</v>
       </c>
       <c r="R225">
-        <v>4360</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -11726,37 +11719,37 @@
       </c>
       <c r="P226" s="1"/>
       <c r="Q226">
-        <v>4361</v>
+        <v>4341</v>
       </c>
       <c r="R226">
-        <v>4380</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L227">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M227">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N227">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11766,22 +11759,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P227" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P227" s="1"/>
       <c r="Q227">
-        <v>4381</v>
+        <v>4361</v>
       </c>
       <c r="R227">
-        <v>4400</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B228">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11792,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11810,39 +11801,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P228" s="1"/>
+      <c r="P228" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q228">
-        <v>4401</v>
+        <v>4381</v>
       </c>
       <c r="R228">
-        <v>4420</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11852,125 +11845,127 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P229" s="1"/>
+      <c r="P229" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q229">
-        <v>4421</v>
+        <v>4401</v>
       </c>
       <c r="R229">
-        <v>4440</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="B230">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N230">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O230">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P230" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P230" s="1"/>
       <c r="Q230">
-        <v>4441</v>
+        <v>4421</v>
       </c>
       <c r="R230">
-        <v>4460</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N231">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O231">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P231" s="1"/>
+      <c r="P231" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q231">
-        <v>4461</v>
+        <v>4441</v>
       </c>
       <c r="R231">
-        <v>4480</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B232">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11980,25 +11975,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P232" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P232" s="1"/>
       <c r="Q232">
-        <v>4481</v>
+        <v>4461</v>
       </c>
       <c r="R232">
-        <v>4500</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B233">
-        <v>2</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12009,10 +11999,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>4</v>
-      </c>
-      <c r="J233">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12034,18 +12021,21 @@
         <v>269</v>
       </c>
       <c r="Q233">
-        <v>4501</v>
+        <v>4481</v>
       </c>
       <c r="R233">
-        <v>4520</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="B234">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12056,11 +12046,14 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12068,67 +12061,67 @@
       </c>
       <c r="N234">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O234">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P234" s="1"/>
+      <c r="P234" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q234">
-        <v>4521</v>
+        <v>4501</v>
       </c>
       <c r="R234">
-        <v>4540</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G235">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M235">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N235">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O235">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P235" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="P235" s="1"/>
       <c r="Q235">
-        <v>4541</v>
+        <v>4521</v>
       </c>
       <c r="R235">
-        <v>4560</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -12142,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L236">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12164,18 +12157,18 @@
         <v>269</v>
       </c>
       <c r="Q236">
-        <v>4561</v>
+        <v>4541</v>
       </c>
       <c r="R236">
-        <v>4580</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B237">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F237">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12186,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12208,18 +12201,18 @@
         <v>269</v>
       </c>
       <c r="Q237">
-        <v>4581</v>
+        <v>4561</v>
       </c>
       <c r="R237">
-        <v>4600</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12230,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12252,18 +12245,18 @@
         <v>269</v>
       </c>
       <c r="Q238">
-        <v>4601</v>
+        <v>4581</v>
       </c>
       <c r="R238">
-        <v>4620</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12274,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12296,18 +12289,18 @@
         <v>269</v>
       </c>
       <c r="Q239">
-        <v>4621</v>
+        <v>4601</v>
       </c>
       <c r="R239">
-        <v>4640</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12318,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L240">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12340,18 +12333,18 @@
         <v>269</v>
       </c>
       <c r="Q240">
-        <v>4641</v>
+        <v>4621</v>
       </c>
       <c r="R240">
-        <v>4660</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F241">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12362,37 +12355,37 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M241">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N241">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O241">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P241" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q241">
-        <v>4661</v>
+        <v>4641</v>
       </c>
       <c r="R241">
-        <v>4680</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -12406,40 +12399,40 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L242">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N242">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O242">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P242" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q242">
-        <v>4681</v>
+        <v>4661</v>
       </c>
       <c r="R242">
-        <v>4700</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B243">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12472,43 +12465,37 @@
         <v>269</v>
       </c>
       <c r="Q243">
-        <v>4701</v>
+        <v>4681</v>
       </c>
       <c r="R243">
-        <v>4720</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B244">
-        <v>49</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H244">
         <v>5</v>
       </c>
-      <c r="G244">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H244">
-        <v>45</v>
-      </c>
-      <c r="K244">
-        <v>1</v>
-      </c>
       <c r="L244">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M244">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N244">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12522,43 +12509,43 @@
         <v>269</v>
       </c>
       <c r="Q244">
-        <v>4721</v>
+        <v>4701</v>
       </c>
       <c r="R244">
-        <v>4740</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B245">
-        <v>7</v>
-      </c>
-      <c r="D245">
+        <v>49</v>
+      </c>
+      <c r="E245">
         <v>1</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245">
+        <v>45</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="J245">
-        <v>1</v>
-      </c>
-      <c r="L245">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N245">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12572,18 +12559,21 @@
         <v>269</v>
       </c>
       <c r="Q245">
-        <v>4741</v>
+        <v>4721</v>
       </c>
       <c r="R245">
-        <v>4760</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B246">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12594,128 +12584,131 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
       </c>
       <c r="L246">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N246">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O246">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P246" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q246">
-        <v>4761</v>
+        <v>4741</v>
       </c>
       <c r="R246">
-        <v>4780</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="B247">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H247">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N247">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O247">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P247" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q247">
-        <v>4781</v>
+        <v>4761</v>
       </c>
       <c r="R247">
-        <v>4800</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="B248">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N248">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O248">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P248" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q248">
-        <v>4801</v>
+        <v>4781</v>
       </c>
       <c r="R248">
-        <v>4820</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12726,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12748,118 +12741,118 @@
         <v>269</v>
       </c>
       <c r="Q249">
-        <v>4821</v>
+        <v>4801</v>
       </c>
       <c r="R249">
-        <v>4840</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B250">
-        <v>30</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H250">
         <v>5</v>
       </c>
-      <c r="G250">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H250">
-        <v>86</v>
-      </c>
-      <c r="I250">
-        <v>1</v>
-      </c>
-      <c r="K250">
-        <v>1</v>
-      </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N250">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O250">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P250" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q250">
-        <v>4841</v>
+        <v>4821</v>
       </c>
       <c r="R250">
-        <v>4860</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B251">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N251">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O251">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P251" s="1" t="s">
         <v>269</v>
       </c>
       <c r="Q251">
-        <v>4861</v>
+        <v>4841</v>
       </c>
       <c r="R251">
-        <v>4880</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12870,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12892,18 +12885,18 @@
         <v>269</v>
       </c>
       <c r="Q252">
-        <v>4881</v>
+        <v>4861</v>
       </c>
       <c r="R252">
-        <v>4900</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B253">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12914,7 +12907,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12936,37 +12929,37 @@
         <v>269</v>
       </c>
       <c r="Q253">
-        <v>4901</v>
+        <v>4881</v>
       </c>
       <c r="R253">
-        <v>4920</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F254">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12980,37 +12973,37 @@
         <v>269</v>
       </c>
       <c r="Q254">
-        <v>4921</v>
+        <v>4901</v>
       </c>
       <c r="R254">
-        <v>4940</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B255">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F255">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L255">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N255">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -13024,29 +13017,29 @@
         <v>269</v>
       </c>
       <c r="Q255">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="R255">
-        <v>4960</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B256">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F256">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H256">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L256">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13058,7 +13051,7 @@
       </c>
       <c r="N256">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O256">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13068,41 +13061,41 @@
         <v>269</v>
       </c>
       <c r="Q256">
-        <v>4961</v>
+        <v>4941</v>
       </c>
       <c r="R256">
-        <v>4980</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F257">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G257">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L257">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M257">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N257">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O257">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13112,71 +13105,115 @@
         <v>269</v>
       </c>
       <c r="Q257">
-        <v>4981</v>
+        <v>4961</v>
       </c>
       <c r="R257">
-        <v>5000</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>211</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="F258">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>4</v>
+      </c>
+      <c r="L258">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q258">
+        <v>4981</v>
+      </c>
+      <c r="R258">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>212</v>
       </c>
-      <c r="B258">
+      <c r="B259">
         <v>7</v>
       </c>
-      <c r="F258">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G258">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H258">
+      <c r="F259">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H259">
         <v>7</v>
       </c>
-      <c r="L258">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M258">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N258">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O258">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P258" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q258">
+      <c r="L259">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q259">
         <v>5001</v>
       </c>
-      <c r="R258">
+      <c r="R259">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O258">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="N3:O259">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P258">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P3:P259">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13192,8 +13229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17906EF-066B-4C35-8215-2BEEE35F5730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A785CD-5946-489A-8D5E-FBE421C03174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1455,6 +1455,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1493,9 +1496,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1544,7 +1544,7 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM">
       <calculatedColumnFormula>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
@@ -1818,7 +1818,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129"/>
+      <selection activeCell="P131" sqref="P131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,7 +7557,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P129" s="1"/>
+      <c r="P129" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q129">
         <v>2421</v>
       </c>
@@ -7602,7 +7604,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P130" s="1"/>
+      <c r="P130" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q130">
         <v>2441</v>
       </c>
@@ -13202,18 +13206,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N3:O259">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P259">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13230,7 +13234,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A785CD-5946-489A-8D5E-FBE421C03174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F0F83-4FA8-4C21-BEFF-A8972486FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1818,7 +1818,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="P131" sqref="P131"/>
+      <selection activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7648,7 +7648,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P131" s="1"/>
+      <c r="P131" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q131">
         <v>2461</v>
       </c>
@@ -13234,7 +13236,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F0F83-4FA8-4C21-BEFF-A8972486FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD35FCB-BAD2-4367-BCD2-5E8BB37940AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1818,7 +1818,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="P132" sqref="P132"/>
+      <selection activeCell="P133" sqref="P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,7 +7692,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P132" s="1"/>
+      <c r="P132" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q132">
         <v>2481</v>
       </c>
@@ -13235,8 +13237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD35FCB-BAD2-4367-BCD2-5E8BB37940AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F3B12-C6F0-4775-A3AF-9772283DCE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1818,7 +1818,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="P133" sqref="P133"/>
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,7 +7736,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P133" s="1"/>
+      <c r="P133" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="Q133">
         <v>2501</v>
       </c>
@@ -13237,8 +13239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B2064-9C5A-458A-9751-98D23AFB1FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92355B0D-376C-4EC1-8119-07950960447F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1444,7 +1447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1596,9 +1599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1636,7 +1639,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1742,7 +1745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1894,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P135" sqref="P135"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P137" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7895,7 +7898,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P135" s="3"/>
+      <c r="P135" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -7934,7 +7939,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P136" s="3"/>
+      <c r="P136" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q136">
         <v>2541</v>
       </c>
@@ -13320,7 +13327,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92355B0D-376C-4EC1-8119-07950960447F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51593204-0376-450A-8421-3346DD18728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -7983,7 +7983,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P137" s="3"/>
+      <c r="P137" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q137">
         <v>2561</v>
       </c>
@@ -13326,8 +13328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51593204-0376-450A-8421-3346DD18728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E12E2A-B7F7-4DA8-ACF7-0F6B36497899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P137" sqref="P137"/>
+      <selection activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8027,7 +8027,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P138" s="3"/>
+      <c r="P138" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q138">
         <v>2581</v>
       </c>
@@ -13329,7 +13331,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E12E2A-B7F7-4DA8-ACF7-0F6B36497899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C842D0-AABD-4977-84CA-B8441DE78016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P139" sqref="P139"/>
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8071,7 +8071,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P139" s="3"/>
+      <c r="P139" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q139">
         <v>2601</v>
       </c>
@@ -13330,8 +13332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C842D0-AABD-4977-84CA-B8441DE78016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2949-E5F4-4B20-BCA1-A66D1E857EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P140" sqref="P140"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P141" sqref="P141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8121,7 +8121,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P140" s="3"/>
+      <c r="P140" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q140">
         <v>2621</v>
       </c>
@@ -13333,7 +13335,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2949-E5F4-4B20-BCA1-A66D1E857EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28BF64-C9DB-4B33-805D-59DCA3A78F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P141" sqref="P141"/>
+      <selection activeCell="P142" sqref="P142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8165,7 +8165,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P141" s="3"/>
+      <c r="P141" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q141">
         <v>2641</v>
       </c>
@@ -13335,7 +13337,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28BF64-C9DB-4B33-805D-59DCA3A78F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90134769-4077-402F-B8C1-358E360E65C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P142" sqref="P142"/>
+      <selection activeCell="P143" sqref="P143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,7 +8209,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P142" s="3"/>
+      <c r="P142" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q142">
         <v>2661</v>
       </c>
@@ -13337,7 +13339,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90134769-4077-402F-B8C1-358E360E65C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8061DEE-F028-42F6-BF55-4DFDB7E7EFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P143" sqref="P143"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P144" sqref="P144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8253,7 +8253,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P143" s="3"/>
+      <c r="P143" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q143">
         <v>2681</v>
       </c>
@@ -13339,7 +13341,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8061DEE-F028-42F6-BF55-4DFDB7E7EFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AE148-D21B-434E-95DB-13C2815375CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P144" sqref="P144"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P167" sqref="P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8339,7 +8339,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P145" s="3"/>
+      <c r="P145" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q145">
         <v>2721</v>
       </c>
@@ -8721,7 +8723,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P154" s="3"/>
+      <c r="P154" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q154">
         <v>2901</v>
       </c>
@@ -9099,7 +9103,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P163" s="3"/>
+      <c r="P163" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q163">
         <v>3081</v>
       </c>
@@ -9363,7 +9369,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P169" s="3"/>
+      <c r="P169" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q169">
         <v>3201</v>
       </c>
@@ -10361,7 +10369,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P192" s="3"/>
+      <c r="P192" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q192">
         <v>3661</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AE148-D21B-434E-95DB-13C2815375CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2059F02-3EE3-4A73-91BC-F97D1590F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P167" sqref="P167"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P146" sqref="P146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8297,7 +8297,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P144" s="3"/>
+      <c r="P144" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q144">
         <v>2701</v>
       </c>
@@ -13350,8 +13352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2059F02-3EE3-4A73-91BC-F97D1590F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90808CD0-A257-417B-A631-514687253E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="455">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P146" sqref="P146"/>
+      <selection activeCell="P147" sqref="P147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8385,7 +8385,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P146" s="3"/>
+      <c r="P146" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q146">
         <v>2741</v>
       </c>
@@ -13353,7 +13355,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90808CD0-A257-417B-A631-514687253E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C18D45C-EFAB-4085-A996-4AED0E957A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1400,6 +1400,9 @@
   </si>
   <si>
     <t>guerrilla_officer</t>
+  </si>
+  <si>
+    <t>MNC</t>
   </si>
 </sst>
 </file>
@@ -1572,8 +1575,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R259" totalsRowShown="0">
-  <autoFilter ref="A2:R259" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R260" totalsRowShown="0">
+  <autoFilter ref="A2:R260" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
@@ -1895,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R259"/>
+  <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P147" sqref="P147"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P148" sqref="P148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8429,7 +8432,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P147" s="3"/>
+      <c r="P147" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q147">
         <v>2761</v>
       </c>
@@ -8563,56 +8568,18 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>167</v>
-      </c>
-      <c r="B151">
-        <v>4</v>
-      </c>
-      <c r="F151">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>4</v>
-      </c>
-      <c r="L151">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M151">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N151" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O151" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P151" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q151">
-        <v>2841</v>
-      </c>
-      <c r="R151">
-        <v>2860</v>
-      </c>
+    <row r="151" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F152">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8623,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L152">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8641,20 +8608,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P152" s="3"/>
+      <c r="P152" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q152">
-        <v>2861</v>
+        <v>2841</v>
       </c>
       <c r="R152">
-        <v>2880</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8665,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8683,41 +8652,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P153" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P153" s="3"/>
       <c r="Q153">
-        <v>2881</v>
+        <v>2861</v>
       </c>
       <c r="R153">
-        <v>2900</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B154">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F154">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>3</v>
       </c>
-      <c r="G154">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>29</v>
-      </c>
       <c r="L154">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M154">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8731,37 +8698,37 @@
         <v>19</v>
       </c>
       <c r="Q154">
-        <v>2901</v>
+        <v>2881</v>
       </c>
       <c r="R154">
-        <v>2920</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155">
+        <v>27</v>
+      </c>
+      <c r="F155">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
         <v>3</v>
       </c>
-      <c r="F155">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
       <c r="G155">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L155">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M155">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -8771,20 +8738,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P155" s="3"/>
+      <c r="P155" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q155">
-        <v>2921</v>
+        <v>2901</v>
       </c>
       <c r="R155">
-        <v>2940</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F156">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8795,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L156">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8815,18 +8784,18 @@
       </c>
       <c r="P156" s="3"/>
       <c r="Q156">
-        <v>2941</v>
+        <v>2921</v>
       </c>
       <c r="R156">
-        <v>2960</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8837,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L157">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8857,18 +8826,18 @@
       </c>
       <c r="P157" s="3"/>
       <c r="Q157">
-        <v>2961</v>
+        <v>2941</v>
       </c>
       <c r="R157">
-        <v>2980</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F158">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8879,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L158">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8899,15 +8868,15 @@
       </c>
       <c r="P158" s="3"/>
       <c r="Q158">
-        <v>2981</v>
+        <v>2961</v>
       </c>
       <c r="R158">
-        <v>3000</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -8921,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L159">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8941,18 +8910,18 @@
       </c>
       <c r="P159" s="3"/>
       <c r="Q159">
-        <v>3001</v>
+        <v>2981</v>
       </c>
       <c r="R159">
-        <v>3020</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -8963,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L160">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8983,18 +8952,18 @@
       </c>
       <c r="P160" s="3"/>
       <c r="Q160">
-        <v>3021</v>
+        <v>3001</v>
       </c>
       <c r="R160">
-        <v>3040</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F161">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9005,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9025,18 +8994,18 @@
       </c>
       <c r="P161" s="3"/>
       <c r="Q161">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="R161">
-        <v>3060</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F162">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9047,50 +9016,50 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L162">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M162">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O162" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="R162">
-        <v>3080</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H163">
         <v>9</v>
       </c>
-      <c r="F163">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G163">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>12</v>
-      </c>
       <c r="L163">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>2</v>
@@ -9101,47 +9070,45 @@
       </c>
       <c r="N163" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P163" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P163" s="3"/>
       <c r="Q163">
-        <v>3081</v>
+        <v>3061</v>
       </c>
       <c r="R163">
-        <v>3100</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B164">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F164">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L164">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N164" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9151,45 +9118,41 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P164" s="3"/>
+      <c r="P164" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q164">
-        <v>3101</v>
+        <v>3081</v>
       </c>
       <c r="R164">
-        <v>3120</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B165">
-        <v>3</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F165">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165">
-        <v>3</v>
-      </c>
-      <c r="J165">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="L165">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N165" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9201,34 +9164,34 @@
       </c>
       <c r="P165" s="3"/>
       <c r="Q165">
-        <v>3121</v>
+        <v>3101</v>
       </c>
       <c r="R165">
-        <v>3140</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B166">
-        <v>10</v>
-      </c>
-      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="D166">
         <v>1</v>
       </c>
       <c r="F166">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H166">
         <v>3</v>
       </c>
-      <c r="G166">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>6</v>
-      </c>
-      <c r="K166">
+      <c r="J166">
         <v>1</v>
       </c>
       <c r="L166">
@@ -9241,7 +9204,7 @@
       </c>
       <c r="N166" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O166" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9249,29 +9212,35 @@
       </c>
       <c r="P166" s="3"/>
       <c r="Q166">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="R166">
-        <v>3160</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
       </c>
       <c r="F167">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
       </c>
       <c r="L167">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9283,23 +9252,23 @@
       </c>
       <c r="N167" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O167" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P167" s="3"/>
       <c r="Q167">
-        <v>3161</v>
+        <v>3141</v>
       </c>
       <c r="R167">
-        <v>3180</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -9313,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9333,18 +9302,18 @@
       </c>
       <c r="P168" s="3"/>
       <c r="Q168">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="R168">
-        <v>3200</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9355,40 +9324,38 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P169" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P169" s="3"/>
       <c r="Q169">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="R169">
-        <v>3220</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F170">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9399,55 +9366,55 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O170" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q170">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="R170">
-        <v>3240</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B171">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F171">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M171">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9455,47 +9422,47 @@
       </c>
       <c r="N171" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q171">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="R171">
-        <v>3260</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F172">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G172">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M172">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N172" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9505,20 +9472,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P172" s="3"/>
+      <c r="P172" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q172">
-        <v>3261</v>
+        <v>3241</v>
       </c>
       <c r="R172">
-        <v>3280</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F173">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9529,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9549,15 +9518,15 @@
       </c>
       <c r="P173" s="3"/>
       <c r="Q173">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="R173">
-        <v>3300</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -9571,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9591,18 +9560,18 @@
       </c>
       <c r="P174" s="3"/>
       <c r="Q174">
-        <v>3301</v>
+        <v>3281</v>
       </c>
       <c r="R174">
-        <v>3320</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9613,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9633,18 +9602,18 @@
       </c>
       <c r="P175" s="3"/>
       <c r="Q175">
-        <v>3321</v>
+        <v>3301</v>
       </c>
       <c r="R175">
-        <v>3340</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F176">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9655,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L176">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9675,129 +9644,129 @@
       </c>
       <c r="P176" s="3"/>
       <c r="Q176">
-        <v>3341</v>
+        <v>3321</v>
       </c>
       <c r="R176">
-        <v>3360</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B177">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>82</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M177">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N177" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O177" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P177" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P177" s="3"/>
       <c r="Q177">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="R177">
-        <v>3380</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F178">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
       </c>
       <c r="L178">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N178" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O178" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P178" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q178">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="R178">
-        <v>3400</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F179">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L179">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9809,15 +9778,15 @@
       </c>
       <c r="P179" s="3"/>
       <c r="Q179">
-        <v>3401</v>
+        <v>3381</v>
       </c>
       <c r="R179">
-        <v>3420</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -9851,18 +9820,18 @@
       </c>
       <c r="P180" s="3"/>
       <c r="Q180">
-        <v>3421</v>
+        <v>3401</v>
       </c>
       <c r="R180">
-        <v>3440</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9873,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L181">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9893,43 +9862,37 @@
       </c>
       <c r="P181" s="3"/>
       <c r="Q181">
-        <v>3441</v>
+        <v>3421</v>
       </c>
       <c r="R181">
-        <v>3460</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B182">
-        <v>18</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G182">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>18</v>
-      </c>
-      <c r="K182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M182">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9941,39 +9904,39 @@
       </c>
       <c r="P182" s="3"/>
       <c r="Q182">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="R182">
-        <v>3480</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B183">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H183">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K183">
         <v>1</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -9989,18 +9952,21 @@
       </c>
       <c r="P183" s="3"/>
       <c r="Q183">
-        <v>3481</v>
+        <v>3461</v>
       </c>
       <c r="R183">
-        <v>3500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B184">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
       </c>
       <c r="F184">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10011,7 +9977,10 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
       </c>
       <c r="L184">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10031,37 +10000,37 @@
       </c>
       <c r="P184" s="3"/>
       <c r="Q184">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="R184">
-        <v>3520</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F185">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L185">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N185" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10073,18 +10042,18 @@
       </c>
       <c r="P185" s="3"/>
       <c r="Q185">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="R185">
-        <v>3540</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F186">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10095,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10113,22 +10082,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P186" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P186" s="3"/>
       <c r="Q186">
-        <v>3541</v>
+        <v>3521</v>
       </c>
       <c r="R186">
-        <v>3560</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F187">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10139,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L187">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10157,17 +10124,19 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P187" s="3"/>
+      <c r="P187" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q187">
-        <v>3561</v>
+        <v>3541</v>
       </c>
       <c r="R187">
-        <v>3580</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -10201,44 +10170,41 @@
       </c>
       <c r="P188" s="3"/>
       <c r="Q188">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="R188">
-        <v>3600</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B189">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F189">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>70</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M189">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N189" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O189" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10246,41 +10212,44 @@
       </c>
       <c r="P189" s="3"/>
       <c r="Q189">
-        <v>3601</v>
+        <v>3581</v>
       </c>
       <c r="R189">
-        <v>3620</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B190">
+        <v>65</v>
+      </c>
+      <c r="F190">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>70</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>7</v>
       </c>
-      <c r="F190">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
       <c r="M190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N190" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O190" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10288,18 +10257,18 @@
       </c>
       <c r="P190" s="3"/>
       <c r="Q190">
-        <v>3621</v>
+        <v>3601</v>
       </c>
       <c r="R190">
-        <v>3640</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10310,52 +10279,49 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L191">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M191">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O191" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P191" s="3"/>
       <c r="Q191">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="R191">
-        <v>3660</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B192">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>11</v>
-      </c>
-      <c r="K192">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10367,28 +10333,26 @@
       </c>
       <c r="N192" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O192" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P192" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P192" s="3"/>
       <c r="Q192">
-        <v>3661</v>
+        <v>3641</v>
       </c>
       <c r="R192">
-        <v>3680</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B193">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F193">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10399,11 +10363,14 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10411,26 +10378,28 @@
       </c>
       <c r="N193" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P193" s="3"/>
+      <c r="P193" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q193">
-        <v>3681</v>
+        <v>3661</v>
       </c>
       <c r="R193">
-        <v>3700</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B194">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F194">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10441,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L194">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10461,37 +10430,37 @@
       </c>
       <c r="P194" s="3"/>
       <c r="Q194">
-        <v>3701</v>
+        <v>3681</v>
       </c>
       <c r="R194">
-        <v>3720</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F195">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L195">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10503,113 +10472,113 @@
       </c>
       <c r="P195" s="3"/>
       <c r="Q195">
-        <v>3721</v>
+        <v>3701</v>
       </c>
       <c r="R195">
-        <v>3740</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B196">
-        <v>21</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196">
         <v>1</v>
       </c>
       <c r="F196">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>25</v>
-      </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
-      <c r="J196">
         <v>1</v>
       </c>
       <c r="L196">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N196" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O196" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P196" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P196" s="3"/>
       <c r="Q196">
-        <v>3741</v>
+        <v>3721</v>
       </c>
       <c r="R196">
-        <v>3760</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
       </c>
       <c r="F197">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G197">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
       </c>
       <c r="L197">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M197">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N197" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P197" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P197" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q197">
-        <v>3761</v>
+        <v>3741</v>
       </c>
       <c r="R197">
-        <v>3780</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -10643,15 +10612,15 @@
       </c>
       <c r="P198" s="3"/>
       <c r="Q198">
-        <v>3781</v>
+        <v>3761</v>
       </c>
       <c r="R198">
-        <v>3800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -10665,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10685,113 +10654,113 @@
       </c>
       <c r="P199" s="3"/>
       <c r="Q199">
-        <v>3801</v>
+        <v>3781</v>
       </c>
       <c r="R199">
-        <v>3820</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H200">
         <v>5</v>
       </c>
-      <c r="F200">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>11</v>
-      </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O200" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P200" s="3"/>
       <c r="Q200">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="R200">
-        <v>3840</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B201">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F201">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N201" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O201" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P201" s="3"/>
       <c r="Q201">
-        <v>3841</v>
+        <v>3821</v>
       </c>
       <c r="R201">
-        <v>3860</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10803,26 +10772,26 @@
       </c>
       <c r="N202" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O202" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202">
-        <v>3861</v>
+        <v>3841</v>
       </c>
       <c r="R202">
-        <v>3880</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10833,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10853,18 +10822,18 @@
       </c>
       <c r="P203" s="3"/>
       <c r="Q203">
-        <v>3881</v>
+        <v>3861</v>
       </c>
       <c r="R203">
-        <v>3900</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10875,49 +10844,49 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M204">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O204" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P204" s="3"/>
       <c r="Q204">
-        <v>3901</v>
+        <v>3881</v>
       </c>
       <c r="R204">
-        <v>3920</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L205">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10929,26 +10898,26 @@
       </c>
       <c r="N205" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O205" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P205" s="3"/>
       <c r="Q205">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="R205">
-        <v>3940</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B206">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10959,7 +10928,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L206">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10979,37 +10948,37 @@
       </c>
       <c r="P206" s="3"/>
       <c r="Q206">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="R206">
-        <v>3960</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L207">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N207" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11021,18 +10990,18 @@
       </c>
       <c r="P207" s="3"/>
       <c r="Q207">
-        <v>3961</v>
+        <v>3941</v>
       </c>
       <c r="R207">
-        <v>3980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11063,18 +11032,18 @@
       </c>
       <c r="P208" s="3"/>
       <c r="Q208">
-        <v>3981</v>
+        <v>3961</v>
       </c>
       <c r="R208">
-        <v>4000</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11087,39 +11056,36 @@
       <c r="H209">
         <v>3</v>
       </c>
-      <c r="K209">
-        <v>1</v>
-      </c>
       <c r="L209">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M209">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N209" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O209" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P209" s="3"/>
       <c r="Q209">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R209">
-        <v>4020</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11130,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K210">
         <v>1</v>
@@ -11153,29 +11119,32 @@
       </c>
       <c r="P210" s="3"/>
       <c r="Q210">
-        <v>4021</v>
+        <v>4001</v>
       </c>
       <c r="R210">
-        <v>4040</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F211">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
       </c>
       <c r="L211">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11187,45 +11156,45 @@
       </c>
       <c r="N211" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O211" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P211" s="3"/>
       <c r="Q211">
-        <v>4041</v>
+        <v>4021</v>
       </c>
       <c r="R211">
-        <v>4060</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N212" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11237,18 +11206,18 @@
       </c>
       <c r="P212" s="3"/>
       <c r="Q212">
-        <v>4061</v>
+        <v>4041</v>
       </c>
       <c r="R212">
-        <v>4080</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11279,29 +11248,29 @@
       </c>
       <c r="P213" s="3"/>
       <c r="Q213">
-        <v>4081</v>
+        <v>4061</v>
       </c>
       <c r="R213">
-        <v>4100</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11313,37 +11282,37 @@
       </c>
       <c r="N214" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O214" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P214" s="3"/>
       <c r="Q214">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="R214">
-        <v>4120</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11355,149 +11324,149 @@
       </c>
       <c r="N215" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O215" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P215" s="3"/>
       <c r="Q215">
-        <v>4121</v>
+        <v>4101</v>
       </c>
       <c r="R215">
-        <v>4140</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B216">
-        <v>58</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>68</v>
-      </c>
-      <c r="I216">
-        <v>1</v>
-      </c>
-      <c r="J216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N216" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O216" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P216" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P216" s="3"/>
       <c r="Q216">
-        <v>4141</v>
+        <v>4121</v>
       </c>
       <c r="R216">
-        <v>4160</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B217">
-        <v>20</v>
-      </c>
-      <c r="E217">
+        <v>58</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
         <v>1</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>7</v>
+      </c>
+      <c r="G217">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H217">
+        <v>68</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>8</v>
+      </c>
+      <c r="M217">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>3</v>
       </c>
-      <c r="G217">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H217">
-        <v>16</v>
-      </c>
-      <c r="K217">
-        <v>1</v>
-      </c>
-      <c r="L217">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M217">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
       <c r="N217" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O217" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P217" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P217" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q217">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="R217">
-        <v>4180</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
       </c>
       <c r="F218">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
       </c>
       <c r="L218">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N218" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11509,37 +11478,37 @@
       </c>
       <c r="P218" s="3"/>
       <c r="Q218">
-        <v>4181</v>
+        <v>4161</v>
       </c>
       <c r="R218">
-        <v>4200</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B219">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L219">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11551,18 +11520,18 @@
       </c>
       <c r="P219" s="3"/>
       <c r="Q219">
-        <v>4201</v>
+        <v>4181</v>
       </c>
       <c r="R219">
-        <v>4220</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B220">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F220">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11573,11 +11542,11 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L220">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M220">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11585,7 +11554,7 @@
       </c>
       <c r="N220" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O220" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11593,41 +11562,41 @@
       </c>
       <c r="P220" s="3"/>
       <c r="Q220">
-        <v>4221</v>
+        <v>4201</v>
       </c>
       <c r="R220">
-        <v>4240</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F221">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L221">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11635,15 +11604,15 @@
       </c>
       <c r="P221" s="3"/>
       <c r="Q221">
-        <v>4241</v>
+        <v>4221</v>
       </c>
       <c r="R221">
-        <v>4260</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -11677,15 +11646,15 @@
       </c>
       <c r="P222" s="3"/>
       <c r="Q222">
-        <v>4261</v>
+        <v>4241</v>
       </c>
       <c r="R222">
-        <v>4280</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -11719,15 +11688,15 @@
       </c>
       <c r="P223" s="3"/>
       <c r="Q223">
-        <v>4281</v>
+        <v>4261</v>
       </c>
       <c r="R223">
-        <v>4300</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -11761,41 +11730,41 @@
       </c>
       <c r="P224" s="3"/>
       <c r="Q224">
-        <v>4301</v>
+        <v>4281</v>
       </c>
       <c r="R224">
-        <v>4320</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B225">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F225">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L225">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N225" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O225" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11803,41 +11772,41 @@
       </c>
       <c r="P225" s="3"/>
       <c r="Q225">
-        <v>4321</v>
+        <v>4301</v>
       </c>
       <c r="R225">
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L226">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O226" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11845,15 +11814,15 @@
       </c>
       <c r="P226" s="3"/>
       <c r="Q226">
-        <v>4341</v>
+        <v>4321</v>
       </c>
       <c r="R226">
-        <v>4360</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -11887,37 +11856,37 @@
       </c>
       <c r="P227" s="3"/>
       <c r="Q227">
-        <v>4361</v>
+        <v>4341</v>
       </c>
       <c r="R227">
-        <v>4380</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B228">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11927,22 +11896,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P228" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P228" s="3"/>
       <c r="Q228">
-        <v>4381</v>
+        <v>4361</v>
       </c>
       <c r="R228">
-        <v>4400</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B229">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11953,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11975,37 +11942,37 @@
         <v>19</v>
       </c>
       <c r="Q229">
-        <v>4401</v>
+        <v>4381</v>
       </c>
       <c r="R229">
-        <v>4420</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12015,125 +11982,127 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P230" s="3"/>
+      <c r="P230" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q230">
-        <v>4421</v>
+        <v>4401</v>
       </c>
       <c r="R230">
-        <v>4440</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B231">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N231" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O231" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P231" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P231" s="3"/>
       <c r="Q231">
-        <v>4441</v>
+        <v>4421</v>
       </c>
       <c r="R231">
-        <v>4460</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O232" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P232" s="3"/>
+      <c r="P232" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q232">
-        <v>4461</v>
+        <v>4441</v>
       </c>
       <c r="R232">
-        <v>4480</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B233">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12143,25 +12112,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P233" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P233" s="3"/>
       <c r="Q233">
-        <v>4481</v>
+        <v>4461</v>
       </c>
       <c r="R233">
-        <v>4500</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B234">
-        <v>2</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12172,10 +12136,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>4</v>
-      </c>
-      <c r="J234">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12197,18 +12158,21 @@
         <v>19</v>
       </c>
       <c r="Q234">
-        <v>4501</v>
+        <v>4481</v>
       </c>
       <c r="R234">
-        <v>4520</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B235">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12219,11 +12183,14 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M235">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12231,67 +12198,67 @@
       </c>
       <c r="N235" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O235" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P235" s="3"/>
+      <c r="P235" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q235">
-        <v>4521</v>
+        <v>4501</v>
       </c>
       <c r="R235">
-        <v>4540</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F236">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G236">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L236">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M236">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O236" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P236" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P236" s="3"/>
       <c r="Q236">
-        <v>4541</v>
+        <v>4521</v>
       </c>
       <c r="R236">
-        <v>4560</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -12305,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12327,18 +12294,18 @@
         <v>19</v>
       </c>
       <c r="Q237">
-        <v>4561</v>
+        <v>4541</v>
       </c>
       <c r="R237">
-        <v>4580</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12349,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12371,18 +12338,18 @@
         <v>19</v>
       </c>
       <c r="Q238">
-        <v>4581</v>
+        <v>4561</v>
       </c>
       <c r="R238">
-        <v>4600</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12393,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12415,18 +12382,18 @@
         <v>19</v>
       </c>
       <c r="Q239">
-        <v>4601</v>
+        <v>4581</v>
       </c>
       <c r="R239">
-        <v>4620</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F240">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12437,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L240">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12459,18 +12426,18 @@
         <v>19</v>
       </c>
       <c r="Q240">
-        <v>4621</v>
+        <v>4601</v>
       </c>
       <c r="R240">
-        <v>4640</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B241">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F241">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12481,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12503,18 +12470,18 @@
         <v>19</v>
       </c>
       <c r="Q241">
-        <v>4641</v>
+        <v>4621</v>
       </c>
       <c r="R241">
-        <v>4660</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12525,37 +12492,37 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L242">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M242">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N242" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O242" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P242" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q242">
-        <v>4661</v>
+        <v>4641</v>
       </c>
       <c r="R242">
-        <v>4680</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -12569,40 +12536,40 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L243">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M243">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N243" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O243" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P243" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q243">
-        <v>4681</v>
+        <v>4661</v>
       </c>
       <c r="R243">
-        <v>4700</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12635,43 +12602,37 @@
         <v>19</v>
       </c>
       <c r="Q244">
-        <v>4701</v>
+        <v>4681</v>
       </c>
       <c r="R244">
-        <v>4720</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B245">
-        <v>49</v>
-      </c>
-      <c r="E245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H245">
         <v>5</v>
       </c>
-      <c r="G245">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H245">
-        <v>45</v>
-      </c>
-      <c r="K245">
-        <v>1</v>
-      </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M245">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N245" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12685,43 +12646,43 @@
         <v>19</v>
       </c>
       <c r="Q245">
-        <v>4721</v>
+        <v>4701</v>
       </c>
       <c r="R245">
-        <v>4740</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B246">
-        <v>7</v>
-      </c>
-      <c r="D246">
+        <v>49</v>
+      </c>
+      <c r="E246">
         <v>1</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H246">
+        <v>45</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="J246">
-        <v>1</v>
-      </c>
-      <c r="L246">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N246" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12735,18 +12696,21 @@
         <v>19</v>
       </c>
       <c r="Q246">
-        <v>4741</v>
+        <v>4721</v>
       </c>
       <c r="R246">
-        <v>4760</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12757,128 +12721,131 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O247" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P247" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q247">
-        <v>4761</v>
+        <v>4741</v>
       </c>
       <c r="R247">
-        <v>4780</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B248">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H248">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N248" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O248" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P248" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q248">
-        <v>4781</v>
+        <v>4761</v>
       </c>
       <c r="R248">
-        <v>4800</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B249">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N249" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O249" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P249" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q249">
-        <v>4801</v>
+        <v>4781</v>
       </c>
       <c r="R249">
-        <v>4820</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B250">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12889,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12911,118 +12878,118 @@
         <v>19</v>
       </c>
       <c r="Q250">
-        <v>4821</v>
+        <v>4801</v>
       </c>
       <c r="R250">
-        <v>4840</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B251">
-        <v>30</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H251">
         <v>5</v>
       </c>
-      <c r="G251">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H251">
-        <v>86</v>
-      </c>
-      <c r="I251">
-        <v>1</v>
-      </c>
-      <c r="K251">
-        <v>1</v>
-      </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N251" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O251" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P251" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q251">
-        <v>4841</v>
+        <v>4821</v>
       </c>
       <c r="R251">
-        <v>4860</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B252">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N252" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O252" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P252" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q252">
-        <v>4861</v>
+        <v>4841</v>
       </c>
       <c r="R252">
-        <v>4880</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13033,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13055,18 +13022,18 @@
         <v>19</v>
       </c>
       <c r="Q253">
-        <v>4881</v>
+        <v>4861</v>
       </c>
       <c r="R253">
-        <v>4900</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B254">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F254">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13077,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13099,37 +13066,37 @@
         <v>19</v>
       </c>
       <c r="Q254">
-        <v>4901</v>
+        <v>4881</v>
       </c>
       <c r="R254">
-        <v>4920</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F255">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L255">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -13143,37 +13110,37 @@
         <v>19</v>
       </c>
       <c r="Q255">
-        <v>4921</v>
+        <v>4901</v>
       </c>
       <c r="R255">
-        <v>4940</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B256">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F256">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L256">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -13187,29 +13154,29 @@
         <v>19</v>
       </c>
       <c r="Q256">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="R256">
-        <v>4960</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F257">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G257">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H257">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L257">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13221,7 +13188,7 @@
       </c>
       <c r="N257" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O257" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13231,41 +13198,41 @@
         <v>19</v>
       </c>
       <c r="Q257">
-        <v>4961</v>
+        <v>4941</v>
       </c>
       <c r="R257">
-        <v>4980</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F258">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G258">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L258">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M258">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N258" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O258" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13275,58 +13242,102 @@
         <v>19</v>
       </c>
       <c r="Q258">
-        <v>4981</v>
+        <v>4961</v>
       </c>
       <c r="R258">
-        <v>5000</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>274</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="F259">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>4</v>
+      </c>
+      <c r="L259">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N259" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O259" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q259">
+        <v>4981</v>
+      </c>
+      <c r="R259">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>275</v>
       </c>
-      <c r="B259">
+      <c r="B260">
         <v>7</v>
       </c>
-      <c r="F259">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G259">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H259">
+      <c r="F260">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H260">
         <v>7</v>
       </c>
-      <c r="L259">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M259">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N259" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O259" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P259" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q259">
+      <c r="L260">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N260" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O260" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q260">
         <v>5001</v>
       </c>
-      <c r="R259">
+      <c r="R260">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N3:O259">
+  <conditionalFormatting sqref="N3:O260">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13337,7 +13348,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P259">
+  <conditionalFormatting sqref="P3:P260">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -13355,7 +13366,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C18D45C-EFAB-4085-A996-4AED0E957A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E2158-5A05-4FC7-9627-82161C4EF5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1901,7 +1901,7 @@
   <dimension ref="A2:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P148" sqref="P148"/>
+      <selection activeCell="P149" sqref="P149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8476,7 +8476,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P148" s="3"/>
+      <c r="P148" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q148">
         <v>2781</v>
       </c>
@@ -13365,8 +13367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E2158-5A05-4FC7-9627-82161C4EF5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC2E83-F41B-4D15-AC35-CBE4A500060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1901,7 +1901,7 @@
   <dimension ref="A2:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P149" sqref="P149"/>
+      <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8520,7 +8520,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P149" s="3"/>
+      <c r="P149" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q149">
         <v>2801</v>
       </c>
@@ -13368,7 +13370,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC2E83-F41B-4D15-AC35-CBE4A500060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31F8E8-245F-4B61-829E-418AA1456E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1901,7 +1901,7 @@
   <dimension ref="A2:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P150" sqref="P150"/>
+      <selection activeCell="P151" sqref="P151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,7 +8564,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P150" s="3"/>
+      <c r="P150" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q150">
         <v>2821</v>
       </c>
@@ -13369,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="I24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31F8E8-245F-4B61-829E-418AA1456E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9678E1F-CB1B-4FA4-A262-3E8E6AF4F672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1450,7 +1447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1602,9 +1599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1642,7 +1639,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1748,7 +1745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1900,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P151" sqref="P151"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P185" sqref="P185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,7 +10043,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P185" s="3"/>
+      <c r="P185" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q185">
         <v>3501</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9678E1F-CB1B-4FA4-A262-3E8E6AF4F672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D46E0-CD28-4E93-AFD4-DF660F2F59D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P185" sqref="P185"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P175" sqref="P175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9561,7 +9561,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P174" s="3"/>
+      <c r="P174" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q174">
         <v>3281</v>
       </c>
@@ -13370,8 +13372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="I24:J24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D46E0-CD28-4E93-AFD4-DF660F2F59D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FA351-E431-4C58-9FC3-EB0A252FDFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P175" sqref="P175"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P177" sqref="P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9647,7 +9647,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P176" s="3"/>
+      <c r="P176" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q176">
         <v>3321</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FA351-E431-4C58-9FC3-EB0A252FDFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB9ED2-7EC9-43FA-966A-3F16D76F9168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P177" sqref="P177"/>
+      <selection activeCell="P180" sqref="P180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9783,7 +9783,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P179" s="3"/>
+      <c r="P179" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q179">
         <v>3381</v>
       </c>
@@ -13374,8 +13376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB9ED2-7EC9-43FA-966A-3F16D76F9168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206966E4-8F6F-40FB-8AC2-C45B52FF7440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P180" sqref="P180"/>
+      <selection activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8995,7 +8995,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P161" s="3"/>
+      <c r="P161" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q161">
         <v>3021</v>
       </c>
@@ -13376,8 +13378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206966E4-8F6F-40FB-8AC2-C45B52FF7440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D6664D-CC43-4A92-AEF2-EBAF08EFAD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A2:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P162" sqref="P162"/>
+      <selection activeCell="P154" sqref="P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8655,7 +8655,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P153" s="3"/>
+      <c r="P153" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q153">
         <v>2861</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D6664D-CC43-4A92-AEF2-EBAF08EFAD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D544B09-7A49-4346-9467-5F81D5744473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P154" sqref="P154"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P163" sqref="P163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9041,7 +9041,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P162" s="3"/>
+      <c r="P162" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q162">
         <v>3041</v>
       </c>
@@ -13381,7 +13383,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misagh.H\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Millennium_Dawn_DEV\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D544B09-7A49-4346-9467-5F81D5744473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="456">
   <si>
     <t>TAG</t>
   </si>
@@ -1405,7 +1404,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1447,7 +1446,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1572,27 +1571,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R260" totalsRowShown="0">
-  <autoFilter ref="A2:R260" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Taulukko2" displayName="Taulukko2" ref="A2:R260" totalsRowShown="0">
+  <autoFilter ref="A2:R260"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Major 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is in Faction 1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Nato 1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No of Gens 1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="No of FMs 1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Units 2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is Major 2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Is in Faction 2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Is Nato 2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="No of Gens 2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="No of FMs 2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DeltaG"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
+    <tableColumn id="1" name="TAG"/>
+    <tableColumn id="2" name="Units 1"/>
+    <tableColumn id="3" name="Is Major 1"/>
+    <tableColumn id="4" name="Is in Faction 1"/>
+    <tableColumn id="5" name="Is Nato 1"/>
+    <tableColumn id="6" name="No of Gens 1"/>
+    <tableColumn id="7" name="No of FMs 1"/>
+    <tableColumn id="8" name="Units 2"/>
+    <tableColumn id="9" name="Is Major 2"/>
+    <tableColumn id="10" name="Is in Faction 2"/>
+    <tableColumn id="11" name="Is Nato 2"/>
+    <tableColumn id="12" name="No of Gens 2"/>
+    <tableColumn id="13" name="No of FMs 2"/>
+    <tableColumn id="14" name="DeltaG"/>
+    <tableColumn id="15" name="DeltaFM"/>
+    <tableColumn id="16" name="Done"/>
+    <tableColumn id="17" name="ID min"/>
+    <tableColumn id="18" name="ID max"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1894,11 +1893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P163" sqref="P163"/>
+    <sheetView tabSelected="1" topLeftCell="B212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11347,7 +11346,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>-1</v>
       </c>
-      <c r="P215" s="3"/>
+      <c r="P215" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q215">
         <v>4101</v>
       </c>
@@ -11493,7 +11494,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P218" s="3"/>
+      <c r="P218" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q218">
         <v>4161</v>
       </c>
@@ -11577,7 +11580,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P220" s="3"/>
+      <c r="P220" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q220">
         <v>4201</v>
       </c>
@@ -11871,7 +11876,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P227" s="3"/>
+      <c r="P227" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q227">
         <v>4341</v>
       </c>
@@ -13379,7 +13386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misagh.H\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Millennium_Dawn_DEV\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B8263-9597-4A8C-9A04-EB7DEE7B522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
     <sheet name="Trait List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1404,7 +1408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1446,7 +1450,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1571,27 +1575,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Taulukko2" displayName="Taulukko2" ref="A2:R260" totalsRowShown="0">
-  <autoFilter ref="A2:R260"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R260" totalsRowShown="0">
+  <autoFilter ref="A2:R260" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="TAG"/>
-    <tableColumn id="2" name="Units 1"/>
-    <tableColumn id="3" name="Is Major 1"/>
-    <tableColumn id="4" name="Is in Faction 1"/>
-    <tableColumn id="5" name="Is Nato 1"/>
-    <tableColumn id="6" name="No of Gens 1"/>
-    <tableColumn id="7" name="No of FMs 1"/>
-    <tableColumn id="8" name="Units 2"/>
-    <tableColumn id="9" name="Is Major 2"/>
-    <tableColumn id="10" name="Is in Faction 2"/>
-    <tableColumn id="11" name="Is Nato 2"/>
-    <tableColumn id="12" name="No of Gens 2"/>
-    <tableColumn id="13" name="No of FMs 2"/>
-    <tableColumn id="14" name="DeltaG"/>
-    <tableColumn id="15" name="DeltaFM"/>
-    <tableColumn id="16" name="Done"/>
-    <tableColumn id="17" name="ID min"/>
-    <tableColumn id="18" name="ID max"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Major 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is in Faction 1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Nato 1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No of Gens 1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="No of FMs 1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Units 2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is Major 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Is in Faction 2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Is Nato 2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="No of Gens 2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="No of FMs 2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DeltaG"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DeltaFM"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Done"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ID min"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ID max"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1893,11 +1897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13386,11 +13390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B8263-9597-4A8C-9A04-EB7DEE7B522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6547A57F-102D-4614-BD3F-7D8DF3B484E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1403,6 +1403,24 @@
   </si>
   <si>
     <t>MNC</t>
+  </si>
+  <si>
+    <t>ZAP</t>
+  </si>
+  <si>
+    <t>YUC</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>TRC</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TAM</t>
   </si>
 </sst>
 </file>
@@ -1575,8 +1593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R260" totalsRowShown="0">
-  <autoFilter ref="A2:R260" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R266" totalsRowShown="0">
+  <autoFilter ref="A2:R266" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
@@ -1898,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R260"/>
+  <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8578,7 +8596,9 @@
       <c r="A151" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="P151" s="3"/>
+      <c r="P151" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -12284,100 +12304,24 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>252</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>0</v>
-      </c>
-      <c r="L237">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M237">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N237" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O237" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P237" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q237">
-        <v>4541</v>
-      </c>
-      <c r="R237">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>253</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>1</v>
-      </c>
-      <c r="L238">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M238">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N238" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O238" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P238" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q238">
-        <v>4561</v>
-      </c>
-      <c r="R238">
-        <v>4580</v>
-      </c>
+    <row r="237" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="P237" s="3"/>
+    </row>
+    <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="P238" s="3"/>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12388,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12410,18 +12354,18 @@
         <v>19</v>
       </c>
       <c r="Q239">
-        <v>4581</v>
+        <v>4541</v>
       </c>
       <c r="R239">
-        <v>4600</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12432,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L240">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12454,18 +12398,18 @@
         <v>19</v>
       </c>
       <c r="Q240">
-        <v>4601</v>
+        <v>4561</v>
       </c>
       <c r="R240">
-        <v>4620</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F241">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12476,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12498,18 +12442,18 @@
         <v>19</v>
       </c>
       <c r="Q241">
-        <v>4621</v>
+        <v>4581</v>
       </c>
       <c r="R241">
-        <v>4640</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B242">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12520,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L242">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12542,62 +12486,24 @@
         <v>19</v>
       </c>
       <c r="Q242">
-        <v>4641</v>
+        <v>4601</v>
       </c>
       <c r="R242">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>258</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>10</v>
-      </c>
-      <c r="L243">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
-      <c r="M243">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N243" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O243" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P243" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q243">
-        <v>4661</v>
-      </c>
-      <c r="R243">
-        <v>4680</v>
-      </c>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="P243" s="3"/>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12608,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L244">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12630,18 +12536,18 @@
         <v>19</v>
       </c>
       <c r="Q244">
-        <v>4681</v>
+        <v>4621</v>
       </c>
       <c r="R244">
-        <v>4700</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12652,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12674,93 +12580,81 @@
         <v>19</v>
       </c>
       <c r="Q245">
-        <v>4701</v>
+        <v>4641</v>
       </c>
       <c r="R245">
-        <v>4720</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B246">
-        <v>49</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>45</v>
-      </c>
-      <c r="K246">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L246">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M246">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N246" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O246" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P246" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q246">
-        <v>4721</v>
+        <v>4661</v>
       </c>
       <c r="R246">
-        <v>4740</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B247">
-        <v>7</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
         <v>5</v>
       </c>
-      <c r="J247">
-        <v>1</v>
-      </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M247">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N247" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12774,29 +12668,29 @@
         <v>19</v>
       </c>
       <c r="Q247">
-        <v>4741</v>
+        <v>4681</v>
       </c>
       <c r="R247">
-        <v>4760</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B248">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G248">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12808,39 +12702,45 @@
       </c>
       <c r="N248" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O248" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P248" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q248">
-        <v>4761</v>
+        <v>4701</v>
       </c>
       <c r="R248">
-        <v>4780</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B249">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12852,28 +12752,31 @@
       </c>
       <c r="N249" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O249" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P249" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q249">
-        <v>4781</v>
+        <v>4721</v>
       </c>
       <c r="R249">
-        <v>4800</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B250">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12884,40 +12787,43 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
       </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N250" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O250" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P250" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q250">
-        <v>4801</v>
+        <v>4741</v>
       </c>
       <c r="R250">
-        <v>4820</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B251">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12928,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12950,53 +12856,41 @@
         <v>19</v>
       </c>
       <c r="Q251">
-        <v>4821</v>
+        <v>4761</v>
       </c>
       <c r="R251">
-        <v>4840</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B252">
-        <v>30</v>
-      </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>4</v>
+      </c>
+      <c r="G252">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>53</v>
+      </c>
+      <c r="L252">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="G252">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H252">
-        <v>86</v>
-      </c>
-      <c r="I252">
-        <v>1</v>
-      </c>
-      <c r="K252">
-        <v>1</v>
-      </c>
-      <c r="L252">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
-      </c>
       <c r="M252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N252" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O252" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13006,18 +12900,18 @@
         <v>19</v>
       </c>
       <c r="Q252">
-        <v>4841</v>
+        <v>4781</v>
       </c>
       <c r="R252">
-        <v>4860</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B253">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13028,37 +12922,37 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N253" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O253" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P253" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q253">
-        <v>4861</v>
+        <v>4801</v>
       </c>
       <c r="R253">
-        <v>4880</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B254">
         <v>8</v>
@@ -13072,103 +12966,115 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M254">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N254" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O254" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P254" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q254">
-        <v>4881</v>
+        <v>4821</v>
       </c>
       <c r="R254">
-        <v>4900</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B255">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
       </c>
       <c r="F255">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
       </c>
       <c r="L255">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N255" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O255" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q255">
-        <v>4901</v>
+        <v>4841</v>
       </c>
       <c r="R255">
-        <v>4920</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F256">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L256">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N256" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -13182,33 +13088,33 @@
         <v>19</v>
       </c>
       <c r="Q256">
-        <v>4921</v>
+        <v>4861</v>
       </c>
       <c r="R256">
-        <v>4940</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B257">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F257">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G257">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H257">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="L257">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M257">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -13226,81 +13132,43 @@
         <v>19</v>
       </c>
       <c r="Q257">
-        <v>4941</v>
+        <v>4881</v>
       </c>
       <c r="R257">
-        <v>4960</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>273</v>
-      </c>
-      <c r="B258">
-        <v>10</v>
-      </c>
-      <c r="F258">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G258">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>24</v>
-      </c>
-      <c r="L258">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M258">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N258" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O258" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P258" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q258">
-        <v>4961</v>
-      </c>
-      <c r="R258">
-        <v>4980</v>
-      </c>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="P258" s="3"/>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F259">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G259">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L259">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M259">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N259" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -13314,58 +13182,246 @@
         <v>19</v>
       </c>
       <c r="Q259">
-        <v>4981</v>
+        <v>4901</v>
       </c>
       <c r="R259">
-        <v>5000</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>271</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N260" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O260" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q260">
+        <v>4921</v>
+      </c>
+      <c r="R260">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>272</v>
+      </c>
+      <c r="B261">
+        <v>34</v>
+      </c>
+      <c r="F261">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>3</v>
+      </c>
+      <c r="G261">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>34</v>
+      </c>
+      <c r="L261">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>3</v>
+      </c>
+      <c r="M261">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N261" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O261" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q261">
+        <v>4941</v>
+      </c>
+      <c r="R261">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>273</v>
+      </c>
+      <c r="B262">
+        <v>10</v>
+      </c>
+      <c r="F262">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>24</v>
+      </c>
+      <c r="L262">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>3</v>
+      </c>
+      <c r="M262">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N262" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="O262" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q262">
+        <v>4961</v>
+      </c>
+      <c r="R262">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="P263" s="3"/>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>274</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+      <c r="L264">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N264" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O264" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q264">
+        <v>4981</v>
+      </c>
+      <c r="R264">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P265" s="3"/>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>275</v>
       </c>
-      <c r="B260">
+      <c r="B266">
         <v>7</v>
       </c>
-      <c r="F260">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G260">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H260">
+      <c r="F266">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H266">
         <v>7</v>
       </c>
-      <c r="L260">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M260">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N260" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O260" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P260" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q260">
+      <c r="L266">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N266" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O266" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P266" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q266">
         <v>5001</v>
       </c>
-      <c r="R260">
+      <c r="R266">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N3:O260">
+  <conditionalFormatting sqref="N3:O266">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13376,7 +13432,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P260">
+  <conditionalFormatting sqref="P3:P266">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -13393,8 +13449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6547A57F-102D-4614-BD3F-7D8DF3B484E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F127419-96F8-402A-A4B0-AFED2C345BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P238" sqref="P238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12308,13 +12308,17 @@
       <c r="A237" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="P237" s="3"/>
+      <c r="P237" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P238" s="3"/>
+      <c r="P238" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -12496,7 +12500,9 @@
       <c r="A243" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="P243" s="3"/>
+      <c r="P243" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -13142,7 +13148,9 @@
       <c r="A258" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="P258" s="3"/>
+      <c r="P258" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -13324,7 +13332,9 @@
       <c r="A263" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="P263" s="3"/>
+      <c r="P263" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -13374,7 +13384,9 @@
       <c r="A265" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="P265" s="3"/>
+      <c r="P265" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
@@ -13450,7 +13462,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F127419-96F8-402A-A4B0-AFED2C345BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B4C7C-D32F-4B39-8D38-2C5A5E44871B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1468,7 +1465,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1918,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P238" sqref="P238"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P157" sqref="P157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8810,7 +8807,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P156" s="3"/>
+      <c r="P156" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q156">
         <v>2921</v>
       </c>
@@ -13461,8 +13460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B4C7C-D32F-4B39-8D38-2C5A5E44871B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7F086-5186-4408-934B-4621D9142671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P157" sqref="P157"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P174" sqref="P174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9547,7 +9547,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P173" s="3"/>
+      <c r="P173" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q173">
         <v>3261</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7F086-5186-4408-934B-4621D9142671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D20E7F-50D1-4CD2-A799-8622236DA64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1916,7 +1916,7 @@
   <dimension ref="A2:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P174" sqref="P174"/>
+      <selection activeCell="P176" sqref="P176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9635,7 +9635,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P175" s="3"/>
+      <c r="P175" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q175">
         <v>3301</v>
       </c>
@@ -13462,8 +13464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D20E7F-50D1-4CD2-A799-8622236DA64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610A058-6666-425F-AD60-1FD881B5AC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P176" sqref="P176"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P158" sqref="P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8851,7 +8851,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P157" s="3"/>
+      <c r="P157" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q157">
         <v>2941</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610A058-6666-425F-AD60-1FD881B5AC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A229B-8335-483A-A69A-360468F93E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1916,7 +1916,7 @@
   <dimension ref="A2:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P158" sqref="P158"/>
+      <selection activeCell="P159" sqref="P159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8895,7 +8895,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P158" s="3"/>
+      <c r="P158" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q158">
         <v>2961</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A229B-8335-483A-A69A-360468F93E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52365A-54AA-4DE5-BB94-6F8AA31D6273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1915,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P159" sqref="P159"/>
     </sheetView>
   </sheetViews>
@@ -8939,7 +8939,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P159" s="3"/>
+      <c r="P159" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q159">
         <v>2981</v>
       </c>
@@ -13469,7 +13471,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52365A-54AA-4DE5-BB94-6F8AA31D6273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A99BEF-170F-4D6D-8ADA-D662B35BA720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1916,7 +1916,7 @@
   <dimension ref="A2:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P159" sqref="P159"/>
+      <selection activeCell="P164" sqref="P164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,7 +9113,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P163" s="3"/>
+      <c r="P163" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q163">
         <v>3061</v>
       </c>
@@ -13470,8 +13472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A99BEF-170F-4D6D-8ADA-D662B35BA720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F8A3A-2BE9-42B6-B21D-5EBD9C69DEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="840" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="2910" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1916,7 +1916,7 @@
   <dimension ref="A2:R266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P164" sqref="P164"/>
+      <selection activeCell="P167" sqref="P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9249,7 +9249,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P166" s="3"/>
+      <c r="P166" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q166">
         <v>3121</v>
       </c>
@@ -13473,7 +13475,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F8A3A-2BE9-42B6-B21D-5EBD9C69DEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CB5A9-3526-4D76-8B98-CECB183E4EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="2910" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P167" sqref="P167"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P229" sqref="P229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11957,7 +11957,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P228" s="3"/>
+      <c r="P228" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q228">
         <v>4361</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CB5A9-3526-4D76-8B98-CECB183E4EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AABBA3B-E3D3-42FB-81E6-0026BA939C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="2910" windowWidth="27255" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Rework" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P229" sqref="P229"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P217" sqref="P217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11427,7 +11427,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P216" s="3"/>
+      <c r="P216" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q216">
         <v>4121</v>
       </c>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AABBA3B-E3D3-42FB-81E6-0026BA939C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2830EF34-8FD6-4706-A4E2-3763C642E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="462">
   <si>
     <t>TAG</t>
   </si>
@@ -1465,7 +1468,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1617,9 +1620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1657,7 +1660,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1763,7 +1766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1915,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P217" sqref="P217"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P231" sqref="P231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12177,7 +12180,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P233" s="3"/>
+      <c r="P233" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q233">
         <v>4461</v>
       </c>
@@ -12313,7 +12318,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P236" s="3"/>
+      <c r="P236" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q236">
         <v>4521</v>
       </c>
@@ -13478,8 +13485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2830EF34-8FD6-4706-A4E2-3763C642E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0A8C0-6DBF-410A-8C0D-7C95BD14A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="465">
   <si>
     <t>TAG</t>
   </si>
@@ -1421,6 +1421,15 @@
   </si>
   <si>
     <t>TAM</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>SAR</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R266" totalsRowShown="0">
-  <autoFilter ref="A2:R266" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R269" totalsRowShown="0">
+  <autoFilter ref="A2:R269" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
@@ -1916,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R266"/>
+  <dimension ref="A2:R269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P231" sqref="P231"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P234" sqref="P234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,107 +10585,71 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>212</v>
-      </c>
-      <c r="B197">
-        <v>21</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
-      </c>
-      <c r="G197">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>25</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-      <c r="J197">
-        <v>1</v>
-      </c>
-      <c r="L197">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
-      </c>
-      <c r="M197">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="N197" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O197" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P197" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q197">
-        <v>3741</v>
-      </c>
-      <c r="R197">
-        <v>3760</v>
-      </c>
+    <row r="197" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="P197" s="3"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
       </c>
       <c r="F198">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
       </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N198" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O198" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P198" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P198" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q198">
-        <v>3761</v>
+        <v>3741</v>
       </c>
       <c r="R198">
-        <v>3780</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -10710,15 +10683,15 @@
       </c>
       <c r="P199" s="3"/>
       <c r="Q199">
-        <v>3781</v>
+        <v>3761</v>
       </c>
       <c r="R199">
-        <v>3800</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -10732,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10752,113 +10725,113 @@
       </c>
       <c r="P200" s="3"/>
       <c r="Q200">
-        <v>3801</v>
+        <v>3781</v>
       </c>
       <c r="R200">
-        <v>3820</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H201">
         <v>5</v>
       </c>
-      <c r="F201">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>11</v>
-      </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M201">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O201" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P201" s="3"/>
       <c r="Q201">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="R201">
-        <v>3840</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B202">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O202" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202">
-        <v>3841</v>
+        <v>3821</v>
       </c>
       <c r="R202">
-        <v>3860</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L203">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10870,26 +10843,26 @@
       </c>
       <c r="N203" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O203" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P203" s="3"/>
       <c r="Q203">
-        <v>3861</v>
+        <v>3841</v>
       </c>
       <c r="R203">
-        <v>3880</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10900,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10920,18 +10893,18 @@
       </c>
       <c r="P204" s="3"/>
       <c r="Q204">
-        <v>3881</v>
+        <v>3861</v>
       </c>
       <c r="R204">
-        <v>3900</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10942,49 +10915,49 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L205">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N205" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O205" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P205" s="3"/>
       <c r="Q205">
-        <v>3901</v>
+        <v>3881</v>
       </c>
       <c r="R205">
-        <v>3920</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L206">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10996,26 +10969,26 @@
       </c>
       <c r="N206" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P206" s="3"/>
       <c r="Q206">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="R206">
-        <v>3940</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B207">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11026,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L207">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11046,37 +11019,37 @@
       </c>
       <c r="P207" s="3"/>
       <c r="Q207">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="R207">
-        <v>3960</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L208">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N208" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11088,18 +11061,18 @@
       </c>
       <c r="P208" s="3"/>
       <c r="Q208">
-        <v>3961</v>
+        <v>3941</v>
       </c>
       <c r="R208">
-        <v>3980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11130,18 +11103,18 @@
       </c>
       <c r="P209" s="3"/>
       <c r="Q209">
-        <v>3981</v>
+        <v>3961</v>
       </c>
       <c r="R209">
-        <v>4000</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11154,95 +11127,56 @@
       <c r="H210">
         <v>3</v>
       </c>
-      <c r="K210">
-        <v>1</v>
-      </c>
       <c r="L210">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N210" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O210" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P210" s="3"/>
       <c r="Q210">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R210">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>226</v>
-      </c>
-      <c r="B211">
-        <v>2</v>
-      </c>
-      <c r="F211">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G211">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>2</v>
-      </c>
-      <c r="K211">
-        <v>1</v>
-      </c>
-      <c r="L211">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
-      <c r="M211">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N211" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O211" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="P211" s="3"/>
-      <c r="Q211">
-        <v>4021</v>
-      </c>
-      <c r="R211">
-        <v>4040</v>
-      </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B212">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
       </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11254,26 +11188,26 @@
       </c>
       <c r="N212" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O212" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212">
-        <v>4041</v>
+        <v>4001</v>
       </c>
       <c r="R212">
-        <v>4060</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F213">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11284,57 +11218,60 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
       </c>
       <c r="L213">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M213">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N213" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O213" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P213" s="3"/>
       <c r="Q213">
-        <v>4061</v>
+        <v>4021</v>
       </c>
       <c r="R213">
-        <v>4080</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N214" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11346,29 +11283,29 @@
       </c>
       <c r="P214" s="3"/>
       <c r="Q214">
-        <v>4081</v>
+        <v>4041</v>
       </c>
       <c r="R214">
-        <v>4100</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11380,28 +11317,26 @@
       </c>
       <c r="N215" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O215" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
-      </c>
-      <c r="P215" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P215" s="3"/>
       <c r="Q215">
-        <v>4101</v>
+        <v>4061</v>
       </c>
       <c r="R215">
-        <v>4120</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11412,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11430,103 +11365,83 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P216" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P216" s="3"/>
       <c r="Q216">
-        <v>4121</v>
+        <v>4081</v>
       </c>
       <c r="R216">
-        <v>4140</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B217">
-        <v>58</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H217">
         <v>7</v>
       </c>
-      <c r="G217">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H217">
-        <v>68</v>
-      </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
-      <c r="J217">
-        <v>1</v>
-      </c>
       <c r="L217">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N217" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O217" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P217" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q217">
-        <v>4141</v>
+        <v>4101</v>
       </c>
       <c r="R217">
-        <v>4160</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B218">
-        <v>20</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F218">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>16</v>
-      </c>
-      <c r="K218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L218">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M218">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N218" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11540,115 +11455,97 @@
         <v>19</v>
       </c>
       <c r="Q218">
-        <v>4161</v>
+        <v>4121</v>
       </c>
       <c r="R218">
-        <v>4180</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
       </c>
       <c r="F219">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
       </c>
       <c r="L219">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N219" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P219" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q219">
-        <v>4181</v>
+        <v>4141</v>
       </c>
       <c r="R219">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>235</v>
-      </c>
-      <c r="B220">
-        <v>11</v>
-      </c>
-      <c r="F220">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G220">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>11</v>
-      </c>
-      <c r="L220">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
-      <c r="M220">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N220" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O220" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P220" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q220">
-        <v>4201</v>
-      </c>
-      <c r="R220">
-        <v>4220</v>
-      </c>
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P220" s="3"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B221">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
       </c>
       <c r="F221">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G221">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H221">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
       </c>
       <c r="L221">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11660,23 +11557,25 @@
       </c>
       <c r="N221" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O221" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P221" s="3"/>
+      <c r="P221" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q221">
-        <v>4221</v>
+        <v>4161</v>
       </c>
       <c r="R221">
-        <v>4240</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -11690,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L222">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11710,37 +11609,37 @@
       </c>
       <c r="P222" s="3"/>
       <c r="Q222">
-        <v>4241</v>
+        <v>4181</v>
       </c>
       <c r="R222">
-        <v>4260</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F223">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L223">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11750,43 +11649,45 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P223" s="3"/>
+      <c r="P223" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q223">
-        <v>4261</v>
+        <v>4201</v>
       </c>
       <c r="R223">
-        <v>4280</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F224">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L224">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O224" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11794,15 +11695,15 @@
       </c>
       <c r="P224" s="3"/>
       <c r="Q224">
-        <v>4281</v>
+        <v>4221</v>
       </c>
       <c r="R224">
-        <v>4300</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -11836,41 +11737,41 @@
       </c>
       <c r="P225" s="3"/>
       <c r="Q225">
-        <v>4301</v>
+        <v>4241</v>
       </c>
       <c r="R225">
-        <v>4320</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B226">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L226">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N226" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O226" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11878,18 +11779,18 @@
       </c>
       <c r="P226" s="3"/>
       <c r="Q226">
-        <v>4321</v>
+        <v>4261</v>
       </c>
       <c r="R226">
-        <v>4340</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11900,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L227">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11918,22 +11819,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P227" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P227" s="3"/>
       <c r="Q227">
-        <v>4341</v>
+        <v>4281</v>
       </c>
       <c r="R227">
-        <v>4360</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11944,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L228">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11962,33 +11861,31 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P228" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P228" s="3"/>
       <c r="Q228">
-        <v>4361</v>
+        <v>4301</v>
       </c>
       <c r="R228">
-        <v>4380</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B229">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H229">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12000,47 +11897,45 @@
       </c>
       <c r="N229" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O229" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P229" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P229" s="3"/>
       <c r="Q229">
-        <v>4381</v>
+        <v>4321</v>
       </c>
       <c r="R229">
-        <v>4400</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B230">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M230">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N230" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12054,18 +11949,18 @@
         <v>19</v>
       </c>
       <c r="Q230">
-        <v>4401</v>
+        <v>4341</v>
       </c>
       <c r="R230">
-        <v>4420</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12076,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12094,20 +11989,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P231" s="3"/>
+      <c r="P231" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q231">
-        <v>4421</v>
+        <v>4361</v>
       </c>
       <c r="R231">
-        <v>4440</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B232">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12118,11 +12015,11 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12130,7 +12027,7 @@
       </c>
       <c r="N232" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O232" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12140,37 +12037,37 @@
         <v>19</v>
       </c>
       <c r="Q232">
-        <v>4441</v>
+        <v>4381</v>
       </c>
       <c r="R232">
-        <v>4460</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12184,37 +12081,37 @@
         <v>19</v>
       </c>
       <c r="Q233">
-        <v>4461</v>
+        <v>4401</v>
       </c>
       <c r="R233">
-        <v>4480</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B234">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N234" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12224,25 +12121,20 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P234" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P234" s="3"/>
       <c r="Q234">
-        <v>4481</v>
+        <v>4421</v>
       </c>
       <c r="R234">
-        <v>4500</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B235">
-        <v>2</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12253,22 +12145,19 @@
         <v>1</v>
       </c>
       <c r="H235">
+        <v>52</v>
+      </c>
+      <c r="L235">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>4</v>
       </c>
-      <c r="J235">
-        <v>1</v>
-      </c>
-      <c r="L235">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M235">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="N235" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O235" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12278,101 +12167,179 @@
         <v>19</v>
       </c>
       <c r="Q235">
-        <v>4501</v>
+        <v>4441</v>
       </c>
       <c r="R235">
-        <v>4520</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N236" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O236" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q236">
+        <v>4461</v>
+      </c>
+      <c r="R236">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>249</v>
+      </c>
+      <c r="B237">
+        <v>17</v>
+      </c>
+      <c r="F237">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H237">
         <v>16</v>
       </c>
-      <c r="F236">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G236">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H236">
-        <v>25</v>
-      </c>
-      <c r="L236">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M236">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N236" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O236" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P236" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q236">
-        <v>4521</v>
-      </c>
-      <c r="R236">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>461</v>
+      <c r="L237">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N237" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O237" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P237" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>460</v>
+      <c r="Q237">
+        <v>4481</v>
+      </c>
+      <c r="R237">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>250</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G238">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>4</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N238" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O238" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P238" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="Q238">
+        <v>4501</v>
+      </c>
+      <c r="R238">
+        <v>4520</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F239">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L239">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M239">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O239" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12382,106 +12349,34 @@
         <v>19</v>
       </c>
       <c r="Q239">
-        <v>4541</v>
+        <v>4521</v>
       </c>
       <c r="R239">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>253</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-      <c r="F240">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>1</v>
-      </c>
-      <c r="L240">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M240">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N240" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O240" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="P240" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q240">
-        <v>4561</v>
-      </c>
-      <c r="R240">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>254</v>
-      </c>
-      <c r="B241">
-        <v>5</v>
-      </c>
-      <c r="F241">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>5</v>
-      </c>
-      <c r="L241">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M241">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N241" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O241" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+    </row>
+    <row r="241" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="P241" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q241">
-        <v>4581</v>
-      </c>
-      <c r="R241">
-        <v>4600</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12492,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L242">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12514,26 +12409,62 @@
         <v>19</v>
       </c>
       <c r="Q242">
-        <v>4601</v>
+        <v>4541</v>
       </c>
       <c r="R242">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>459</v>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>253</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N243" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O243" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P243" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="Q243">
+        <v>4561</v>
+      </c>
+      <c r="R243">
+        <v>4580</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12544,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L244">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12566,18 +12497,18 @@
         <v>19</v>
       </c>
       <c r="Q244">
-        <v>4621</v>
+        <v>4581</v>
       </c>
       <c r="R244">
-        <v>4640</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B245">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12588,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12610,62 +12541,26 @@
         <v>19</v>
       </c>
       <c r="Q245">
-        <v>4641</v>
+        <v>4601</v>
       </c>
       <c r="R245">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>258</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>10</v>
-      </c>
-      <c r="L246">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
-      <c r="M246">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N246" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O246" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="P246" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q246">
-        <v>4661</v>
-      </c>
-      <c r="R246">
-        <v>4680</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12676,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12698,18 +12593,18 @@
         <v>19</v>
       </c>
       <c r="Q247">
-        <v>4681</v>
+        <v>4621</v>
       </c>
       <c r="R247">
-        <v>4700</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F248">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12720,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L248">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12742,93 +12637,81 @@
         <v>19</v>
       </c>
       <c r="Q248">
-        <v>4701</v>
+        <v>4641</v>
       </c>
       <c r="R248">
-        <v>4720</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B249">
-        <v>49</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>45</v>
-      </c>
-      <c r="K249">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N249" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O249" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q249">
-        <v>4721</v>
+        <v>4661</v>
       </c>
       <c r="R249">
-        <v>4740</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B250">
-        <v>7</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>5</v>
       </c>
-      <c r="J250">
-        <v>1</v>
-      </c>
       <c r="L250">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M250">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N250" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12842,29 +12725,29 @@
         <v>19</v>
       </c>
       <c r="Q250">
-        <v>4741</v>
+        <v>4681</v>
       </c>
       <c r="R250">
-        <v>4760</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B251">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F251">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L251">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12876,39 +12759,45 @@
       </c>
       <c r="N251" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O251" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P251" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q251">
-        <v>4761</v>
+        <v>4701</v>
       </c>
       <c r="R251">
-        <v>4780</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B252">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
       </c>
       <c r="F252">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G252">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
       </c>
       <c r="L252">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12920,28 +12809,31 @@
       </c>
       <c r="N252" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O252" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P252" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q252">
-        <v>4781</v>
+        <v>4721</v>
       </c>
       <c r="R252">
-        <v>4800</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B253">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
       </c>
       <c r="F253">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12952,40 +12844,43 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
       </c>
       <c r="L253">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M253">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N253" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O253" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P253" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q253">
-        <v>4801</v>
+        <v>4741</v>
       </c>
       <c r="R253">
-        <v>4820</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F254">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12996,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L254">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13018,53 +12913,41 @@
         <v>19</v>
       </c>
       <c r="Q254">
-        <v>4821</v>
+        <v>4761</v>
       </c>
       <c r="R254">
-        <v>4840</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B255">
-        <v>30</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F255">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>4</v>
+      </c>
+      <c r="G255">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>53</v>
+      </c>
+      <c r="L255">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>5</v>
       </c>
-      <c r="G255">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H255">
-        <v>86</v>
-      </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
-      <c r="K255">
-        <v>1</v>
-      </c>
-      <c r="L255">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>9</v>
-      </c>
       <c r="M255">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N255" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O255" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13074,18 +12957,18 @@
         <v>19</v>
       </c>
       <c r="Q255">
-        <v>4841</v>
+        <v>4781</v>
       </c>
       <c r="R255">
-        <v>4860</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B256">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F256">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13096,37 +12979,37 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L256">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M256">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O256" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P256" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q256">
-        <v>4861</v>
+        <v>4801</v>
       </c>
       <c r="R256">
-        <v>4880</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B257">
         <v>8</v>
@@ -13140,48 +13023,96 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L257">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M257">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O257" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P257" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q257">
-        <v>4881</v>
+        <v>4821</v>
       </c>
       <c r="R257">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>458</v>
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>267</v>
+      </c>
+      <c r="B258">
+        <v>30</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>5</v>
+      </c>
+      <c r="G258">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>86</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>9</v>
+      </c>
+      <c r="M258">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N258" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>4</v>
+      </c>
+      <c r="O258" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>1</v>
       </c>
       <c r="P258" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="Q258">
+        <v>4841</v>
+      </c>
+      <c r="R258">
+        <v>4860</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B259">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F259">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13192,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L259">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -13214,37 +13145,37 @@
         <v>19</v>
       </c>
       <c r="Q259">
-        <v>4901</v>
+        <v>4861</v>
       </c>
       <c r="R259">
-        <v>4920</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F260">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G260">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L260">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M260">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N260" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -13258,62 +13189,26 @@
         <v>19</v>
       </c>
       <c r="Q260">
-        <v>4921</v>
+        <v>4881</v>
       </c>
       <c r="R260">
-        <v>4940</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>272</v>
-      </c>
-      <c r="B261">
-        <v>34</v>
-      </c>
-      <c r="F261">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
-      </c>
-      <c r="G261">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>34</v>
-      </c>
-      <c r="L261">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M261">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N261" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O261" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="P261" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q261">
-        <v>4941</v>
-      </c>
-      <c r="R261">
-        <v>4960</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B262">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F262">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -13324,11 +13219,11 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L262">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M262">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -13336,7 +13231,7 @@
       </c>
       <c r="N262" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O262" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -13346,118 +13241,250 @@
         <v>19</v>
       </c>
       <c r="Q262">
-        <v>4961</v>
+        <v>4901</v>
       </c>
       <c r="R262">
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>457</v>
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N263" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O263" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P263" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="Q263">
+        <v>4921</v>
+      </c>
+      <c r="R263">
+        <v>4940</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264">
+        <v>34</v>
+      </c>
+      <c r="F264">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>3</v>
+      </c>
+      <c r="G264">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>34</v>
+      </c>
+      <c r="L264">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N264" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O264" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q264">
+        <v>4941</v>
+      </c>
+      <c r="R264">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265">
+        <v>10</v>
+      </c>
+      <c r="F265">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>24</v>
+      </c>
+      <c r="L265">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>3</v>
+      </c>
+      <c r="M265">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N265" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="O265" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q265">
+        <v>4961</v>
+      </c>
+      <c r="R265">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="P266" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>274</v>
       </c>
-      <c r="B264">
+      <c r="B267">
         <v>4</v>
       </c>
-      <c r="F264">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G264">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H264">
+      <c r="F267">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H267">
         <v>4</v>
       </c>
-      <c r="L264">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M264">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N264" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O264" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P264" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q264">
+      <c r="L267">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N267" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O267" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q267">
         <v>4981</v>
       </c>
-      <c r="R264">
+      <c r="R267">
         <v>5000</v>
       </c>
     </row>
-    <row r="265" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+    <row r="268" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="P265" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="P268" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>275</v>
       </c>
-      <c r="B266">
+      <c r="B269">
         <v>7</v>
       </c>
-      <c r="F266">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G266">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H266">
+      <c r="F269">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H269">
         <v>7</v>
       </c>
-      <c r="L266">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M266">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N266" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O266" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P266" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q266">
+      <c r="L269">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N269" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O269" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P269" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q269">
         <v>5001</v>
       </c>
-      <c r="R266">
+      <c r="R269">
         <v>5020</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N3:O266">
+  <conditionalFormatting sqref="N3:O269">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13468,7 +13495,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P266">
+  <conditionalFormatting sqref="P3:P269">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -13485,8 +13512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0A8C0-6DBF-410A-8C0D-7C95BD14A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DBBDDA-F1F9-4631-973E-B5BC790DC89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="465">
   <si>
     <t>TAG</t>
   </si>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P234" sqref="P234"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P230" sqref="P230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12121,7 +12121,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P234" s="3"/>
+      <c r="P234" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q234">
         <v>4421</v>
       </c>
@@ -13513,7 +13515,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DBBDDA-F1F9-4631-973E-B5BC790DC89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82249A8-D901-4021-A7BB-81DF50B33FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="465">
   <si>
     <t>TAG</t>
   </si>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P230" sqref="P230"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,7 +5468,9 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P80" s="3"/>
+      <c r="P80" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q80">
         <v>1481</v>
       </c>
@@ -13514,8 +13516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13655,10 +13657,10 @@
       <c r="I4" t="s">
         <v>309</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>310</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>311</v>
       </c>
       <c r="M4" t="s">

--- a/Modding resources/Generals rework/Generals_worksheet.xlsx
+++ b/Modding resources/Generals rework/Generals_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\Generals rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82249A8-D901-4021-A7BB-81DF50B33FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAADC34D-4A33-45FB-8D57-1BF99D4864E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="467">
   <si>
     <t>TAG</t>
   </si>
@@ -1430,6 +1430,12 @@
   </si>
   <si>
     <t>SAR</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>NEN</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1608,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R269" totalsRowShown="0">
-  <autoFilter ref="A2:R269" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko2" displayName="Taulukko2" ref="A2:R271" totalsRowShown="0">
+  <autoFilter ref="A2:R271" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAG"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units 1"/>
@@ -1925,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R269"/>
+  <dimension ref="A2:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P167" sqref="P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8919,53 +8925,17 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>174</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>2</v>
-      </c>
-      <c r="L159">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M159">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N159" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O159" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+    <row r="159" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q159">
-        <v>2981</v>
-      </c>
-      <c r="R159">
-        <v>3000</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -8979,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L160">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -8997,20 +8967,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P160" s="3"/>
+      <c r="P160" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q160">
-        <v>3001</v>
+        <v>2981</v>
       </c>
       <c r="R160">
-        <v>3020</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9021,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L161">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9043,59 +9015,23 @@
         <v>19</v>
       </c>
       <c r="Q161">
-        <v>3021</v>
+        <v>3001</v>
       </c>
       <c r="R161">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>177</v>
-      </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="F162">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>2</v>
-      </c>
-      <c r="L162">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M162">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N162" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O162" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="P162" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q162">
-        <v>3041</v>
-      </c>
-      <c r="R162">
-        <v>3060</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -9109,59 +9045,59 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L163">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M163">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N163" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O163" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q163">
-        <v>3061</v>
+        <v>3021</v>
       </c>
       <c r="R163">
-        <v>3080</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F164">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L164">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M164">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9175,63 +9111,62 @@
         <v>19</v>
       </c>
       <c r="Q164">
-        <v>3081</v>
+        <v>3041</v>
       </c>
       <c r="R164">
-        <v>3100</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B165">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F165">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="L165">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M165">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N165" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O165" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P165" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P165" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q165">
-        <v>3101</v>
+        <v>3061</v>
       </c>
       <c r="R165">
-        <v>3120</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B166">
-        <v>3</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F166">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9242,10 +9177,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>3</v>
-      </c>
-      <c r="J166">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L166">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9267,47 +9199,41 @@
         <v>19</v>
       </c>
       <c r="Q166">
-        <v>3121</v>
+        <v>3081</v>
       </c>
       <c r="R166">
-        <v>3140</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B167">
-        <v>10</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F167">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167">
+        <v>75</v>
+      </c>
+      <c r="L167">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>6</v>
       </c>
-      <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
       <c r="M167">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N167" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O167" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -9315,29 +9241,35 @@
       </c>
       <c r="P167" s="3"/>
       <c r="Q167">
-        <v>3141</v>
+        <v>3101</v>
       </c>
       <c r="R167">
-        <v>3160</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
       </c>
       <c r="F168">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
       </c>
       <c r="L168">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9349,37 +9281,45 @@
       </c>
       <c r="N168" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O168" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P168" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q168">
-        <v>3161</v>
+        <v>3121</v>
       </c>
       <c r="R168">
-        <v>3180</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
       </c>
       <c r="F169">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G169">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
       </c>
       <c r="L169">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9391,26 +9331,26 @@
       </c>
       <c r="N169" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O169" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P169" s="3"/>
       <c r="Q169">
-        <v>3181</v>
+        <v>3141</v>
       </c>
       <c r="R169">
-        <v>3200</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9421,40 +9361,38 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L170">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M170">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P170" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P170" s="3"/>
       <c r="Q170">
-        <v>3201</v>
+        <v>3161</v>
       </c>
       <c r="R170">
-        <v>3220</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9465,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L171">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9483,41 +9421,39 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>1</v>
       </c>
-      <c r="P171" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P171" s="3"/>
       <c r="Q171">
-        <v>3221</v>
+        <v>3181</v>
       </c>
       <c r="R171">
-        <v>3240</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B172">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F172">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H172">
         <v>3</v>
       </c>
-      <c r="G172">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>37</v>
-      </c>
       <c r="L172">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M172">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9531,18 +9467,18 @@
         <v>19</v>
       </c>
       <c r="Q172">
-        <v>3241</v>
+        <v>3201</v>
       </c>
       <c r="R172">
-        <v>3260</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F173">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9553,59 +9489,59 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L173">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M173">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N173" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q173">
-        <v>3261</v>
+        <v>3221</v>
       </c>
       <c r="R173">
-        <v>3280</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F174">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="L174">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M174">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9619,18 +9555,18 @@
         <v>19</v>
       </c>
       <c r="Q174">
-        <v>3281</v>
+        <v>3241</v>
       </c>
       <c r="R174">
-        <v>3300</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9641,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L175">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9663,18 +9599,18 @@
         <v>19</v>
       </c>
       <c r="Q175">
-        <v>3301</v>
+        <v>3261</v>
       </c>
       <c r="R175">
-        <v>3320</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F176">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9685,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L176">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9707,18 +9643,18 @@
         <v>19</v>
       </c>
       <c r="Q176">
-        <v>3321</v>
+        <v>3281</v>
       </c>
       <c r="R176">
-        <v>3340</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F177">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9729,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L177">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9747,89 +9683,85 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P177" s="3"/>
+      <c r="P177" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q177">
-        <v>3341</v>
+        <v>3301</v>
       </c>
       <c r="R177">
-        <v>3360</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B178">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F178">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>82</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L178">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M178">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N178" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O178" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q178">
-        <v>3361</v>
+        <v>3321</v>
       </c>
       <c r="R178">
-        <v>3380</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B179">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L179">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M179">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9839,83 +9771,89 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P179" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P179" s="3"/>
       <c r="Q179">
-        <v>3381</v>
+        <v>3341</v>
       </c>
       <c r="R179">
-        <v>3400</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F180">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
       </c>
       <c r="L180">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M180">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N180" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O180" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P180" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q180">
-        <v>3401</v>
+        <v>3361</v>
       </c>
       <c r="R180">
-        <v>3420</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F181">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L181">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M181">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -9925,20 +9863,22 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P181" s="3"/>
+      <c r="P181" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q181">
-        <v>3421</v>
+        <v>3381</v>
       </c>
       <c r="R181">
-        <v>3440</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -9949,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -9969,43 +9909,37 @@
       </c>
       <c r="P182" s="3"/>
       <c r="Q182">
-        <v>3441</v>
+        <v>3401</v>
       </c>
       <c r="R182">
-        <v>3460</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B183">
-        <v>18</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>18</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M183">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N183" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10017,43 +9951,37 @@
       </c>
       <c r="P183" s="3"/>
       <c r="Q183">
-        <v>3461</v>
+        <v>3421</v>
       </c>
       <c r="R183">
-        <v>3480</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B184">
         <v>5</v>
       </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
       <c r="F184">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>5</v>
       </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
       <c r="L184">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M184">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10065,33 +9993,39 @@
       </c>
       <c r="P184" s="3"/>
       <c r="Q184">
-        <v>3481</v>
+        <v>3441</v>
       </c>
       <c r="R184">
-        <v>3500</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B185">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
       </c>
       <c r="F185">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H185">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
       </c>
       <c r="L185">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M185">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10105,41 +10039,45 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P185" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P185" s="3"/>
       <c r="Q185">
-        <v>3501</v>
+        <v>3461</v>
       </c>
       <c r="R185">
-        <v>3520</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
       </c>
       <c r="F186">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
       </c>
       <c r="L186">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M186">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10151,37 +10089,37 @@
       </c>
       <c r="P186" s="3"/>
       <c r="Q186">
-        <v>3521</v>
+        <v>3481</v>
       </c>
       <c r="R186">
-        <v>3540</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F187">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L187">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M187">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10195,18 +10133,18 @@
         <v>19</v>
       </c>
       <c r="Q187">
-        <v>3541</v>
+        <v>3501</v>
       </c>
       <c r="R187">
-        <v>3560</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F188">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10237,18 +10175,18 @@
       </c>
       <c r="P188" s="3"/>
       <c r="Q188">
-        <v>3561</v>
+        <v>3521</v>
       </c>
       <c r="R188">
-        <v>3580</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F189">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10259,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L189">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10277,46 +10215,45 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P189" s="3"/>
+      <c r="P189" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q189">
-        <v>3581</v>
+        <v>3541</v>
       </c>
       <c r="R189">
-        <v>3600</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B190">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>70</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M190">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N190" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O190" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -10324,18 +10261,18 @@
       </c>
       <c r="P190" s="3"/>
       <c r="Q190">
-        <v>3601</v>
+        <v>3561</v>
       </c>
       <c r="R190">
-        <v>3620</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10366,37 +10303,40 @@
       </c>
       <c r="P191" s="3"/>
       <c r="Q191">
-        <v>3621</v>
+        <v>3581</v>
       </c>
       <c r="R191">
-        <v>3640</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F192">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H192">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
       </c>
       <c r="L192">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M192">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N192" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10404,84 +10344,79 @@
       </c>
       <c r="O192" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P192" s="3"/>
       <c r="Q192">
-        <v>3641</v>
+        <v>3601</v>
       </c>
       <c r="R192">
-        <v>3660</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B193">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F193">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>11</v>
-      </c>
-      <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M193">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O193" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P193" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P193" s="3"/>
       <c r="Q193">
-        <v>3661</v>
+        <v>3621</v>
       </c>
       <c r="R193">
-        <v>3680</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B194">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L194">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M194">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10489,26 +10424,26 @@
       </c>
       <c r="N194" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O194" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P194" s="3"/>
       <c r="Q194">
-        <v>3681</v>
+        <v>3641</v>
       </c>
       <c r="R194">
-        <v>3700</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F195">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10519,11 +10454,14 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
       </c>
       <c r="L195">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -10531,45 +10469,47 @@
       </c>
       <c r="N195" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P195" s="3"/>
+      <c r="P195" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q195">
-        <v>3701</v>
+        <v>3661</v>
       </c>
       <c r="R195">
-        <v>3720</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F196">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L196">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -10581,161 +10521,161 @@
       </c>
       <c r="P196" s="3"/>
       <c r="Q196">
-        <v>3721</v>
+        <v>3681</v>
       </c>
       <c r="R196">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>464</v>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>210</v>
+      </c>
+      <c r="B197">
+        <v>10</v>
+      </c>
+      <c r="F197">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>18</v>
+      </c>
+      <c r="L197">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N197" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O197" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P197" s="3"/>
+      <c r="Q197">
+        <v>3701</v>
+      </c>
+      <c r="R197">
+        <v>3720</v>
+      </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B198">
-        <v>21</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198">
         <v>1</v>
       </c>
       <c r="F198">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>25</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-      <c r="J198">
         <v>1</v>
       </c>
       <c r="L198">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M198">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N198" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O198" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="P198" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P198" s="3"/>
       <c r="Q198">
-        <v>3741</v>
+        <v>3721</v>
       </c>
       <c r="R198">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>213</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="L199">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M199">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N199" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O199" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="P199" s="3"/>
-      <c r="Q199">
-        <v>3761</v>
-      </c>
-      <c r="R199">
-        <v>3780</v>
-      </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
       </c>
       <c r="F200">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
       </c>
       <c r="L200">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M200">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N200" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O200" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P200" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P200" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q200">
-        <v>3781</v>
+        <v>3741</v>
       </c>
       <c r="R200">
-        <v>3800</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -10749,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L201">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -10769,18 +10709,18 @@
       </c>
       <c r="P201" s="3"/>
       <c r="Q201">
-        <v>3801</v>
+        <v>3761</v>
       </c>
       <c r="R201">
-        <v>3820</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10791,46 +10731,46 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L202">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M202">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O202" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P202" s="3"/>
       <c r="Q202">
-        <v>3821</v>
+        <v>3781</v>
       </c>
       <c r="R202">
-        <v>3840</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B203">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>5</v>
@@ -10845,26 +10785,26 @@
       </c>
       <c r="N203" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O203" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P203" s="3"/>
       <c r="Q203">
-        <v>3841</v>
+        <v>3801</v>
       </c>
       <c r="R203">
-        <v>3860</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F204">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10875,46 +10815,46 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L204">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M204">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O204" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P204" s="3"/>
       <c r="Q204">
-        <v>3861</v>
+        <v>3821</v>
       </c>
       <c r="R204">
-        <v>3880</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F205">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>5</v>
@@ -10929,26 +10869,26 @@
       </c>
       <c r="N205" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O205" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P205" s="3"/>
       <c r="Q205">
-        <v>3881</v>
+        <v>3841</v>
       </c>
       <c r="R205">
-        <v>3900</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -10959,57 +10899,57 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L206">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M206">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O206" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P206" s="3"/>
       <c r="Q206">
-        <v>3901</v>
+        <v>3861</v>
       </c>
       <c r="R206">
-        <v>3920</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F207">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L207">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M207">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11021,29 +10961,29 @@
       </c>
       <c r="P207" s="3"/>
       <c r="Q207">
-        <v>3921</v>
+        <v>3881</v>
       </c>
       <c r="R207">
-        <v>3940</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B208">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F208">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L208">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11055,45 +10995,45 @@
       </c>
       <c r="N208" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P208" s="3"/>
       <c r="Q208">
-        <v>3941</v>
+        <v>3901</v>
       </c>
       <c r="R208">
-        <v>3960</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F209">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L209">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11105,37 +11045,37 @@
       </c>
       <c r="P209" s="3"/>
       <c r="Q209">
-        <v>3961</v>
+        <v>3921</v>
       </c>
       <c r="R209">
-        <v>3980</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F210">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L210">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M210">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11147,24 +11087,60 @@
       </c>
       <c r="P210" s="3"/>
       <c r="Q210">
-        <v>3981</v>
+        <v>3941</v>
       </c>
       <c r="R210">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>463</v>
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N211" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O211" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P211" s="3"/>
+      <c r="Q211">
+        <v>3961</v>
+      </c>
+      <c r="R211">
+        <v>3980</v>
+      </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F212">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11177,95 +11153,56 @@
       <c r="H212">
         <v>3</v>
       </c>
-      <c r="K212">
-        <v>1</v>
-      </c>
       <c r="L212">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M212">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N212" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O212" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212">
-        <v>4001</v>
+        <v>3981</v>
       </c>
       <c r="R212">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>226</v>
-      </c>
-      <c r="B213">
-        <v>2</v>
-      </c>
-      <c r="F213">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>2</v>
-      </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
-      </c>
-      <c r="M213">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N213" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O213" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="P213" s="3"/>
-      <c r="Q213">
-        <v>4021</v>
-      </c>
-      <c r="R213">
-        <v>4040</v>
-      </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B214">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F214">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
       </c>
       <c r="L214">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11277,26 +11214,26 @@
       </c>
       <c r="N214" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O214" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P214" s="3"/>
       <c r="Q214">
-        <v>4041</v>
+        <v>4001</v>
       </c>
       <c r="R214">
-        <v>4060</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F215">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11307,57 +11244,60 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
       </c>
       <c r="L215">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M215">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P215" s="3"/>
       <c r="Q215">
-        <v>4061</v>
+        <v>4021</v>
       </c>
       <c r="R215">
-        <v>4080</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F216">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L216">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M216">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N216" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11369,29 +11309,29 @@
       </c>
       <c r="P216" s="3"/>
       <c r="Q216">
-        <v>4081</v>
+        <v>4041</v>
       </c>
       <c r="R216">
-        <v>4100</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B217">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F217">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L217">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11403,28 +11343,26 @@
       </c>
       <c r="N217" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O217" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>-1</v>
-      </c>
-      <c r="P217" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P217" s="3"/>
       <c r="Q217">
-        <v>4101</v>
+        <v>4061</v>
       </c>
       <c r="R217">
-        <v>4120</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F218">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11435,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L218">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11453,191 +11391,191 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P218" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P218" s="3"/>
       <c r="Q218">
-        <v>4121</v>
+        <v>4081</v>
       </c>
       <c r="R218">
-        <v>4140</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B219">
-        <v>58</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F219">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H219">
         <v>7</v>
       </c>
-      <c r="G219">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="H219">
-        <v>68</v>
-      </c>
-      <c r="I219">
-        <v>1</v>
-      </c>
-      <c r="J219">
-        <v>1</v>
-      </c>
       <c r="L219">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M219">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N219" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O219" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P219" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q219">
-        <v>4141</v>
+        <v>4101</v>
       </c>
       <c r="R219">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="P220" s="3"/>
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>231</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N220" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O220" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q220">
+        <v>4121</v>
+      </c>
+      <c r="R220">
+        <v>4140</v>
+      </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B221">
-        <v>20</v>
-      </c>
-      <c r="E221">
+        <v>58</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
         <v>1</v>
       </c>
       <c r="F221">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>7</v>
+      </c>
+      <c r="G221">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H221">
+        <v>68</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>8</v>
+      </c>
+      <c r="M221">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
         <v>3</v>
       </c>
-      <c r="G221">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H221">
-        <v>16</v>
-      </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
-      </c>
-      <c r="M221">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
       <c r="N221" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q221">
-        <v>4161</v>
+        <v>4141</v>
       </c>
       <c r="R221">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>234</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <v>7</v>
-      </c>
-      <c r="L222">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M222">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N222" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O222" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="P222" s="3"/>
-      <c r="Q222">
-        <v>4181</v>
-      </c>
-      <c r="R222">
-        <v>4200</v>
-      </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B223">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
       </c>
       <c r="F223">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
         <v>1</v>
       </c>
       <c r="H223">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
       </c>
       <c r="L223">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M223">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -11655,41 +11593,41 @@
         <v>19</v>
       </c>
       <c r="Q223">
-        <v>4201</v>
+        <v>4161</v>
       </c>
       <c r="R223">
-        <v>4220</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B224">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L224">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M224">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N224" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O224" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11697,37 +11635,37 @@
       </c>
       <c r="P224" s="3"/>
       <c r="Q224">
-        <v>4221</v>
+        <v>4181</v>
       </c>
       <c r="R224">
-        <v>4240</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F225">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L225">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M225">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -11737,43 +11675,45 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P225" s="3"/>
+      <c r="P225" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q225">
-        <v>4241</v>
+        <v>4201</v>
       </c>
       <c r="R225">
-        <v>4260</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F226">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L226">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M226">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O226" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11781,15 +11721,15 @@
       </c>
       <c r="P226" s="3"/>
       <c r="Q226">
-        <v>4261</v>
+        <v>4221</v>
       </c>
       <c r="R226">
-        <v>4280</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -11823,15 +11763,15 @@
       </c>
       <c r="P227" s="3"/>
       <c r="Q227">
-        <v>4281</v>
+        <v>4241</v>
       </c>
       <c r="R227">
-        <v>4300</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -11865,41 +11805,41 @@
       </c>
       <c r="P228" s="3"/>
       <c r="Q228">
-        <v>4301</v>
+        <v>4261</v>
       </c>
       <c r="R228">
-        <v>4320</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B229">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F229">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L229">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M229">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O229" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -11907,18 +11847,18 @@
       </c>
       <c r="P229" s="3"/>
       <c r="Q229">
-        <v>4321</v>
+        <v>4281</v>
       </c>
       <c r="R229">
-        <v>4340</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -11929,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -11947,85 +11887,81 @@
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P230" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P230" s="3"/>
       <c r="Q230">
-        <v>4341</v>
+        <v>4301</v>
       </c>
       <c r="R230">
-        <v>4360</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F231">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L231">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M231">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N231" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O231" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
         <v>0</v>
       </c>
-      <c r="P231" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P231" s="3"/>
       <c r="Q231">
-        <v>4361</v>
+        <v>4321</v>
       </c>
       <c r="R231">
-        <v>4380</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F232">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L232">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M232">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12039,37 +11975,37 @@
         <v>19</v>
       </c>
       <c r="Q232">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="R232">
-        <v>4400</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B233">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L233">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M233">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12083,37 +12019,37 @@
         <v>19</v>
       </c>
       <c r="Q233">
-        <v>4401</v>
+        <v>4361</v>
       </c>
       <c r="R233">
-        <v>4420</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F234">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L234">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M234">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N234" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12127,18 +12063,18 @@
         <v>19</v>
       </c>
       <c r="Q234">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="R234">
-        <v>4440</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B235">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F235">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12149,11 +12085,11 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="L235">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M235">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12161,7 +12097,7 @@
       </c>
       <c r="N235" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O235" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12171,18 +12107,18 @@
         <v>19</v>
       </c>
       <c r="Q235">
-        <v>4441</v>
+        <v>4401</v>
       </c>
       <c r="R235">
-        <v>4460</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F236">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12215,18 +12151,18 @@
         <v>19</v>
       </c>
       <c r="Q236">
-        <v>4461</v>
+        <v>4421</v>
       </c>
       <c r="R236">
-        <v>4480</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B237">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F237">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12237,11 +12173,11 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="L237">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M237">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
@@ -12249,7 +12185,7 @@
       </c>
       <c r="N237" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O237" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
@@ -12259,43 +12195,37 @@
         <v>19</v>
       </c>
       <c r="Q237">
-        <v>4481</v>
+        <v>4441</v>
       </c>
       <c r="R237">
-        <v>4500</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B238">
-        <v>2</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G238">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>4</v>
-      </c>
-      <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M238">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
@@ -12309,166 +12239,172 @@
         <v>19</v>
       </c>
       <c r="Q238">
-        <v>4501</v>
+        <v>4461</v>
       </c>
       <c r="R238">
-        <v>4520</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>249</v>
+      </c>
+      <c r="B239">
+        <v>17</v>
+      </c>
+      <c r="F239">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>16</v>
+      </c>
+      <c r="L239">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N239" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O239" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q239">
+        <v>4481</v>
+      </c>
+      <c r="R239">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>250</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G240">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>4</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N240" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O240" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q240">
+        <v>4501</v>
+      </c>
+      <c r="R240">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>251</v>
       </c>
-      <c r="B239">
+      <c r="B241">
         <v>16</v>
       </c>
-      <c r="F239">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>2</v>
-      </c>
-      <c r="G239">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H239">
+      <c r="F241">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>2</v>
+      </c>
+      <c r="G241">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H241">
         <v>25</v>
       </c>
-      <c r="L239">
+      <c r="L241">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
         <v>3</v>
       </c>
-      <c r="M239">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N239" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="O239" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P239" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q239">
+      <c r="M241">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N241" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="O241" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q241">
         <v>4521</v>
       </c>
-      <c r="R239">
+      <c r="R241">
         <v>4540</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
+    <row r="242" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="P240" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="P242" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P241" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>252</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-      <c r="F242">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>0</v>
-      </c>
-      <c r="L242">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M242">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N242" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O242" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="P242" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q242">
-        <v>4541</v>
-      </c>
-      <c r="R242">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>253</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>1</v>
-      </c>
-      <c r="L243">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M243">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N243" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O243" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
-      </c>
       <c r="P243" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q243">
-        <v>4561</v>
-      </c>
-      <c r="R243">
-        <v>4580</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12479,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L244">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12501,18 +12437,18 @@
         <v>19</v>
       </c>
       <c r="Q244">
-        <v>4581</v>
+        <v>4541</v>
       </c>
       <c r="R244">
-        <v>4600</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F245">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12523,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L245">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12545,26 +12481,62 @@
         <v>19</v>
       </c>
       <c r="Q245">
-        <v>4601</v>
+        <v>4561</v>
       </c>
       <c r="R245">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>459</v>
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>5</v>
+      </c>
+      <c r="L246">
+        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N246" s="2">
+        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
+        <v>0</v>
+      </c>
+      <c r="O246" s="2">
+        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
+        <v>0</v>
       </c>
       <c r="P246" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="Q246">
+        <v>4581</v>
+      </c>
+      <c r="R246">
+        <v>4600</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F247">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12575,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L247">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
@@ -12597,62 +12569,26 @@
         <v>19</v>
       </c>
       <c r="Q247">
-        <v>4621</v>
+        <v>4601</v>
       </c>
       <c r="R247">
-        <v>4640</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>257</v>
-      </c>
-      <c r="B248">
-        <v>7</v>
-      </c>
-      <c r="F248">
-        <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 1]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>7</v>
-      </c>
-      <c r="L248">
-        <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>1</v>
-      </c>
-      <c r="M248">
-        <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N248" s="2">
-        <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>0</v>
-      </c>
-      <c r="O248" s="2">
-        <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>0</v>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="P248" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="Q248">
-        <v>4641</v>
-      </c>
-      <c r="R248">
-        <v>4660</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
         <f>ROUND(Taulukko2[[#This Row],[Units 1]]/15,0)+1+Taulukko2[[#This Row],[Is Major 1]]+Taulukko2[[#This Row],[Is in Faction 1]]+Taulukko2[[#This Row],[Is Nato 1]]</f>
@@ -12663,40 +12599,40 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L249">
         <f>ROUND(Taulukko2[[#This Row],[Units 2]]/15,0)+1+Taulukko2[[#This Row],[Is Major 2]]+Taulukko2[[#This Row],[Is in Faction 2]]+Taulukko2[[#This Row],[Is Nato 2]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M249">
         <f>ROUND(Taulukko2[[#This Row],[No of Gens 2]]/3,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N249" s="2">
         <f>Taulukko2[[#This Row],[No of Gens 2]]-Taulukko2[[#This Row],[No of Gens 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O249" s="2">
         <f>Taulukko2[[#This Row],[No of FMs 2]]-Taulukko2[[#This Row],[No of FMs 1]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P249" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q249">
-        <v>4661</v>
+        <v>46